--- a/testData/TestData_CPQ_Automation.xlsx
+++ b/testData/TestData_CPQ_Automation.xlsx
@@ -8,23 +8,29 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mnayak\PycharmProjects\OneStopCPQ\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38CDEBA7-7F21-446E-B2D3-7108224A3608}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFF2E6B2-167E-4077-87D4-4633D33CC47B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="4" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="TC_002" sheetId="1" r:id="rId1"/>
-    <sheet name="TC_003" sheetId="2" r:id="rId2"/>
-    <sheet name="TC_004" sheetId="3" r:id="rId3"/>
-    <sheet name="TC_005" sheetId="4" r:id="rId4"/>
-    <sheet name="TC_006" sheetId="5" r:id="rId5"/>
-    <sheet name="TC_007" sheetId="6" r:id="rId6"/>
-    <sheet name="TC_008" sheetId="7" r:id="rId7"/>
-    <sheet name="TC_009" sheetId="8" r:id="rId8"/>
-    <sheet name="TC_010" sheetId="10" r:id="rId9"/>
-    <sheet name="TC_011" sheetId="11" r:id="rId10"/>
-    <sheet name="TC_012" sheetId="12" r:id="rId11"/>
-    <sheet name="PullReqs" sheetId="9" r:id="rId12"/>
+    <sheet name="TCs Status" sheetId="18" r:id="rId1"/>
+    <sheet name="TC_002" sheetId="1" r:id="rId2"/>
+    <sheet name="TC_003" sheetId="2" r:id="rId3"/>
+    <sheet name="TC_004" sheetId="3" r:id="rId4"/>
+    <sheet name="TC_005" sheetId="4" r:id="rId5"/>
+    <sheet name="TC_006" sheetId="5" r:id="rId6"/>
+    <sheet name="TC_007" sheetId="6" r:id="rId7"/>
+    <sheet name="TC_008" sheetId="7" r:id="rId8"/>
+    <sheet name="TC_009" sheetId="8" r:id="rId9"/>
+    <sheet name="TC_010" sheetId="9" r:id="rId10"/>
+    <sheet name="TC_011" sheetId="10" r:id="rId11"/>
+    <sheet name="TC_012" sheetId="11" r:id="rId12"/>
+    <sheet name="InstallPackagesSpring21" sheetId="12" r:id="rId13"/>
+    <sheet name="PullReqs" sheetId="13" r:id="rId14"/>
+    <sheet name="TC_013" sheetId="14" r:id="rId15"/>
+    <sheet name="TC_014" sheetId="15" r:id="rId16"/>
+    <sheet name="TC_015" sheetId="16" r:id="rId17"/>
+    <sheet name="TC_016" sheetId="17" r:id="rId18"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="237">
   <si>
     <t>Test Name</t>
   </si>
@@ -256,6 +262,207 @@
     <t>Value4;Value5</t>
   </si>
   <si>
+    <t>Template</t>
+  </si>
+  <si>
+    <t>test_Prop2Agrmnt_01</t>
+  </si>
+  <si>
+    <t>MN - 2020 Proposal TC_010</t>
+  </si>
+  <si>
+    <t>Quoting Template</t>
+  </si>
+  <si>
+    <t>test_ManualAdjustment_01</t>
+  </si>
+  <si>
+    <t>MN - 2020 Proposal TC_011</t>
+  </si>
+  <si>
+    <t>MN - 2020 Standalone (Allow Man Adj. False)</t>
+  </si>
+  <si>
+    <t>test_Approvals_01</t>
+  </si>
+  <si>
+    <t>MN - 2020 Proposal TC_012</t>
+  </si>
+  <si>
+    <t>Url</t>
+  </si>
+  <si>
+    <t>UserName</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>Branch</t>
+  </si>
+  <si>
+    <t>Spring21</t>
+  </si>
+  <si>
+    <t>Spring21 or Winter20 or Summer20</t>
+  </si>
+  <si>
+    <t>Package Name</t>
+  </si>
+  <si>
+    <t>Need to Install (Yes/No)</t>
+  </si>
+  <si>
+    <t>Version</t>
+  </si>
+  <si>
+    <t>Installation URL</t>
+  </si>
+  <si>
+    <t>Conga Base Library</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>2.150</t>
+  </si>
+  <si>
+    <t>Conga Contract Lifecycle Management</t>
+  </si>
+  <si>
+    <t>12.598</t>
+  </si>
+  <si>
+    <t>Conga Configuration &amp; Pricing</t>
+  </si>
+  <si>
+    <t>13.1872</t>
+  </si>
+  <si>
+    <t>Conga Quote Configuration Integration</t>
+  </si>
+  <si>
+    <t>13.350</t>
+  </si>
+  <si>
+    <t>Conga CLM Configuration Integration</t>
+  </si>
+  <si>
+    <t>13.150</t>
+  </si>
+  <si>
+    <t>Conga Quote CLM Integration</t>
+  </si>
+  <si>
+    <t>10.67</t>
+  </si>
+  <si>
+    <t>Conga Approvals</t>
+  </si>
+  <si>
+    <t>12.212</t>
+  </si>
+  <si>
+    <t>Conga CPQ Approvals</t>
+  </si>
+  <si>
+    <t>11.19</t>
+  </si>
+  <si>
+    <t>Conga Quote Management</t>
+  </si>
+  <si>
+    <t>11.240</t>
+  </si>
+  <si>
+    <t>Conga Billing</t>
+  </si>
+  <si>
+    <t>7.260</t>
+  </si>
+  <si>
+    <t>Conga CPQ Api</t>
+  </si>
+  <si>
+    <t>13.119</t>
+  </si>
+  <si>
+    <t>Conga CPQ Setup</t>
+  </si>
+  <si>
+    <t>13.95</t>
+  </si>
+  <si>
+    <t>1.123.2</t>
+  </si>
+  <si>
+    <t>https://test.salesforce.com/packaging/installPackage.apexp?p0=04t6g000008fbb0</t>
+  </si>
+  <si>
+    <t>11.582.14</t>
+  </si>
+  <si>
+    <t>https://test.salesforce.com/packaging/installPackage.apexp?p0=04t1T000000atdo</t>
+  </si>
+  <si>
+    <t>12.1839.37</t>
+  </si>
+  <si>
+    <t>https://test.salesforce.com/packaging/installPackage.apexp?p0=04t2K000000G0Ct</t>
+  </si>
+  <si>
+    <t>12.344.8</t>
+  </si>
+  <si>
+    <t>https://test.salesforce.com/packaging/installPackage.apexp?p0=04t1T000000ks2i</t>
+  </si>
+  <si>
+    <t>12.146.7</t>
+  </si>
+  <si>
+    <t>https://test.salesforce.com/packaging/installPackage.apexp?p0=04t2S000000JaOO</t>
+  </si>
+  <si>
+    <t>9.66.2</t>
+  </si>
+  <si>
+    <t>https://test.salesforce.com/packaging/installPackage.apexp?p0=04t4W000002vxfK</t>
+  </si>
+  <si>
+    <t>11.190.5</t>
+  </si>
+  <si>
+    <t>https://test.salesforce.com/packaging/installPackage.apexp?p0=04t4u00000082Dc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://test.salesforce.com/packaging/installPackage.apexp?p0=04t0H0000015pK6 </t>
+  </si>
+  <si>
+    <t>10.227.5</t>
+  </si>
+  <si>
+    <t>https://test.salesforce.com/packaging/installPackage.apexp?p0=04t4u000001AAi3</t>
+  </si>
+  <si>
+    <t>6.251.3</t>
+  </si>
+  <si>
+    <t>https://test.salesforce.com/packaging/installPackage.apexp?p0=04t3m000002GoCi</t>
+  </si>
+  <si>
+    <t>12.111</t>
+  </si>
+  <si>
+    <t>https://test.salesforce.com/packaging/installPackage.apexp?p0=04t4W000002PkUa</t>
+  </si>
+  <si>
+    <t>12.83.3</t>
+  </si>
+  <si>
+    <t>https://test.salesforce.com/packaging/installPackage.apexp?p0=04t1Q000001MRXt</t>
+  </si>
+  <si>
     <t>Pull Requests</t>
   </si>
   <si>
@@ -298,38 +505,266 @@
     <t>New methods for waterfall and manual adjustments + refactoring</t>
   </si>
   <si>
-    <t>test_Prop2Agrmnt_01</t>
-  </si>
-  <si>
-    <t>MN - 2020 Proposal TC_010</t>
-  </si>
-  <si>
-    <t>Template</t>
-  </si>
-  <si>
-    <t>Quoting Template</t>
-  </si>
-  <si>
-    <t>test_ManualAdjustment_01</t>
-  </si>
-  <si>
-    <t>MN - 2020 Proposal TC_011</t>
-  </si>
-  <si>
-    <t>MN - 2020 Standalone (Allow Man Adj. False)</t>
-  </si>
-  <si>
-    <t>MN - 2020 Proposal TC_012</t>
-  </si>
-  <si>
-    <t>test_Approvals_01</t>
+    <t>ATTR</t>
+  </si>
+  <si>
+    <t>Prompt Message</t>
+  </si>
+  <si>
+    <t>Inclusion Message</t>
+  </si>
+  <si>
+    <t>ShowMessage</t>
+  </si>
+  <si>
+    <t>Option To Search</t>
+  </si>
+  <si>
+    <t>FinalizationMessage</t>
+  </si>
+  <si>
+    <t>test_CR_Inclusion</t>
+  </si>
+  <si>
+    <t>MN - 2020 Proposal TC_013</t>
+  </si>
+  <si>
+    <t>MN - 2020 BUNDLE (ConstRule)</t>
+  </si>
+  <si>
+    <t>On addition of MN - 2020 BUNDLE (ConstRule) product with Qty 2, system has prompted MN - 2020 Option 2</t>
+  </si>
+  <si>
+    <t>auto-included MN - 2020 Option 1</t>
+  </si>
+  <si>
+    <t>MN - 2020 BUNDLE (ConstRule) show message MN - 2020 Option 3</t>
+  </si>
+  <si>
+    <t>MN - 2020 Option 3</t>
+  </si>
+  <si>
+    <t>MN - 2020 BUNDLE (ConstRule) check on finalization MN - 2020 Option 4</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>test_Deal_Guidance</t>
+  </si>
+  <si>
+    <t>MN - 2020 Proposal TC_014</t>
+  </si>
+  <si>
+    <t>MN - 2020 Standalone (DealGdnc)</t>
+  </si>
+  <si>
+    <t>test_PriceMatrix</t>
+  </si>
+  <si>
+    <t>MN - 2020 Proposal TC_015</t>
+  </si>
+  <si>
+    <t>MN - 2020 Standalone PP (PriceMatrix)</t>
+  </si>
+  <si>
+    <t>test_PriceWaterfall</t>
+  </si>
+  <si>
+    <t>MN - 2020 Proposal TC_016</t>
+  </si>
+  <si>
+    <t>https://test.salesforce.com/</t>
+  </si>
+  <si>
+    <t>data@cpq.ctl.ctlsprng21</t>
+  </si>
+  <si>
+    <t>Conga2021</t>
+  </si>
+  <si>
+    <t>https://test.salesforce.com/packaging/installPackage.apexp?p0=04t6g000008jhWN</t>
+  </si>
+  <si>
+    <t>https://test.salesforce.com/packaging/installPackage.apexp?p0=04t1T0000003vKk</t>
+  </si>
+  <si>
+    <t>https://test.salesforce.com/packaging/installPackage.apexp?p0=04t2K000000Wqa4</t>
+  </si>
+  <si>
+    <t>https://test.salesforce.com/packaging/installPackage.apexp?p0=04t1T0000003vJ6</t>
+  </si>
+  <si>
+    <t>https://test.salesforce.com/packaging/installPackage.apexp?p0=04t2S000000gV3r</t>
+  </si>
+  <si>
+    <t>https://test.salesforce.com/packaging/installPackage.apexp?p0=04t4W000002Yvu1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://test.salesforce.com/packaging/installPackage.apexp?p0=04t4u000000KLcV   </t>
+  </si>
+  <si>
+    <t>https://test.salesforce.com/packaging/installPackage.apexp?p0=04t0H0000015pK6</t>
+  </si>
+  <si>
+    <t>https://test.salesforce.com/packaging/installPackage.apexp?p0=04t4u0000011m6x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://test.salesforce.com/packaging/installPackage.apexp?p0=04t3m000000KoAQ </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://test.salesforce.com/packaging/installPackage.apexp?p0=04t4W000002PrrB</t>
+  </si>
+  <si>
+    <t>https://test.salesforce.com/packaging/installPackage.apexp?p0=04t1Q000001IF8M</t>
+  </si>
+  <si>
+    <t>TC Name</t>
+  </si>
+  <si>
+    <t>Winter'20</t>
+  </si>
+  <si>
+    <t>Spring'21</t>
+  </si>
+  <si>
+    <t>test_TC_001_TestLogin</t>
+  </si>
+  <si>
+    <t>Method Name</t>
+  </si>
+  <si>
+    <t>test_LoginPageTitle</t>
+  </si>
+  <si>
+    <t>Passed</t>
+  </si>
+  <si>
+    <t>test_Login</t>
+  </si>
+  <si>
+    <t>TC #</t>
+  </si>
+  <si>
+    <t>test_TC_002_ProposalCreation</t>
+  </si>
+  <si>
+    <t>test_TC_003_TestMultipleAdjustments</t>
+  </si>
+  <si>
+    <t>test_MultipleAdjustment_Classic</t>
+  </si>
+  <si>
+    <t>test_MultipleAdjustment_Turbo</t>
+  </si>
+  <si>
+    <t>test_MultipleAdjustment_Split</t>
+  </si>
+  <si>
+    <t>Failed</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Not Supported</t>
+  </si>
+  <si>
+    <t>test_TC_004_TestCopyActionOnCart</t>
+  </si>
+  <si>
+    <t>test_CartCopyAction_Classic</t>
+  </si>
+  <si>
+    <t>test_CartCopyAction_Split</t>
+  </si>
+  <si>
+    <t>test_CartCopyAction_Turbo</t>
+  </si>
+  <si>
+    <t>test_TC_005_TestMassUpdateOnCart</t>
+  </si>
+  <si>
+    <t>test_MassUpdateAction_Classic</t>
+  </si>
+  <si>
+    <t>test_MassUpdateAction_Split</t>
+  </si>
+  <si>
+    <t>test_MassUpdateAction_Turbo</t>
+  </si>
+  <si>
+    <t>test_TC_006_TestDeletePrdOnCart</t>
+  </si>
+  <si>
+    <t>test_DeleteProductAction_Classic</t>
+  </si>
+  <si>
+    <t>test_DeleteProductAction_Split</t>
+  </si>
+  <si>
+    <t>test_DeleteProductAction_Turbo</t>
+  </si>
+  <si>
+    <t>test_TC_007_TestSaveAsFavOnCart</t>
+  </si>
+  <si>
+    <t>test_SaveAsFav_Classic</t>
+  </si>
+  <si>
+    <t>test_SaveAsFav_Split</t>
+  </si>
+  <si>
+    <t>test_SaveAsFav_Turbo</t>
+  </si>
+  <si>
+    <t>test_TC_008_TestCustomView</t>
+  </si>
+  <si>
+    <t>test_CustomCartView_Classic</t>
+  </si>
+  <si>
+    <t>test_CustomCartView_Split</t>
+  </si>
+  <si>
+    <t>test_CustomCartView_Turbo</t>
+  </si>
+  <si>
+    <t>test_TC_009_TestProductAttributeRule</t>
+  </si>
+  <si>
+    <t>test_PAR_Classic</t>
+  </si>
+  <si>
+    <t>test_PAR_Split</t>
+  </si>
+  <si>
+    <t>test_PAR_Turbo</t>
+  </si>
+  <si>
+    <t>test_TC_010_Proposal_Finalize_Generate_Accept_Create_Agreement</t>
+  </si>
+  <si>
+    <t>test_Prop2Agrmnt_Classic</t>
+  </si>
+  <si>
+    <t>test_Prop2Agrmnt_EnterpriseClassic</t>
+  </si>
+  <si>
+    <t>test_Prop2Agrmnt_EnterpriseTurbo</t>
+  </si>
+  <si>
+    <t>test_Prop2Agrmnt_Split</t>
+  </si>
+  <si>
+    <t>test_Prop2Agrmnt_Turbo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -345,16 +780,60 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Bahnschrift SemiLight"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Bahnschrift SemiLight"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Bahnschrift SemiLight"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -362,15 +841,58 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -651,110 +1173,421 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FE8C29B-2DBF-44E9-93DE-0354258C5C49}">
+  <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.42578125" style="9" customWidth="1"/>
+    <col min="2" max="2" width="69" style="9" customWidth="1"/>
+    <col min="3" max="3" width="37.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="9" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" style="9" customWidth="1"/>
+    <col min="6" max="6" width="27.140625" style="9" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="9">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B2" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="11"/>
+      <c r="C3" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="9">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="B4" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C5" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="9">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="B6" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C7" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C8" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="9">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="B9" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C10" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C11" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="9">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="B12" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C13" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C14" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="9">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="B15" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C16" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C17" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="9">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="B18" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C19" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C20" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="9">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="B21" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C22" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C23" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="9">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B24" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C25" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C26" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="9">
         <v>10</v>
       </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J3" t="s">
-        <v>19</v>
-      </c>
+      <c r="B27" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C28" s="9" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C29" s="9" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C30" s="9" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C31" s="9" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="34" spans="3:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="C34" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34A0F5E1-CBAB-46E4-A856-13B5E0D59D77}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.7109375" style="5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -763,13 +1596,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="41.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="41.42578125" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -797,13 +1630,13 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
@@ -820,75 +1653,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D376F0FB-9659-44D1-AA84-405DC547F7D9}">
-  <dimension ref="A1:G2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="41.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -897,88 +1662,1011 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="41.42578125" style="5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+  <dimension ref="A1:E30"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="35.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="76.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="77.28515625" style="5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D6" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>93</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D7" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>95</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D8" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>97</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D9" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>99</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D10" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>101</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D11" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>103</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D12" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>105</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D13" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>107</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D14" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>109</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D15" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>111</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D16" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>113</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D17" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>90</v>
+      </c>
+      <c r="B19" t="s">
+        <v>91</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D19" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>93</v>
+      </c>
+      <c r="B20" t="s">
+        <v>91</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D20" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>95</v>
+      </c>
+      <c r="B21" t="s">
+        <v>91</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D21" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>97</v>
+      </c>
+      <c r="B22" t="s">
+        <v>91</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D22" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>99</v>
+      </c>
+      <c r="B23" t="s">
+        <v>91</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D23" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>101</v>
+      </c>
+      <c r="B24" t="s">
+        <v>91</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D24" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>103</v>
+      </c>
+      <c r="B25" t="s">
+        <v>91</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D25" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>105</v>
+      </c>
+      <c r="B26" t="s">
+        <v>91</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D26" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>107</v>
+      </c>
+      <c r="B27" t="s">
+        <v>91</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D27" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>109</v>
+      </c>
+      <c r="B28" t="s">
+        <v>91</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D28" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>111</v>
+      </c>
+      <c r="B29" t="s">
+        <v>91</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D29" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>113</v>
+      </c>
+      <c r="B30" t="s">
+        <v>91</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D30" t="s">
+        <v>137</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1" xr:uid="{00000000-0004-0000-0B00-000000000000}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{00000000-0004-0000-0B00-000001000000}"/>
+    <hyperlink ref="D7" r:id="rId3" display="https://login.salesforce.com/packaging/installPackage.apexp?p0=04t1T0000003vKk" xr:uid="{00000000-0004-0000-0B00-000002000000}"/>
+    <hyperlink ref="D8" r:id="rId4" display="https://login.salesforce.com/packaging/installPackage.apexp?p0=04t2K000000Wqa4" xr:uid="{00000000-0004-0000-0B00-000003000000}"/>
+    <hyperlink ref="D9" r:id="rId5" display="https://login.salesforce.com/packaging/installPackage.apexp?p0=04t1T0000003vJ6" xr:uid="{00000000-0004-0000-0B00-000004000000}"/>
+    <hyperlink ref="D10" r:id="rId6" display="https://login.salesforce.com/packaging/installPackage.apexp?p0=04t2S000000gV3r" xr:uid="{00000000-0004-0000-0B00-000005000000}"/>
+    <hyperlink ref="D11" r:id="rId7" display="https://login.salesforce.com/packaging/installPackage.apexp?p0=04t4W000002Yvu1" xr:uid="{00000000-0004-0000-0B00-000006000000}"/>
+    <hyperlink ref="D14" r:id="rId8" display="https://login.salesforce.com/packaging/installPackage.apexp?p0=04t4u0000011m6x" xr:uid="{00000000-0004-0000-0B00-000007000000}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="47.5703125" customWidth="1"/>
-    <col min="2" max="2" width="119.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="47.5703125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="119.7109375" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>71</v>
+        <v>138</v>
       </c>
       <c r="B1" t="s">
-        <v>72</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>73</v>
+        <v>140</v>
       </c>
       <c r="B2" t="s">
-        <v>74</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>75</v>
+        <v>142</v>
       </c>
       <c r="B3" t="s">
-        <v>76</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="B4" t="s">
-        <v>78</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>79</v>
+        <v>146</v>
       </c>
       <c r="B5" t="s">
-        <v>80</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>81</v>
+        <v>148</v>
       </c>
       <c r="B6" t="s">
-        <v>82</v>
+        <v>149</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>83</v>
+        <v>150</v>
       </c>
       <c r="B7" t="s">
-        <v>84</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0800-000000000000}"/>
-    <hyperlink ref="A3" r:id="rId2" xr:uid="{00000000-0004-0000-0800-000001000000}"/>
-    <hyperlink ref="A4" r:id="rId3" xr:uid="{00000000-0004-0000-0800-000002000000}"/>
-    <hyperlink ref="A5" r:id="rId4" xr:uid="{00000000-0004-0000-0800-000003000000}"/>
-    <hyperlink ref="A6" r:id="rId5" xr:uid="{00000000-0004-0000-0800-000004000000}"/>
-    <hyperlink ref="A7" r:id="rId6" xr:uid="{00000000-0004-0000-0800-000005000000}"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0C00-000000000000}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{00000000-0004-0000-0C00-000001000000}"/>
+    <hyperlink ref="A4" r:id="rId3" xr:uid="{00000000-0004-0000-0C00-000002000000}"/>
+    <hyperlink ref="A5" r:id="rId4" xr:uid="{00000000-0004-0000-0C00-000003000000}"/>
+    <hyperlink ref="A6" r:id="rId5" xr:uid="{00000000-0004-0000-0C00-000004000000}"/>
+    <hyperlink ref="A7" r:id="rId6" xr:uid="{00000000-0004-0000-0C00-000005000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0"/>
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+  <dimension ref="A1:M3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="5" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="I1" t="s">
+        <v>153</v>
+      </c>
+      <c r="J1" t="s">
+        <v>154</v>
+      </c>
+      <c r="K1" t="s">
+        <v>155</v>
+      </c>
+      <c r="L1" t="s">
+        <v>156</v>
+      </c>
+      <c r="M1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" t="s">
+        <v>160</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="J2" t="s">
+        <v>162</v>
+      </c>
+      <c r="K2" t="s">
+        <v>163</v>
+      </c>
+      <c r="L2" t="s">
+        <v>164</v>
+      </c>
+      <c r="M2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H3" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.140625" style="5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="5" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="5" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16" style="5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I2"/>
   <sheetViews>
@@ -988,15 +2676,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.28515625" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -1062,25 +2750,25 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.28515625" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -1147,8 +2835,113 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:I6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.28515625" style="5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1157,15 +2950,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.85546875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.28515625" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -1194,18 +2987,18 @@
         <v>21</v>
       </c>
       <c r="I1" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
@@ -1223,7 +3016,7 @@
         <v>26</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -1252,110 +3045,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:I6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="28.85546875" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:J2"/>
   <sheetViews>
@@ -1365,16 +3055,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.140625" customWidth="1"/>
-    <col min="10" max="10" width="20.7109375" customWidth="1"/>
+    <col min="1" max="1" width="23.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.140625" style="5" customWidth="1"/>
+    <col min="10" max="10" width="20.7109375" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -1446,9 +3136,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="B1" sqref="A1:XFD1048576"/>
@@ -1456,16 +3146,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.140625" customWidth="1"/>
-    <col min="10" max="10" width="20.7109375" customWidth="1"/>
+    <col min="1" max="1" width="23.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.140625" style="5" customWidth="1"/>
+    <col min="10" max="10" width="20.7109375" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -1523,159 +3213,6 @@
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H3" t="s">
         <v>29</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:P3"/>
-  <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="H1" sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.140625" customWidth="1"/>
-    <col min="10" max="10" width="20.7109375" customWidth="1"/>
-    <col min="11" max="11" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="22" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1" t="s">
-        <v>50</v>
-      </c>
-      <c r="J1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K1" t="s">
-        <v>52</v>
-      </c>
-      <c r="L1" t="s">
-        <v>53</v>
-      </c>
-      <c r="M1" t="s">
-        <v>54</v>
-      </c>
-      <c r="N1" t="s">
-        <v>55</v>
-      </c>
-      <c r="O1" t="s">
-        <v>56</v>
-      </c>
-      <c r="P1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H2" t="s">
-        <v>60</v>
-      </c>
-      <c r="I2" t="s">
-        <v>61</v>
-      </c>
-      <c r="J2" t="s">
-        <v>62</v>
-      </c>
-      <c r="K2" t="s">
-        <v>63</v>
-      </c>
-      <c r="L2" t="s">
-        <v>64</v>
-      </c>
-      <c r="M2" t="s">
-        <v>65</v>
-      </c>
-      <c r="N2" t="s">
-        <v>66</v>
-      </c>
-      <c r="O2" t="s">
-        <v>67</v>
-      </c>
-      <c r="P2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="J3">
-        <v>10</v>
-      </c>
-      <c r="K3" t="s">
-        <v>69</v>
-      </c>
-      <c r="L3" t="s">
-        <v>70</v>
-      </c>
-      <c r="M3">
-        <v>11</v>
-      </c>
-      <c r="N3">
-        <v>12</v>
-      </c>
-      <c r="O3">
-        <v>2025</v>
       </c>
     </row>
   </sheetData>
@@ -1684,26 +3221,34 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34169E1E-D32A-4185-BBA7-987953E017BC}">
-  <dimension ref="A1:H2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.7109375" customWidth="1"/>
+    <col min="1" max="1" width="23.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.140625" style="5" customWidth="1"/>
+    <col min="10" max="10" width="20.7109375" style="5" customWidth="1"/>
+    <col min="11" max="11" width="15.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22" style="5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.42578125" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1723,21 +3268,45 @@
         <v>9</v>
       </c>
       <c r="G1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" t="s">
         <v>21</v>
       </c>
-      <c r="H1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K1" t="s">
+        <v>52</v>
+      </c>
+      <c r="L1" t="s">
+        <v>53</v>
+      </c>
+      <c r="M1" t="s">
+        <v>54</v>
+      </c>
+      <c r="N1" t="s">
+        <v>55</v>
+      </c>
+      <c r="O1" t="s">
+        <v>56</v>
+      </c>
+      <c r="P1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>85</v>
+        <v>58</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
@@ -1749,10 +3318,54 @@
         <v>19</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H2" t="s">
-        <v>88</v>
+        <v>60</v>
+      </c>
+      <c r="I2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J2" t="s">
+        <v>62</v>
+      </c>
+      <c r="K2" t="s">
+        <v>63</v>
+      </c>
+      <c r="L2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M2" t="s">
+        <v>65</v>
+      </c>
+      <c r="N2" t="s">
+        <v>66</v>
+      </c>
+      <c r="O2" t="s">
+        <v>67</v>
+      </c>
+      <c r="P2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="J3">
+        <v>10</v>
+      </c>
+      <c r="K3" t="s">
+        <v>69</v>
+      </c>
+      <c r="L3" t="s">
+        <v>70</v>
+      </c>
+      <c r="M3">
+        <v>11</v>
+      </c>
+      <c r="N3">
+        <v>12</v>
+      </c>
+      <c r="O3">
+        <v>2025</v>
       </c>
     </row>
   </sheetData>

--- a/testData/TestData_CPQ_Automation.xlsx
+++ b/testData/TestData_CPQ_Automation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mnayak\PycharmProjects\OneStopCPQ\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFF2E6B2-167E-4077-87D4-4633D33CC47B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{311DBB2F-B4C6-4075-A1B6-33F52D7AE27E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="237">
   <si>
     <t>Test Name</t>
   </si>
@@ -1177,7 +1177,7 @@
   <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -1479,25 +1479,40 @@
       <c r="C27" s="9" t="s">
         <v>232</v>
       </c>
+      <c r="E27" s="9" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C28" s="9" t="s">
         <v>233</v>
       </c>
+      <c r="E28" s="9" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C29" s="9" t="s">
         <v>234</v>
       </c>
+      <c r="E29" s="9" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C30" s="9" t="s">
         <v>235</v>
       </c>
+      <c r="E30" s="9" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C31" s="9" t="s">
         <v>236</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="34" spans="3:3" ht="15" x14ac:dyDescent="0.25">
@@ -1514,7 +1529,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/testData/TestData_CPQ_Automation.xlsx
+++ b/testData/TestData_CPQ_Automation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mnayak\PycharmProjects\OneStopCPQ\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{311DBB2F-B4C6-4075-A1B6-33F52D7AE27E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7962E71E-B232-4E61-AF1E-746634BBB2B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="258">
   <si>
     <t>Test Name</t>
   </si>
@@ -758,6 +758,69 @@
   </si>
   <si>
     <t>test_Prop2Agrmnt_Turbo</t>
+  </si>
+  <si>
+    <t>test_TC_011_ManualAdjustments</t>
+  </si>
+  <si>
+    <t>test_ManualAdjustment_Classic</t>
+  </si>
+  <si>
+    <t>test_ManualAdjustment_Turbo</t>
+  </si>
+  <si>
+    <t>test_ManualAdjustment_Split</t>
+  </si>
+  <si>
+    <t>test_TC_012_Approval</t>
+  </si>
+  <si>
+    <t>test_Approval_Classic</t>
+  </si>
+  <si>
+    <t>test_Approval_Turbo</t>
+  </si>
+  <si>
+    <t>Not Supported - CPQ-40251</t>
+  </si>
+  <si>
+    <t>test_Approval_Split</t>
+  </si>
+  <si>
+    <t>test_TC_013_CR_Inclusion</t>
+  </si>
+  <si>
+    <t>test_CR_Inclusion_Classic</t>
+  </si>
+  <si>
+    <t>test_CR_Inclusion_Split</t>
+  </si>
+  <si>
+    <t>test_CR_Inclusion_Turbo</t>
+  </si>
+  <si>
+    <t>test_DealGuidance_Classic</t>
+  </si>
+  <si>
+    <t>test_TC_014_TestDealGuidance</t>
+  </si>
+  <si>
+    <t>test_DealGuidance_Split</t>
+  </si>
+  <si>
+    <t>test_DealGuidance_Turbo</t>
+  </si>
+  <si>
+    <t>test_TC_015_TestPriceMatrix</t>
+  </si>
+  <si>
+    <t>test_PriceMatrix_Classic</t>
+  </si>
+  <si>
+    <t>test_PriceMatrix_Split</t>
+  </si>
+  <si>
+    <t>test_PriceMatrix_Turbo</t>
   </si>
 </sst>
 </file>
@@ -861,7 +924,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -886,11 +949,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1174,10 +1236,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FE8C29B-2DBF-44E9-93DE-0354258C5C49}">
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -1274,10 +1336,10 @@
       <c r="C7" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="14" t="s">
         <v>204</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="F7" s="9" t="s">
         <v>206</v>
       </c>
     </row>
@@ -1515,8 +1577,158 @@
         <v>196</v>
       </c>
     </row>
-    <row r="34" spans="3:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="C34" s="15"/>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="9">
+        <v>11</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C33" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C34" s="15" t="s">
+        <v>240</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="9">
+        <v>12</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C36" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C37" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="9">
+        <v>13</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C39" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C40" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="9">
+        <v>14</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C42" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="E42" s="9" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C43" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="E43" s="9" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="9">
+        <v>15</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="E44" s="9" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C45" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="E45" s="9" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C46" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="E46" s="9" t="s">
+        <v>196</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/testData/TestData_CPQ_Automation.xlsx
+++ b/testData/TestData_CPQ_Automation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mnayak\PycharmProjects\OneStopCPQ\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7962E71E-B232-4E61-AF1E-746634BBB2B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AAB51FB-D7D8-48A3-B896-45C17887092C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="10" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TCs Status" sheetId="18" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="266">
   <si>
     <t>Test Name</t>
   </si>
@@ -565,9 +565,6 @@
     <t>MN - 2020 Proposal TC_015</t>
   </si>
   <si>
-    <t>MN - 2020 Standalone PP (PriceMatrix)</t>
-  </si>
-  <si>
     <t>test_PriceWaterfall</t>
   </si>
   <si>
@@ -821,6 +818,33 @@
   </si>
   <si>
     <t>test_PriceMatrix_Turbo</t>
+  </si>
+  <si>
+    <t>List Price</t>
+  </si>
+  <si>
+    <t>rgb(25,146,229)</t>
+  </si>
+  <si>
+    <t>USD 100.00000</t>
+  </si>
+  <si>
+    <t>PM-0000000456</t>
+  </si>
+  <si>
+    <t>rgb(255,94,25)</t>
+  </si>
+  <si>
+    <t>(USD 5.00000)</t>
+  </si>
+  <si>
+    <t>Base Price</t>
+  </si>
+  <si>
+    <t>USD 95.00000</t>
+  </si>
+  <si>
+    <t>MN - 2020 Standalone (PriceMatrix)</t>
   </si>
 </sst>
 </file>
@@ -924,7 +948,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -955,6 +979,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1238,7 +1263,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FE8C29B-2DBF-44E9-93DE-0354258C5C49}">
   <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
@@ -1255,22 +1280,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B1" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="D1" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="C1" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="D1" s="10" t="s">
+      <c r="E1" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="E1" s="10" t="s">
-        <v>192</v>
-      </c>
       <c r="F1" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1278,22 +1303,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B3" s="11"/>
       <c r="C3" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1301,13 +1326,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>10</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1315,7 +1340,7 @@
         <v>15</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1323,32 +1348,32 @@
         <v>3</v>
       </c>
       <c r="B6" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="C6" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="C6" s="9" t="s">
-        <v>201</v>
-      </c>
       <c r="E6" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" s="9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -1356,29 +1381,29 @@
         <v>4</v>
       </c>
       <c r="B9" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="C9" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="C9" s="9" t="s">
-        <v>208</v>
-      </c>
       <c r="E9" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" s="9" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" s="9" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -1386,29 +1411,29 @@
         <v>5</v>
       </c>
       <c r="B12" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="C12" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="C12" s="9" t="s">
-        <v>212</v>
-      </c>
       <c r="E12" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" s="9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" s="9" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -1416,29 +1441,29 @@
         <v>6</v>
       </c>
       <c r="B15" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="C15" s="9" t="s">
         <v>215</v>
       </c>
-      <c r="C15" s="9" t="s">
-        <v>216</v>
-      </c>
       <c r="E15" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" s="9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C17" s="9" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -1446,29 +1471,29 @@
         <v>7</v>
       </c>
       <c r="B18" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="C18" s="9" t="s">
         <v>219</v>
       </c>
-      <c r="C18" s="9" t="s">
-        <v>220</v>
-      </c>
       <c r="E18" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C19" s="9" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C20" s="9" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -1476,29 +1501,29 @@
         <v>8</v>
       </c>
       <c r="B21" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="C21" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="C21" s="9" t="s">
-        <v>224</v>
-      </c>
       <c r="E21" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C22" s="9" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C23" s="9" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -1506,29 +1531,29 @@
         <v>9</v>
       </c>
       <c r="B24" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="C24" s="9" t="s">
         <v>227</v>
       </c>
-      <c r="C24" s="9" t="s">
-        <v>228</v>
-      </c>
       <c r="E24" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C25" s="9" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C26" s="9" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -1536,45 +1561,45 @@
         <v>10</v>
       </c>
       <c r="B27" s="13" t="s">
+        <v>230</v>
+      </c>
+      <c r="C27" s="9" t="s">
         <v>231</v>
       </c>
-      <c r="C27" s="9" t="s">
-        <v>232</v>
-      </c>
       <c r="E27" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C28" s="9" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C29" s="9" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C30" s="9" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C31" s="9" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -1582,29 +1607,29 @@
         <v>11</v>
       </c>
       <c r="B32" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="C32" s="9" t="s">
         <v>237</v>
       </c>
-      <c r="C32" s="9" t="s">
-        <v>238</v>
-      </c>
       <c r="E32" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" s="9" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" s="15" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -1612,32 +1637,32 @@
         <v>12</v>
       </c>
       <c r="B35" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="C35" s="9" t="s">
         <v>241</v>
       </c>
-      <c r="C35" s="9" t="s">
-        <v>242</v>
-      </c>
       <c r="E35" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" s="9" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" s="9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -1645,29 +1670,29 @@
         <v>13</v>
       </c>
       <c r="B38" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="C38" s="9" t="s">
         <v>246</v>
       </c>
-      <c r="C38" s="9" t="s">
-        <v>247</v>
-      </c>
       <c r="E38" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" s="9" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" s="9" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -1675,29 +1700,29 @@
         <v>14</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" s="9" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" s="9" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -1705,29 +1730,29 @@
         <v>15</v>
       </c>
       <c r="B44" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="C44" s="9" t="s">
         <v>254</v>
       </c>
-      <c r="C44" s="9" t="s">
-        <v>255</v>
-      </c>
       <c r="E44" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" s="9" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" s="9" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -1978,7 +2003,7 @@
         <v>80</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -1986,7 +2011,7 @@
         <v>81</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1994,7 +2019,7 @@
         <v>82</v>
       </c>
       <c r="B3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -2033,7 +2058,7 @@
         <v>92</v>
       </c>
       <c r="D6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -2047,7 +2072,7 @@
         <v>94</v>
       </c>
       <c r="D7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -2061,7 +2086,7 @@
         <v>96</v>
       </c>
       <c r="D8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -2075,7 +2100,7 @@
         <v>98</v>
       </c>
       <c r="D9" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -2089,7 +2114,7 @@
         <v>100</v>
       </c>
       <c r="D10" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -2103,7 +2128,7 @@
         <v>102</v>
       </c>
       <c r="D11" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -2117,7 +2142,7 @@
         <v>104</v>
       </c>
       <c r="D12" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -2131,7 +2156,7 @@
         <v>106</v>
       </c>
       <c r="D13" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -2145,7 +2170,7 @@
         <v>108</v>
       </c>
       <c r="D14" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -2159,7 +2184,7 @@
         <v>110</v>
       </c>
       <c r="D15" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -2173,7 +2198,7 @@
         <v>112</v>
       </c>
       <c r="D16" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -2187,7 +2212,7 @@
         <v>114</v>
       </c>
       <c r="D17" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="18" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -2650,8 +2675,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2710,7 +2735,7 @@
         <v>19</v>
       </c>
       <c r="G2" t="s">
-        <v>172</v>
+        <v>265</v>
       </c>
     </row>
   </sheetData>
@@ -2720,10 +2745,10 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2735,11 +2760,13 @@
     <col min="5" max="5" width="16" style="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.5703125" style="5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="35.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="5" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="5"/>
+    <col min="8" max="8" width="14.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2761,16 +2788,25 @@
       <c r="G1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>260</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
@@ -2782,7 +2818,27 @@
         <v>19</v>
       </c>
       <c r="G2" t="s">
-        <v>172</v>
+        <v>265</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H3" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>264</v>
       </c>
     </row>
   </sheetData>

--- a/testData/TestData_CPQ_Automation.xlsx
+++ b/testData/TestData_CPQ_Automation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mnayak\PycharmProjects\OneStopCPQ\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AAB51FB-D7D8-48A3-B896-45C17887092C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5E1A2B5-67AD-4C4A-90B3-DFA4ED80A70A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="10" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TCs Status" sheetId="18" r:id="rId1"/>
@@ -1263,7 +1263,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FE8C29B-2DBF-44E9-93DE-0354258C5C49}">
   <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
       <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
@@ -1658,7 +1658,7 @@
       <c r="C37" s="9" t="s">
         <v>244</v>
       </c>
-      <c r="E37" s="9" t="s">
+      <c r="E37" s="14" t="s">
         <v>203</v>
       </c>
       <c r="F37" s="9" t="s">
@@ -2490,7 +2490,7 @@
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2675,7 +2675,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>

--- a/testData/TestData_CPQ_Automation.xlsx
+++ b/testData/TestData_CPQ_Automation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mnayak\PycharmProjects\OneStopCPQ\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5E1A2B5-67AD-4C4A-90B3-DFA4ED80A70A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DB23B62-535C-4FB9-ADF3-63E48D679D1F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1263,8 +1263,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FE8C29B-2DBF-44E9-93DE-0354258C5C49}">
   <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>

--- a/testData/TestData_CPQ_Automation.xlsx
+++ b/testData/TestData_CPQ_Automation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mnayak\PycharmProjects\OneStopCPQ\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DB23B62-535C-4FB9-ADF3-63E48D679D1F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67AF2D48-FBC5-47A7-913C-C4F5E5EFCA1C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="11" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TCs Status" sheetId="18" r:id="rId1"/>
@@ -31,6 +31,7 @@
     <sheet name="TC_014" sheetId="15" r:id="rId16"/>
     <sheet name="TC_015" sheetId="16" r:id="rId17"/>
     <sheet name="TC_016" sheetId="17" r:id="rId18"/>
+    <sheet name="TC_017" sheetId="19" r:id="rId19"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="273">
   <si>
     <t>Test Name</t>
   </si>
@@ -845,6 +846,27 @@
   </si>
   <si>
     <t>MN - 2020 Standalone (PriceMatrix)</t>
+  </si>
+  <si>
+    <t>test_Exclusion Disable Selection</t>
+  </si>
+  <si>
+    <t>MN - 2020 Proposal TC_017</t>
+  </si>
+  <si>
+    <t>MN - 2020 Option 1</t>
+  </si>
+  <si>
+    <t>MN - 2020 Option 2</t>
+  </si>
+  <si>
+    <t>B2O Action Option Prd</t>
+  </si>
+  <si>
+    <t>O2O Cond Option Prd</t>
+  </si>
+  <si>
+    <t>O2O Action Option Prd</t>
   </si>
 </sst>
 </file>
@@ -1263,7 +1285,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FE8C29B-2DBF-44E9-93DE-0354258C5C49}">
   <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -2748,7 +2770,7 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="C1" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2839,6 +2861,98 @@
       </c>
       <c r="J3" s="5" t="s">
         <v>264</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6D72C41-A294-471A-A10F-81DBDBC72609}">
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>271</v>
+      </c>
+      <c r="J1" s="16" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>164</v>
       </c>
     </row>
   </sheetData>

--- a/testData/TestData_CPQ_Automation.xlsx
+++ b/testData/TestData_CPQ_Automation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mnayak\PycharmProjects\OneStopCPQ\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67AF2D48-FBC5-47A7-913C-C4F5E5EFCA1C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A675C556-CA1E-485F-AB81-B5D64970F308}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="11" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="275">
   <si>
     <t>Test Name</t>
   </si>
@@ -867,6 +867,12 @@
   </si>
   <si>
     <t>O2O Action Option Prd</t>
+  </si>
+  <si>
+    <t>MN - 2020 Option 1 is excluded on the addition of MN - 2020 BUNDLE (ConstRule)</t>
+  </si>
+  <si>
+    <t>MN - 2020 Option 3 is excluded on the addition of MN - 2020 Option 2</t>
   </si>
 </sst>
 </file>
@@ -2870,10 +2876,10 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6D72C41-A294-471A-A10F-81DBDBC72609}">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2953,6 +2959,14 @@
       </c>
       <c r="J2" s="5" t="s">
         <v>164</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H3" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>274</v>
       </c>
     </row>
   </sheetData>

--- a/testData/TestData_CPQ_Automation.xlsx
+++ b/testData/TestData_CPQ_Automation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mnayak\PycharmProjects\OneStopCPQ\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A675C556-CA1E-485F-AB81-B5D64970F308}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EF3A8A2-6D9A-4D4D-BA58-2BA1ABF633D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="11" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TCs Status" sheetId="18" r:id="rId1"/>
@@ -32,6 +32,7 @@
     <sheet name="TC_015" sheetId="16" r:id="rId17"/>
     <sheet name="TC_016" sheetId="17" r:id="rId18"/>
     <sheet name="TC_017" sheetId="19" r:id="rId19"/>
+    <sheet name="TC_018" sheetId="20" r:id="rId20"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -48,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="286">
   <si>
     <t>Test Name</t>
   </si>
@@ -873,6 +874,39 @@
   </si>
   <si>
     <t>MN - 2020 Option 3 is excluded on the addition of MN - 2020 Option 2</t>
+  </si>
+  <si>
+    <t>test_Allow Manaul Adj False</t>
+  </si>
+  <si>
+    <t>MN - 2020 Proposal TC_018</t>
+  </si>
+  <si>
+    <t>MN - 2020 BUNDLE 1</t>
+  </si>
+  <si>
+    <t>Option Prd</t>
+  </si>
+  <si>
+    <t>MN - 2020 Option (Alw Adj False)</t>
+  </si>
+  <si>
+    <t>MN - 2020 BUNDLE 2</t>
+  </si>
+  <si>
+    <t>MN - 2020 Option (Alw Adj False) (Inside SubBundle)</t>
+  </si>
+  <si>
+    <t>test_TC_017_CR_Exclusion</t>
+  </si>
+  <si>
+    <t>test_CR_Exclusion_Disable_Selection_Classic</t>
+  </si>
+  <si>
+    <t>test_CR_Exclusion_Disable_Selection_Split</t>
+  </si>
+  <si>
+    <t>test_CR_Exclusion_Disable_Selection_TP</t>
   </si>
 </sst>
 </file>
@@ -1289,17 +1323,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FE8C29B-2DBF-44E9-93DE-0354258C5C49}">
-  <dimension ref="A1:F46"/>
+  <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.42578125" style="9" customWidth="1"/>
     <col min="2" max="2" width="69" style="9" customWidth="1"/>
-    <col min="3" max="3" width="37.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="45.7109375" style="9" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.42578125" style="9" customWidth="1"/>
     <col min="5" max="5" width="10.28515625" style="9" customWidth="1"/>
     <col min="6" max="6" width="27.140625" style="9" customWidth="1"/>
@@ -1780,6 +1814,36 @@
         <v>256</v>
       </c>
       <c r="E46" s="9" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="9">
+        <v>17</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="E47" s="9" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C48" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="E48" s="9" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="49" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C49" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="E49" s="9" t="s">
         <v>195</v>
       </c>
     </row>
@@ -1945,7 +2009,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2878,8 +2944,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6D72C41-A294-471A-A10F-81DBDBC72609}">
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3074,6 +3140,93 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0BBCB75-CC54-4A68-8714-84B24CB5E606}">
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="48.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H3" s="5" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H4" s="5" t="s">
+        <v>281</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/testData/TestData_CPQ_Automation.xlsx
+++ b/testData/TestData_CPQ_Automation.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mnayak\PycharmProjects\OneStopCPQ\testData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Personal Docs\OneStopCPQ\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EF3A8A2-6D9A-4D4D-BA58-2BA1ABF633D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C90A448-9EC8-4F9A-AA83-BA8316F51F4F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="13" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TCs Status" sheetId="18" r:id="rId1"/>
@@ -33,6 +33,7 @@
     <sheet name="TC_016" sheetId="17" r:id="rId18"/>
     <sheet name="TC_017" sheetId="19" r:id="rId19"/>
     <sheet name="TC_018" sheetId="20" r:id="rId20"/>
+    <sheet name="TC_019" sheetId="21" r:id="rId21"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -49,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="288">
   <si>
     <t>Test Name</t>
   </si>
@@ -907,6 +908,12 @@
   </si>
   <si>
     <t>test_CR_Exclusion_Disable_Selection_TP</t>
+  </si>
+  <si>
+    <t>Apttus CPQ Admin</t>
+  </si>
+  <si>
+    <t>Admin UI</t>
   </si>
 </sst>
 </file>
@@ -1325,22 +1332,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FE8C29B-2DBF-44E9-93DE-0354258C5C49}">
   <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.42578125" style="9" customWidth="1"/>
+    <col min="1" max="1" width="6.453125" style="9" customWidth="1"/>
     <col min="2" max="2" width="69" style="9" customWidth="1"/>
-    <col min="3" max="3" width="45.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="9" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" style="9" customWidth="1"/>
-    <col min="6" max="6" width="27.140625" style="9" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="9"/>
+    <col min="3" max="3" width="45.7265625" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.453125" style="9" customWidth="1"/>
+    <col min="5" max="5" width="10.26953125" style="9" customWidth="1"/>
+    <col min="6" max="6" width="27.1796875" style="9" customWidth="1"/>
+    <col min="7" max="16384" width="9.1796875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
         <v>197</v>
       </c>
@@ -1360,7 +1367,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="9">
         <v>1</v>
       </c>
@@ -1374,7 +1381,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B3" s="11"/>
       <c r="C3" s="9" t="s">
         <v>196</v>
@@ -1383,7 +1390,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="9">
         <v>2</v>
       </c>
@@ -1397,7 +1404,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C5" s="9" t="s">
         <v>15</v>
       </c>
@@ -1405,7 +1412,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="9">
         <v>3</v>
       </c>
@@ -1419,7 +1426,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C7" s="9" t="s">
         <v>201</v>
       </c>
@@ -1430,7 +1437,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C8" s="9" t="s">
         <v>202</v>
       </c>
@@ -1438,7 +1445,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="9">
         <v>4</v>
       </c>
@@ -1452,7 +1459,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C10" s="9" t="s">
         <v>208</v>
       </c>
@@ -1460,7 +1467,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C11" s="9" t="s">
         <v>209</v>
       </c>
@@ -1468,7 +1475,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="9">
         <v>5</v>
       </c>
@@ -1482,7 +1489,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C13" s="9" t="s">
         <v>212</v>
       </c>
@@ -1490,7 +1497,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C14" s="9" t="s">
         <v>213</v>
       </c>
@@ -1498,7 +1505,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="9">
         <v>6</v>
       </c>
@@ -1512,7 +1519,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C16" s="9" t="s">
         <v>216</v>
       </c>
@@ -1520,7 +1527,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C17" s="9" t="s">
         <v>217</v>
       </c>
@@ -1528,7 +1535,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="9">
         <v>7</v>
       </c>
@@ -1542,7 +1549,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C19" s="9" t="s">
         <v>220</v>
       </c>
@@ -1550,7 +1557,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C20" s="9" t="s">
         <v>221</v>
       </c>
@@ -1558,7 +1565,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="9">
         <v>8</v>
       </c>
@@ -1572,7 +1579,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C22" s="9" t="s">
         <v>224</v>
       </c>
@@ -1580,7 +1587,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C23" s="9" t="s">
         <v>225</v>
       </c>
@@ -1588,7 +1595,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="9">
         <v>9</v>
       </c>
@@ -1602,7 +1609,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C25" s="9" t="s">
         <v>228</v>
       </c>
@@ -1610,7 +1617,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C26" s="9" t="s">
         <v>229</v>
       </c>
@@ -1618,7 +1625,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="9">
         <v>10</v>
       </c>
@@ -1632,7 +1639,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C28" s="9" t="s">
         <v>232</v>
       </c>
@@ -1640,7 +1647,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C29" s="9" t="s">
         <v>233</v>
       </c>
@@ -1648,7 +1655,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C30" s="9" t="s">
         <v>234</v>
       </c>
@@ -1656,7 +1663,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C31" s="9" t="s">
         <v>235</v>
       </c>
@@ -1664,7 +1671,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="9">
         <v>11</v>
       </c>
@@ -1678,7 +1685,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C33" s="9" t="s">
         <v>238</v>
       </c>
@@ -1686,7 +1693,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C34" s="15" t="s">
         <v>239</v>
       </c>
@@ -1694,7 +1701,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" s="9">
         <v>12</v>
       </c>
@@ -1708,7 +1715,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C36" s="9" t="s">
         <v>242</v>
       </c>
@@ -1716,7 +1723,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C37" s="9" t="s">
         <v>244</v>
       </c>
@@ -1727,7 +1734,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" s="9">
         <v>13</v>
       </c>
@@ -1741,7 +1748,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C39" s="9" t="s">
         <v>247</v>
       </c>
@@ -1749,7 +1756,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C40" s="9" t="s">
         <v>248</v>
       </c>
@@ -1757,7 +1764,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" s="9">
         <v>14</v>
       </c>
@@ -1771,7 +1778,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C42" s="9" t="s">
         <v>251</v>
       </c>
@@ -1779,7 +1786,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C43" s="9" t="s">
         <v>252</v>
       </c>
@@ -1787,7 +1794,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" s="9">
         <v>15</v>
       </c>
@@ -1801,7 +1808,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C45" s="9" t="s">
         <v>255</v>
       </c>
@@ -1809,7 +1816,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C46" s="9" t="s">
         <v>256</v>
       </c>
@@ -1817,7 +1824,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" s="9">
         <v>17</v>
       </c>
@@ -1831,7 +1838,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C48" s="9" t="s">
         <v>284</v>
       </c>
@@ -1839,7 +1846,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="49" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C49" s="9" t="s">
         <v>285</v>
       </c>
@@ -1861,19 +1868,19 @@
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.81640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.81640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.81640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.1796875" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.7109375" style="5" customWidth="1"/>
+    <col min="6" max="6" width="17.54296875" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.453125" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.7265625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1899,7 +1906,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>72</v>
       </c>
@@ -1938,18 +1945,18 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="26" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.81640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.81640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.1796875" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="41.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.54296875" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="41.453125" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1972,7 +1979,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>75</v>
       </c>
@@ -1995,7 +2002,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="G3" t="s">
         <v>77</v>
       </c>
@@ -2013,18 +2020,18 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.54296875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.81640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.81640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.1796875" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="41.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.54296875" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="41.453125" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2047,7 +2054,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>78</v>
       </c>
@@ -2083,16 +2090,16 @@
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="35.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="76.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="77.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.453125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.54296875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.81640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="76.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="77.26953125" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>80</v>
       </c>
@@ -2100,7 +2107,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>81</v>
       </c>
@@ -2108,7 +2115,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>82</v>
       </c>
@@ -2116,7 +2123,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>83</v>
       </c>
@@ -2127,7 +2134,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>86</v>
       </c>
@@ -2141,7 +2148,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>90</v>
       </c>
@@ -2155,7 +2162,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>93</v>
       </c>
@@ -2169,7 +2176,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>95</v>
       </c>
@@ -2183,7 +2190,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>97</v>
       </c>
@@ -2197,7 +2204,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>99</v>
       </c>
@@ -2211,7 +2218,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>101</v>
       </c>
@@ -2225,7 +2232,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>103</v>
       </c>
@@ -2239,7 +2246,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>105</v>
       </c>
@@ -2253,7 +2260,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>107</v>
       </c>
@@ -2267,7 +2274,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>109</v>
       </c>
@@ -2281,7 +2288,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>111</v>
       </c>
@@ -2295,7 +2302,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>113</v>
       </c>
@@ -2309,11 +2316,11 @@
         <v>188</v>
       </c>
     </row>
-    <row r="18" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>90</v>
       </c>
@@ -2327,7 +2334,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>93</v>
       </c>
@@ -2341,7 +2348,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>95</v>
       </c>
@@ -2355,7 +2362,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>97</v>
       </c>
@@ -2369,7 +2376,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>99</v>
       </c>
@@ -2383,7 +2390,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>101</v>
       </c>
@@ -2397,7 +2404,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>103</v>
       </c>
@@ -2411,7 +2418,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>105</v>
       </c>
@@ -2425,7 +2432,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>107</v>
       </c>
@@ -2439,7 +2446,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>109</v>
       </c>
@@ -2453,7 +2460,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>111</v>
       </c>
@@ -2467,7 +2474,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>113</v>
       </c>
@@ -2503,13 +2510,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="47.5703125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="119.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="47.54296875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="119.7265625" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>138</v>
       </c>
@@ -2517,7 +2524,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>140</v>
       </c>
@@ -2525,7 +2532,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>142</v>
       </c>
@@ -2533,7 +2540,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>144</v>
       </c>
@@ -2541,7 +2548,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>146</v>
       </c>
@@ -2549,7 +2556,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>148</v>
       </c>
@@ -2557,7 +2564,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>150</v>
       </c>
@@ -2587,22 +2594,22 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.81640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.81640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.81640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.1796875" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="5" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="5"/>
+    <col min="6" max="6" width="17.54296875" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.54296875" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.81640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.1796875" style="5" customWidth="1"/>
+    <col min="11" max="16384" width="9.1796875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2643,7 +2650,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>158</v>
       </c>
@@ -2684,7 +2691,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="H3" s="1" t="s">
         <v>166</v>
       </c>
@@ -2703,18 +2710,18 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="19" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.81640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.81640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.1796875" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="31.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.54296875" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.1796875" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2737,7 +2744,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>167</v>
       </c>
@@ -2773,20 +2780,20 @@
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="19" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.81640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.81640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.1796875" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="35.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="5" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="5"/>
+    <col min="6" max="6" width="17.54296875" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.7265625" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.1796875" style="5" customWidth="1"/>
+    <col min="9" max="16384" width="9.1796875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2809,7 +2816,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>170</v>
       </c>
@@ -2845,22 +2852,22 @@
       <selection activeCell="C1" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="19" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.81640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.81640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.1796875" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="35.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="5"/>
+    <col min="6" max="6" width="17.54296875" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.7265625" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.54296875" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.1796875" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.54296875" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.1796875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2892,7 +2899,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>172</v>
       </c>
@@ -2924,7 +2931,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="H3" s="5" t="s">
         <v>259</v>
       </c>
@@ -2948,22 +2955,22 @@
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="30.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.1796875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.81640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.81640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.1796875" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="35.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.54296875" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.7265625" style="5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="21" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="5"/>
+    <col min="9" max="9" width="20.1796875" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.453125" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.1796875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2995,7 +3002,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>266</v>
       </c>
@@ -3027,7 +3034,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="H3" s="5" t="s">
         <v>273</v>
       </c>
@@ -3046,20 +3053,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="29.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.7265625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.54296875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.54296875" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.453125" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.81640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.54296875" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.1796875" style="5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3091,7 +3098,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -3111,7 +3118,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -3147,22 +3154,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0BBCB75-CC54-4A68-8714-84B24CB5E606}">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="30.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.1796875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.81640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.81640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.1796875" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="48.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="5"/>
+    <col min="6" max="6" width="17.54296875" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.81640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="48.54296875" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.1796875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -3188,7 +3197,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>275</v>
       </c>
@@ -3214,12 +3223,12 @@
         <v>279</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="H3" s="5" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="H4" s="5" t="s">
         <v>281</v>
       </c>
@@ -3227,6 +3236,67 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6956C1AA-144C-408A-B398-4DAD0C9D12A2}">
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.81640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
+        <v>287</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -3238,20 +3308,20 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.81640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.81640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.81640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.1796875" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.54296875" style="5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="25" style="5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.26953125" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3280,7 +3350,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -3322,20 +3392,20 @@
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.81640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.81640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.81640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.1796875" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.54296875" style="5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="25" style="5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.26953125" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3364,7 +3434,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -3407,20 +3477,20 @@
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.54296875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.81640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.81640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.1796875" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.54296875" style="5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="25" style="5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.26953125" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3449,7 +3519,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>31</v>
       </c>
@@ -3478,22 +3548,22 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="H3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="H4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="H5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="H6" t="s">
         <v>37</v>
       </c>
@@ -3512,20 +3582,20 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="28.85546875" style="5" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.81640625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="10.81640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.81640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.1796875" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.54296875" style="5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="25" style="5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.26953125" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3554,7 +3624,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>39</v>
       </c>
@@ -3583,22 +3653,22 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="H3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="H4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="H5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="H6" t="s">
         <v>37</v>
       </c>
@@ -3617,21 +3687,21 @@
       <selection activeCell="B1" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.81640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.81640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.81640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.1796875" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.54296875" style="5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="25" style="5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.140625" style="5" customWidth="1"/>
-    <col min="10" max="10" width="20.7109375" style="5" customWidth="1"/>
+    <col min="9" max="9" width="23.1796875" style="5" customWidth="1"/>
+    <col min="10" max="10" width="20.7265625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3663,7 +3733,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>44</v>
       </c>
@@ -3708,21 +3778,21 @@
       <selection activeCell="B1" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.81640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.81640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.81640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.1796875" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.54296875" style="5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="25" style="5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.140625" style="5" customWidth="1"/>
-    <col min="10" max="10" width="20.7109375" style="5" customWidth="1"/>
+    <col min="9" max="9" width="23.1796875" style="5" customWidth="1"/>
+    <col min="10" max="10" width="20.7265625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3748,7 +3818,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>48</v>
       </c>
@@ -3774,7 +3844,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="H3" t="s">
         <v>29</v>
       </c>
@@ -3792,27 +3862,27 @@
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.81640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.81640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.81640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.1796875" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.54296875" style="5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="25" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.140625" style="5" customWidth="1"/>
-    <col min="10" max="10" width="20.7109375" style="5" customWidth="1"/>
-    <col min="11" max="11" width="15.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.453125" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.1796875" style="5" customWidth="1"/>
+    <col min="10" max="10" width="20.7265625" style="5" customWidth="1"/>
+    <col min="11" max="11" width="15.54296875" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.1796875" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.1796875" style="5" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="22" style="5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.1796875" style="5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.453125" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3862,7 +3932,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>58</v>
       </c>
@@ -3912,7 +3982,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="J3">
         <v>10</v>
       </c>

--- a/testData/TestData_CPQ_Automation.xlsx
+++ b/testData/TestData_CPQ_Automation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mnayak\PycharmProjects\OneStopCPQ\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EF3A8A2-6D9A-4D4D-BA58-2BA1ABF633D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96FBA608-220D-4661-971D-981298655573}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="13" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TCs Status" sheetId="18" r:id="rId1"/>
@@ -33,6 +33,7 @@
     <sheet name="TC_016" sheetId="17" r:id="rId18"/>
     <sheet name="TC_017" sheetId="19" r:id="rId19"/>
     <sheet name="TC_018" sheetId="20" r:id="rId20"/>
+    <sheet name="TC_019" sheetId="21" r:id="rId21"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -49,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="302">
   <si>
     <t>Test Name</t>
   </si>
@@ -907,6 +908,54 @@
   </si>
   <si>
     <t>test_CR_Exclusion_Disable_Selection_TP</t>
+  </si>
+  <si>
+    <t>test_CR_Exclusion_Prompt_Selection_Classic</t>
+  </si>
+  <si>
+    <t>test_CR_Exclusion_Prompt_Selection_Split</t>
+  </si>
+  <si>
+    <t>test_CR_Exclusion_Prompt_Selection_TP</t>
+  </si>
+  <si>
+    <t>test_CR_Exclusion_Prompt_Selection_TC</t>
+  </si>
+  <si>
+    <t>Same prompt is shown for 2nd CR too</t>
+  </si>
+  <si>
+    <t>test_TC_018_AllowManualAdj_False</t>
+  </si>
+  <si>
+    <t>test_AllowManualAdj_False_Classic</t>
+  </si>
+  <si>
+    <t>test_AllowManualAdj_False_Split</t>
+  </si>
+  <si>
+    <t>test_AllowManualAdj_False_TP</t>
+  </si>
+  <si>
+    <t>test_AllowManualAdj_False_TC</t>
+  </si>
+  <si>
+    <t>Data sync not happening for TC</t>
+  </si>
+  <si>
+    <t>test_DirectConfiguration</t>
+  </si>
+  <si>
+    <t>MN - 2020 Proposal TC_019</t>
+  </si>
+  <si>
+    <t>MN - 2020 PL(GBP)</t>
+  </si>
+  <si>
+    <t>MN - 2020 Option A(GBP)</t>
+  </si>
+  <si>
+    <t>MN - 2020 BUNDLE (GBP)</t>
   </si>
 </sst>
 </file>
@@ -1323,10 +1372,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FE8C29B-2DBF-44E9-93DE-0354258C5C49}">
-  <dimension ref="A1:F49"/>
+  <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -1839,12 +1888,88 @@
         <v>195</v>
       </c>
     </row>
-    <row r="49" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" s="9" t="s">
         <v>285</v>
       </c>
       <c r="E49" s="9" t="s">
         <v>195</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C50" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="E50" s="9" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C51" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="E51" s="9" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C52" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="E52" s="9" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C53" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="E53" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="F53" s="9" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="9">
+        <v>18</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>291</v>
+      </c>
+      <c r="C54" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="E54" s="9" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C55" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="E55" s="9" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C56" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="E56" s="9" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C57" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="E57" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="F57" s="9" t="s">
+        <v>296</v>
       </c>
     </row>
   </sheetData>
@@ -2944,8 +3069,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6D72C41-A294-471A-A10F-81DBDBC72609}">
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3147,7 +3272,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0BBCB75-CC54-4A68-8714-84B24CB5E606}">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3227,6 +3354,84 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8C25FC0-E9CE-48B4-B18D-4B2DFAE7BC8E}">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>300</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 

--- a/testData/TestData_CPQ_Automation.xlsx
+++ b/testData/TestData_CPQ_Automation.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mnayak\PycharmProjects\OneStopCPQ\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96FBA608-220D-4661-971D-981298655573}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23C1A5E7-E469-4F69-A9BC-9352D6B02A3F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="13" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,8 @@
     <sheet name="TC_016" sheetId="17" r:id="rId18"/>
     <sheet name="TC_017" sheetId="19" r:id="rId19"/>
     <sheet name="TC_018" sheetId="20" r:id="rId20"/>
-    <sheet name="TC_019" sheetId="21" r:id="rId21"/>
+    <sheet name="TC_021" sheetId="21" r:id="rId21"/>
+    <sheet name="TC_020" sheetId="22" r:id="rId22"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -50,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2910" uniqueCount="484">
   <si>
     <t>Test Name</t>
   </si>
@@ -956,13 +957,559 @@
   </si>
   <si>
     <t>MN - 2020 BUNDLE (GBP)</t>
+  </si>
+  <si>
+    <t>App To Search</t>
+  </si>
+  <si>
+    <t>Incentives</t>
+  </si>
+  <si>
+    <t>Promotion Name</t>
+  </si>
+  <si>
+    <t>SZ Promotion 1</t>
+  </si>
+  <si>
+    <t>Promotion Type</t>
+  </si>
+  <si>
+    <t>Buy X Get X</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Auto apply?</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>Product Family</t>
+  </si>
+  <si>
+    <t>Product Group</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>Region</t>
+  </si>
+  <si>
+    <t>Accounts</t>
+  </si>
+  <si>
+    <t>Account Type</t>
+  </si>
+  <si>
+    <t>Product</t>
+  </si>
+  <si>
+    <t>Set 1</t>
+  </si>
+  <si>
+    <t>SZ Group1</t>
+  </si>
+  <si>
+    <t>equal to</t>
+  </si>
+  <si>
+    <t>Sandoz</t>
+  </si>
+  <si>
+    <t>Total Quantity</t>
+  </si>
+  <si>
+    <t>Adjustment Amount</t>
+  </si>
+  <si>
+    <t>Rate Type</t>
+  </si>
+  <si>
+    <t>Single Rate</t>
+  </si>
+  <si>
+    <t>Rate Value Type</t>
+  </si>
+  <si>
+    <t>% Discount</t>
+  </si>
+  <si>
+    <t>Adjustment Applies To</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>North America</t>
+  </si>
+  <si>
+    <t>SZ Promotion 2</t>
+  </si>
+  <si>
+    <t>SZ Promotion 3</t>
+  </si>
+  <si>
+    <t>SZ Promotion 4</t>
+  </si>
+  <si>
+    <t>SZ Promotion 5</t>
+  </si>
+  <si>
+    <t>SZ Promotion 6</t>
+  </si>
+  <si>
+    <t>SZ Promotion 7</t>
+  </si>
+  <si>
+    <t>SZ Promotion 8</t>
+  </si>
+  <si>
+    <t>SZ Promotion 9</t>
+  </si>
+  <si>
+    <t>SZ Promotion 10</t>
+  </si>
+  <si>
+    <t>Set 3</t>
+  </si>
+  <si>
+    <t>Set 4</t>
+  </si>
+  <si>
+    <t>Set 5</t>
+  </si>
+  <si>
+    <t>SZ Promotion 11</t>
+  </si>
+  <si>
+    <t>SZ Promotion 12</t>
+  </si>
+  <si>
+    <t>SZ Promotion 13</t>
+  </si>
+  <si>
+    <t>SZ Promotion 14</t>
+  </si>
+  <si>
+    <t>SZ Promotion 15</t>
+  </si>
+  <si>
+    <t>SZ Promotion 16</t>
+  </si>
+  <si>
+    <t>SZ Promotion 17</t>
+  </si>
+  <si>
+    <t>SZ Promotion 18</t>
+  </si>
+  <si>
+    <t>SZ Promotion 19</t>
+  </si>
+  <si>
+    <t>SZ Promotion 20</t>
+  </si>
+  <si>
+    <t>Software</t>
+  </si>
+  <si>
+    <t>SZ Promotion 21</t>
+  </si>
+  <si>
+    <t>SZ Promotion 22</t>
+  </si>
+  <si>
+    <t>SZ Promotion 23</t>
+  </si>
+  <si>
+    <t>SZ Promotion 24</t>
+  </si>
+  <si>
+    <t>SZ Promotion 25</t>
+  </si>
+  <si>
+    <t>SZ Promotion 26</t>
+  </si>
+  <si>
+    <t>SZ Promotion 27</t>
+  </si>
+  <si>
+    <t>SZ Promotion 28</t>
+  </si>
+  <si>
+    <t>SZ Promotion 29</t>
+  </si>
+  <si>
+    <t>SZ Promotion 30</t>
+  </si>
+  <si>
+    <t>SZ Promotion 31</t>
+  </si>
+  <si>
+    <t>SZ Promotion 32</t>
+  </si>
+  <si>
+    <t>SZ Promotion 33</t>
+  </si>
+  <si>
+    <t>SZ Promotion 34</t>
+  </si>
+  <si>
+    <t>SZ Promotion 35</t>
+  </si>
+  <si>
+    <t>SZ Promotion 36</t>
+  </si>
+  <si>
+    <t>SZ Promotion 37</t>
+  </si>
+  <si>
+    <t>SZ Promotion 38</t>
+  </si>
+  <si>
+    <t>SZ Promotion 39</t>
+  </si>
+  <si>
+    <t>SZ Promotion 40</t>
+  </si>
+  <si>
+    <t>SZ Promotion 41</t>
+  </si>
+  <si>
+    <t>SZ Promotion 42</t>
+  </si>
+  <si>
+    <t>SZ Promotion 43</t>
+  </si>
+  <si>
+    <t>SZ Promotion 44</t>
+  </si>
+  <si>
+    <t>SZ Promotion 45</t>
+  </si>
+  <si>
+    <t>SZ Promotion 46</t>
+  </si>
+  <si>
+    <t>SZ Promotion 47</t>
+  </si>
+  <si>
+    <t>SZ Promotion 48</t>
+  </si>
+  <si>
+    <t>SZ Promotion 49</t>
+  </si>
+  <si>
+    <t>SZ Promotion 50</t>
+  </si>
+  <si>
+    <t>SZ Promotion 51</t>
+  </si>
+  <si>
+    <t>SZ Promotion 52</t>
+  </si>
+  <si>
+    <t>SZ Promotion 53</t>
+  </si>
+  <si>
+    <t>SZ Promotion 54</t>
+  </si>
+  <si>
+    <t>SZ Promotion 55</t>
+  </si>
+  <si>
+    <t>SZ Promotion 56</t>
+  </si>
+  <si>
+    <t>SZ Promotion 57</t>
+  </si>
+  <si>
+    <t>SZ Promotion 58</t>
+  </si>
+  <si>
+    <t>SZ Promotion 59</t>
+  </si>
+  <si>
+    <t>SZ Promotion 60</t>
+  </si>
+  <si>
+    <t>SZ Promotion 61</t>
+  </si>
+  <si>
+    <t>SZ Promotion 62</t>
+  </si>
+  <si>
+    <t>SZ Promotion 63</t>
+  </si>
+  <si>
+    <t>SZ Promotion 64</t>
+  </si>
+  <si>
+    <t>SZ Promotion 65</t>
+  </si>
+  <si>
+    <t>SZ Promotion 66</t>
+  </si>
+  <si>
+    <t>SZ Promotion 67</t>
+  </si>
+  <si>
+    <t>SZ Promotion 68</t>
+  </si>
+  <si>
+    <t>SZ Promotion 69</t>
+  </si>
+  <si>
+    <t>SZ Promotion 70</t>
+  </si>
+  <si>
+    <t>SZ Group 2</t>
+  </si>
+  <si>
+    <t>SZ Group 3</t>
+  </si>
+  <si>
+    <t>EMEA</t>
+  </si>
+  <si>
+    <t>Operator 1</t>
+  </si>
+  <si>
+    <t>Field 1</t>
+  </si>
+  <si>
+    <t>Value 1</t>
+  </si>
+  <si>
+    <t>Field 2</t>
+  </si>
+  <si>
+    <t>Operator 2</t>
+  </si>
+  <si>
+    <t>Value 2</t>
+  </si>
+  <si>
+    <t>Field 3</t>
+  </si>
+  <si>
+    <t>Operator 3</t>
+  </si>
+  <si>
+    <t>Value 3</t>
+  </si>
+  <si>
+    <t>SZ Formula(Text)</t>
+  </si>
+  <si>
+    <t>SZ PriceList</t>
+  </si>
+  <si>
+    <t>SZ Formula(Number)</t>
+  </si>
+  <si>
+    <t>greater than or equal to</t>
+  </si>
+  <si>
+    <t>SZ Promotion 71</t>
+  </si>
+  <si>
+    <t>SZ Promotion 72</t>
+  </si>
+  <si>
+    <t>SZ Promotion 73</t>
+  </si>
+  <si>
+    <t>SZ Promotion 74</t>
+  </si>
+  <si>
+    <t>SZ Promotion 75</t>
+  </si>
+  <si>
+    <t>SZ Promotion 76</t>
+  </si>
+  <si>
+    <t>SZ Promotion 77</t>
+  </si>
+  <si>
+    <t>SZ Promotion 78</t>
+  </si>
+  <si>
+    <t>SZ Promotion 79</t>
+  </si>
+  <si>
+    <t>SZ Promotion 80</t>
+  </si>
+  <si>
+    <t>SZ Promotion 81</t>
+  </si>
+  <si>
+    <t>SZ Promotion 82</t>
+  </si>
+  <si>
+    <t>SZ Promotion 83</t>
+  </si>
+  <si>
+    <t>SZ Promotion 84</t>
+  </si>
+  <si>
+    <t>SZ Promotion 85</t>
+  </si>
+  <si>
+    <t>SZ Promotion 86</t>
+  </si>
+  <si>
+    <t>SZ Promotion 87</t>
+  </si>
+  <si>
+    <t>SZ Promotion 88</t>
+  </si>
+  <si>
+    <t>SZ Promotion 89</t>
+  </si>
+  <si>
+    <t>SZ Promotion 90</t>
+  </si>
+  <si>
+    <t>SZ Promotion 91</t>
+  </si>
+  <si>
+    <t>SZ Promotion 92</t>
+  </si>
+  <si>
+    <t>SZ Promotion 93</t>
+  </si>
+  <si>
+    <t>SZ Promotion 94</t>
+  </si>
+  <si>
+    <t>SZ Promotion 95</t>
+  </si>
+  <si>
+    <t>SZ Promotion 96</t>
+  </si>
+  <si>
+    <t>SZ Promotion 97</t>
+  </si>
+  <si>
+    <t>SZ Promotion 98</t>
+  </si>
+  <si>
+    <t>SZ Promotion 99</t>
+  </si>
+  <si>
+    <t>SZ Promotion 100</t>
+  </si>
+  <si>
+    <t>SZ Promotion 101</t>
+  </si>
+  <si>
+    <t>SZ Promotion 102</t>
+  </si>
+  <si>
+    <t>SZ Promotion 103</t>
+  </si>
+  <si>
+    <t>SZ Promotion 104</t>
+  </si>
+  <si>
+    <t>SZ Promotion 105</t>
+  </si>
+  <si>
+    <t>SZ Promotion 106</t>
+  </si>
+  <si>
+    <t>SZ Promotion 107</t>
+  </si>
+  <si>
+    <t>SZ Promotion 108</t>
+  </si>
+  <si>
+    <t>SZ Promotion 109</t>
+  </si>
+  <si>
+    <t>SZ Promotion 110</t>
+  </si>
+  <si>
+    <t>Buy X Get Y</t>
+  </si>
+  <si>
+    <t>Benefit Prd Family</t>
+  </si>
+  <si>
+    <t>Hardware</t>
+  </si>
+  <si>
+    <t>SZ Promotion 111</t>
+  </si>
+  <si>
+    <t>SZ Promotion 112</t>
+  </si>
+  <si>
+    <t>SZ Promotion 113</t>
+  </si>
+  <si>
+    <t>SZ Promotion 114</t>
+  </si>
+  <si>
+    <t>SZ Promotion 115</t>
+  </si>
+  <si>
+    <t>SZ Promotion 116</t>
+  </si>
+  <si>
+    <t>SZ Promotion 117</t>
+  </si>
+  <si>
+    <t>SZ Promotion 118</t>
+  </si>
+  <si>
+    <t>SZ Promotion 119</t>
+  </si>
+  <si>
+    <t>SZ Promotion 120</t>
+  </si>
+  <si>
+    <t>SZ Promotion 121</t>
+  </si>
+  <si>
+    <t>SZ Promotion 122</t>
+  </si>
+  <si>
+    <t>SZ Promotion 123</t>
+  </si>
+  <si>
+    <t>SZ Promotion 124</t>
+  </si>
+  <si>
+    <t>SZ Promotion 125</t>
+  </si>
+  <si>
+    <t>SZ Promotion 126</t>
+  </si>
+  <si>
+    <t>SZ Promotion 127</t>
+  </si>
+  <si>
+    <t>SZ Promotion 128</t>
+  </si>
+  <si>
+    <t>SZ Promotion 129</t>
+  </si>
+  <si>
+    <t>SZ Promotion 130</t>
+  </si>
+  <si>
+    <t>Combine with Other Promotion?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1010,6 +1557,12 @@
       <name val="Bahnschrift SemiLight"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1031,7 +1584,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1054,12 +1607,92 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -1091,6 +1724,45 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3361,9 +4033,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8C25FC0-E9CE-48B4-B18D-4B2DFAE7BC8E}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3431,6 +4101,9155 @@
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6203AF5B-8B18-4629-AECB-417CA2A9E49E}">
+  <dimension ref="A1:AB131"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" style="21" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="5" customWidth="1"/>
+    <col min="10" max="10" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.5703125" customWidth="1"/>
+    <col min="18" max="18" width="16.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.5703125" style="5" customWidth="1"/>
+    <col min="20" max="20" width="11.5703125" style="5" customWidth="1"/>
+    <col min="21" max="21" width="19.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="22.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.140625" style="5"/>
+    <col min="24" max="24" width="17.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15.28515625" style="5" customWidth="1"/>
+    <col min="26" max="26" width="17.140625" style="5" customWidth="1"/>
+    <col min="27" max="27" width="21.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="19.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C1" t="s">
+        <v>306</v>
+      </c>
+      <c r="D1" t="s">
+        <v>309</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>483</v>
+      </c>
+      <c r="F1" t="s">
+        <v>310</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
+        <v>311</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="J1" t="s">
+        <v>312</v>
+      </c>
+      <c r="K1" t="s">
+        <v>313</v>
+      </c>
+      <c r="L1" t="s">
+        <v>314</v>
+      </c>
+      <c r="M1" t="s">
+        <v>315</v>
+      </c>
+      <c r="N1" t="s">
+        <v>316</v>
+      </c>
+      <c r="O1" t="s">
+        <v>408</v>
+      </c>
+      <c r="P1" t="s">
+        <v>407</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>409</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>410</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>412</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="W1" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="X1" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="Y1" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="Z1" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="AA1" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A2" s="29" t="s">
+        <v>303</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>305</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>460</v>
+      </c>
+      <c r="D2" s="30" t="s">
+        <v>308</v>
+      </c>
+      <c r="E2" s="30" t="s">
+        <v>308</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>308</v>
+      </c>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30" t="s">
+        <v>318</v>
+      </c>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30" t="s">
+        <v>319</v>
+      </c>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="18" t="s">
+        <v>322</v>
+      </c>
+      <c r="P2" s="18" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q2" s="18">
+        <v>20</v>
+      </c>
+      <c r="R2" s="18" t="s">
+        <v>416</v>
+      </c>
+      <c r="S2" s="18" t="s">
+        <v>320</v>
+      </c>
+      <c r="T2" s="18" t="s">
+        <v>417</v>
+      </c>
+      <c r="U2" s="18" t="s">
+        <v>418</v>
+      </c>
+      <c r="V2" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="W2" s="18">
+        <v>1</v>
+      </c>
+      <c r="X2" s="30" t="s">
+        <v>353</v>
+      </c>
+      <c r="Y2" s="30" t="s">
+        <v>325</v>
+      </c>
+      <c r="Z2" s="30" t="s">
+        <v>327</v>
+      </c>
+      <c r="AA2" s="30" t="s">
+        <v>263</v>
+      </c>
+      <c r="AB2" s="32">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A3" s="33" t="s">
+        <v>303</v>
+      </c>
+      <c r="B3" s="31" t="s">
+        <v>331</v>
+      </c>
+      <c r="C3" s="31" t="s">
+        <v>307</v>
+      </c>
+      <c r="D3" s="31" t="s">
+        <v>308</v>
+      </c>
+      <c r="E3" s="31" t="s">
+        <v>308</v>
+      </c>
+      <c r="F3" s="31" t="s">
+        <v>308</v>
+      </c>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31" t="s">
+        <v>318</v>
+      </c>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31" t="s">
+        <v>319</v>
+      </c>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="31"/>
+      <c r="O3" s="31"/>
+      <c r="P3" s="31"/>
+      <c r="Q3" s="31"/>
+      <c r="R3" s="31"/>
+      <c r="S3" s="31"/>
+      <c r="T3" s="31"/>
+      <c r="U3" s="31"/>
+      <c r="V3" s="31"/>
+      <c r="W3" s="31"/>
+      <c r="X3" s="31"/>
+      <c r="Y3" s="31" t="s">
+        <v>325</v>
+      </c>
+      <c r="Z3" s="31" t="s">
+        <v>327</v>
+      </c>
+      <c r="AA3" s="31" t="s">
+        <v>263</v>
+      </c>
+      <c r="AB3" s="34">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A4" s="33" t="s">
+        <v>303</v>
+      </c>
+      <c r="B4" s="31" t="s">
+        <v>332</v>
+      </c>
+      <c r="C4" s="31" t="s">
+        <v>307</v>
+      </c>
+      <c r="D4" s="31" t="s">
+        <v>308</v>
+      </c>
+      <c r="E4" s="31" t="s">
+        <v>308</v>
+      </c>
+      <c r="F4" s="31" t="s">
+        <v>308</v>
+      </c>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31" t="s">
+        <v>318</v>
+      </c>
+      <c r="I4" s="31"/>
+      <c r="J4" s="31" t="s">
+        <v>319</v>
+      </c>
+      <c r="K4" s="31"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="31"/>
+      <c r="O4" s="31"/>
+      <c r="P4" s="31"/>
+      <c r="Q4" s="31"/>
+      <c r="R4" s="31"/>
+      <c r="S4" s="31"/>
+      <c r="T4" s="31"/>
+      <c r="U4" s="31"/>
+      <c r="V4" s="31"/>
+      <c r="W4" s="31"/>
+      <c r="X4" s="31"/>
+      <c r="Y4" s="31" t="s">
+        <v>325</v>
+      </c>
+      <c r="Z4" s="31" t="s">
+        <v>327</v>
+      </c>
+      <c r="AA4" s="31" t="s">
+        <v>263</v>
+      </c>
+      <c r="AB4" s="34">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A5" s="33" t="s">
+        <v>303</v>
+      </c>
+      <c r="B5" s="31" t="s">
+        <v>333</v>
+      </c>
+      <c r="C5" s="31" t="s">
+        <v>307</v>
+      </c>
+      <c r="D5" s="31" t="s">
+        <v>308</v>
+      </c>
+      <c r="E5" s="31" t="s">
+        <v>308</v>
+      </c>
+      <c r="F5" s="31" t="s">
+        <v>308</v>
+      </c>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31" t="s">
+        <v>318</v>
+      </c>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31" t="s">
+        <v>319</v>
+      </c>
+      <c r="K5" s="31"/>
+      <c r="L5" s="31"/>
+      <c r="M5" s="31"/>
+      <c r="N5" s="31"/>
+      <c r="O5" s="31"/>
+      <c r="P5" s="31"/>
+      <c r="Q5" s="31"/>
+      <c r="R5" s="31"/>
+      <c r="S5" s="31"/>
+      <c r="T5" s="31"/>
+      <c r="U5" s="31"/>
+      <c r="V5" s="31"/>
+      <c r="W5" s="31"/>
+      <c r="X5" s="31"/>
+      <c r="Y5" s="31" t="s">
+        <v>325</v>
+      </c>
+      <c r="Z5" s="31" t="s">
+        <v>327</v>
+      </c>
+      <c r="AA5" s="31" t="s">
+        <v>263</v>
+      </c>
+      <c r="AB5" s="34">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A6" s="33" t="s">
+        <v>303</v>
+      </c>
+      <c r="B6" s="31" t="s">
+        <v>334</v>
+      </c>
+      <c r="C6" s="31" t="s">
+        <v>307</v>
+      </c>
+      <c r="D6" s="31" t="s">
+        <v>308</v>
+      </c>
+      <c r="E6" s="31" t="s">
+        <v>308</v>
+      </c>
+      <c r="F6" s="31" t="s">
+        <v>308</v>
+      </c>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31" t="s">
+        <v>318</v>
+      </c>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31" t="s">
+        <v>319</v>
+      </c>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+      <c r="P6" s="31"/>
+      <c r="Q6" s="31"/>
+      <c r="R6" s="31"/>
+      <c r="S6" s="31"/>
+      <c r="T6" s="31"/>
+      <c r="U6" s="31"/>
+      <c r="V6" s="31"/>
+      <c r="W6" s="31"/>
+      <c r="X6" s="31"/>
+      <c r="Y6" s="31" t="s">
+        <v>325</v>
+      </c>
+      <c r="Z6" s="31" t="s">
+        <v>327</v>
+      </c>
+      <c r="AA6" s="31" t="s">
+        <v>263</v>
+      </c>
+      <c r="AB6" s="34">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A7" s="33" t="s">
+        <v>303</v>
+      </c>
+      <c r="B7" s="31" t="s">
+        <v>335</v>
+      </c>
+      <c r="C7" s="31" t="s">
+        <v>307</v>
+      </c>
+      <c r="D7" s="31" t="s">
+        <v>308</v>
+      </c>
+      <c r="E7" s="31" t="s">
+        <v>308</v>
+      </c>
+      <c r="F7" s="31" t="s">
+        <v>308</v>
+      </c>
+      <c r="G7" s="31"/>
+      <c r="H7" s="31" t="s">
+        <v>318</v>
+      </c>
+      <c r="I7" s="31"/>
+      <c r="J7" s="31" t="s">
+        <v>319</v>
+      </c>
+      <c r="K7" s="31"/>
+      <c r="L7" s="31"/>
+      <c r="M7" s="31"/>
+      <c r="N7" s="31"/>
+      <c r="O7" s="31"/>
+      <c r="P7" s="31"/>
+      <c r="Q7" s="31"/>
+      <c r="R7" s="31"/>
+      <c r="S7" s="31"/>
+      <c r="T7" s="31"/>
+      <c r="U7" s="31"/>
+      <c r="V7" s="31"/>
+      <c r="W7" s="31"/>
+      <c r="X7" s="31"/>
+      <c r="Y7" s="31" t="s">
+        <v>325</v>
+      </c>
+      <c r="Z7" s="31" t="s">
+        <v>327</v>
+      </c>
+      <c r="AA7" s="31" t="s">
+        <v>263</v>
+      </c>
+      <c r="AB7" s="34">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A8" s="33" t="s">
+        <v>303</v>
+      </c>
+      <c r="B8" s="31" t="s">
+        <v>336</v>
+      </c>
+      <c r="C8" s="31" t="s">
+        <v>307</v>
+      </c>
+      <c r="D8" s="31" t="s">
+        <v>308</v>
+      </c>
+      <c r="E8" s="31" t="s">
+        <v>308</v>
+      </c>
+      <c r="F8" s="31" t="s">
+        <v>308</v>
+      </c>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31" t="s">
+        <v>318</v>
+      </c>
+      <c r="I8" s="31"/>
+      <c r="J8" s="31" t="s">
+        <v>319</v>
+      </c>
+      <c r="K8" s="31"/>
+      <c r="L8" s="31"/>
+      <c r="M8" s="31"/>
+      <c r="N8" s="31"/>
+      <c r="O8" s="31"/>
+      <c r="P8" s="31"/>
+      <c r="Q8" s="31"/>
+      <c r="R8" s="31"/>
+      <c r="S8" s="31"/>
+      <c r="T8" s="31"/>
+      <c r="U8" s="31"/>
+      <c r="V8" s="31"/>
+      <c r="W8" s="31"/>
+      <c r="X8" s="31"/>
+      <c r="Y8" s="31" t="s">
+        <v>325</v>
+      </c>
+      <c r="Z8" s="31" t="s">
+        <v>327</v>
+      </c>
+      <c r="AA8" s="31" t="s">
+        <v>263</v>
+      </c>
+      <c r="AB8" s="34">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A9" s="33" t="s">
+        <v>303</v>
+      </c>
+      <c r="B9" s="31" t="s">
+        <v>337</v>
+      </c>
+      <c r="C9" s="31" t="s">
+        <v>307</v>
+      </c>
+      <c r="D9" s="31" t="s">
+        <v>308</v>
+      </c>
+      <c r="E9" s="31" t="s">
+        <v>308</v>
+      </c>
+      <c r="F9" s="31" t="s">
+        <v>308</v>
+      </c>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31" t="s">
+        <v>318</v>
+      </c>
+      <c r="I9" s="31"/>
+      <c r="J9" s="31" t="s">
+        <v>319</v>
+      </c>
+      <c r="K9" s="31"/>
+      <c r="L9" s="31"/>
+      <c r="M9" s="31"/>
+      <c r="N9" s="31"/>
+      <c r="O9" s="31"/>
+      <c r="P9" s="31"/>
+      <c r="Q9" s="31"/>
+      <c r="R9" s="31"/>
+      <c r="S9" s="31"/>
+      <c r="T9" s="31"/>
+      <c r="U9" s="31"/>
+      <c r="V9" s="31"/>
+      <c r="W9" s="31"/>
+      <c r="X9" s="31"/>
+      <c r="Y9" s="31" t="s">
+        <v>325</v>
+      </c>
+      <c r="Z9" s="31" t="s">
+        <v>327</v>
+      </c>
+      <c r="AA9" s="31" t="s">
+        <v>263</v>
+      </c>
+      <c r="AB9" s="34">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A10" s="33" t="s">
+        <v>303</v>
+      </c>
+      <c r="B10" s="31" t="s">
+        <v>338</v>
+      </c>
+      <c r="C10" s="31" t="s">
+        <v>307</v>
+      </c>
+      <c r="D10" s="31" t="s">
+        <v>308</v>
+      </c>
+      <c r="E10" s="31" t="s">
+        <v>308</v>
+      </c>
+      <c r="F10" s="31" t="s">
+        <v>308</v>
+      </c>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31" t="s">
+        <v>318</v>
+      </c>
+      <c r="I10" s="31"/>
+      <c r="J10" s="31" t="s">
+        <v>319</v>
+      </c>
+      <c r="K10" s="31"/>
+      <c r="L10" s="31"/>
+      <c r="M10" s="31"/>
+      <c r="N10" s="31"/>
+      <c r="O10" s="31"/>
+      <c r="P10" s="31"/>
+      <c r="Q10" s="31"/>
+      <c r="R10" s="31"/>
+      <c r="S10" s="31"/>
+      <c r="T10" s="31"/>
+      <c r="U10" s="31"/>
+      <c r="V10" s="31"/>
+      <c r="W10" s="31"/>
+      <c r="X10" s="31"/>
+      <c r="Y10" s="31" t="s">
+        <v>325</v>
+      </c>
+      <c r="Z10" s="31" t="s">
+        <v>327</v>
+      </c>
+      <c r="AA10" s="31" t="s">
+        <v>263</v>
+      </c>
+      <c r="AB10" s="34">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="35" t="s">
+        <v>303</v>
+      </c>
+      <c r="B11" s="36" t="s">
+        <v>339</v>
+      </c>
+      <c r="C11" s="36" t="s">
+        <v>307</v>
+      </c>
+      <c r="D11" s="36" t="s">
+        <v>308</v>
+      </c>
+      <c r="E11" s="36" t="s">
+        <v>308</v>
+      </c>
+      <c r="F11" s="36" t="s">
+        <v>308</v>
+      </c>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36" t="s">
+        <v>318</v>
+      </c>
+      <c r="I11" s="36"/>
+      <c r="J11" s="36" t="s">
+        <v>319</v>
+      </c>
+      <c r="K11" s="36"/>
+      <c r="L11" s="36"/>
+      <c r="M11" s="36"/>
+      <c r="N11" s="36"/>
+      <c r="O11" s="36"/>
+      <c r="P11" s="36"/>
+      <c r="Q11" s="36"/>
+      <c r="R11" s="36"/>
+      <c r="S11" s="36"/>
+      <c r="T11" s="36"/>
+      <c r="U11" s="36"/>
+      <c r="V11" s="36"/>
+      <c r="W11" s="36"/>
+      <c r="X11" s="36"/>
+      <c r="Y11" s="36" t="s">
+        <v>325</v>
+      </c>
+      <c r="Z11" s="36" t="s">
+        <v>327</v>
+      </c>
+      <c r="AA11" s="36" t="s">
+        <v>263</v>
+      </c>
+      <c r="AB11" s="37">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A12" s="17" t="s">
+        <v>303</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>343</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>307</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>308</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>308</v>
+      </c>
+      <c r="F12" s="18" t="s">
+        <v>308</v>
+      </c>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18" t="s">
+        <v>353</v>
+      </c>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="18"/>
+      <c r="O12" s="18"/>
+      <c r="P12" s="18"/>
+      <c r="Q12" s="18"/>
+      <c r="R12" s="18"/>
+      <c r="S12" s="18"/>
+      <c r="T12" s="18"/>
+      <c r="U12" s="18"/>
+      <c r="V12" s="18"/>
+      <c r="W12" s="18"/>
+      <c r="X12" s="18"/>
+      <c r="Y12" s="18" t="s">
+        <v>325</v>
+      </c>
+      <c r="Z12" s="18" t="s">
+        <v>327</v>
+      </c>
+      <c r="AA12" s="18" t="s">
+        <v>263</v>
+      </c>
+      <c r="AB12" s="19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A13" s="20" t="s">
+        <v>303</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>344</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>307</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="E13" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="F13" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21" t="s">
+        <v>353</v>
+      </c>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="21"/>
+      <c r="O13" s="21"/>
+      <c r="P13" s="21"/>
+      <c r="Q13" s="21"/>
+      <c r="R13" s="21"/>
+      <c r="S13" s="21"/>
+      <c r="T13" s="21"/>
+      <c r="U13" s="21"/>
+      <c r="V13" s="21"/>
+      <c r="W13" s="21"/>
+      <c r="X13" s="21"/>
+      <c r="Y13" s="21" t="s">
+        <v>325</v>
+      </c>
+      <c r="Z13" s="21" t="s">
+        <v>327</v>
+      </c>
+      <c r="AA13" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="AB13" s="22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A14" s="20" t="s">
+        <v>303</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>345</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>307</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="E14" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="F14" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21" t="s">
+        <v>353</v>
+      </c>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="21"/>
+      <c r="O14" s="21"/>
+      <c r="P14" s="21"/>
+      <c r="Q14" s="21"/>
+      <c r="R14" s="21"/>
+      <c r="S14" s="21"/>
+      <c r="T14" s="21"/>
+      <c r="U14" s="21"/>
+      <c r="V14" s="21"/>
+      <c r="W14" s="21"/>
+      <c r="X14" s="21"/>
+      <c r="Y14" s="21" t="s">
+        <v>325</v>
+      </c>
+      <c r="Z14" s="21" t="s">
+        <v>327</v>
+      </c>
+      <c r="AA14" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="AB14" s="22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A15" s="20" t="s">
+        <v>303</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>346</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>307</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="E15" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="F15" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21" t="s">
+        <v>353</v>
+      </c>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="21"/>
+      <c r="M15" s="21"/>
+      <c r="N15" s="21"/>
+      <c r="O15" s="21"/>
+      <c r="P15" s="21"/>
+      <c r="Q15" s="21"/>
+      <c r="R15" s="21"/>
+      <c r="S15" s="21"/>
+      <c r="T15" s="21"/>
+      <c r="U15" s="21"/>
+      <c r="V15" s="21"/>
+      <c r="W15" s="21"/>
+      <c r="X15" s="21"/>
+      <c r="Y15" s="21" t="s">
+        <v>325</v>
+      </c>
+      <c r="Z15" s="21" t="s">
+        <v>327</v>
+      </c>
+      <c r="AA15" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="AB15" s="22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A16" s="20" t="s">
+        <v>303</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>347</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>307</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="E16" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="F16" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21" t="s">
+        <v>353</v>
+      </c>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="21"/>
+      <c r="M16" s="21"/>
+      <c r="N16" s="21"/>
+      <c r="O16" s="21"/>
+      <c r="P16" s="21"/>
+      <c r="Q16" s="21"/>
+      <c r="R16" s="21"/>
+      <c r="S16" s="21"/>
+      <c r="T16" s="21"/>
+      <c r="U16" s="21"/>
+      <c r="V16" s="21"/>
+      <c r="W16" s="21"/>
+      <c r="X16" s="21"/>
+      <c r="Y16" s="21" t="s">
+        <v>325</v>
+      </c>
+      <c r="Z16" s="21" t="s">
+        <v>327</v>
+      </c>
+      <c r="AA16" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="AB16" s="22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A17" s="20" t="s">
+        <v>303</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>348</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>307</v>
+      </c>
+      <c r="D17" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="F17" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21" t="s">
+        <v>353</v>
+      </c>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="21"/>
+      <c r="M17" s="21"/>
+      <c r="N17" s="21"/>
+      <c r="O17" s="21"/>
+      <c r="P17" s="21"/>
+      <c r="Q17" s="21"/>
+      <c r="R17" s="21"/>
+      <c r="S17" s="21"/>
+      <c r="T17" s="21"/>
+      <c r="U17" s="21"/>
+      <c r="V17" s="21"/>
+      <c r="W17" s="21"/>
+      <c r="X17" s="21"/>
+      <c r="Y17" s="21" t="s">
+        <v>325</v>
+      </c>
+      <c r="Z17" s="21" t="s">
+        <v>327</v>
+      </c>
+      <c r="AA17" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="AB17" s="22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A18" s="20" t="s">
+        <v>303</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>349</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>307</v>
+      </c>
+      <c r="D18" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="E18" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="F18" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21" t="s">
+        <v>353</v>
+      </c>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="21"/>
+      <c r="M18" s="21"/>
+      <c r="N18" s="21"/>
+      <c r="O18" s="21"/>
+      <c r="P18" s="21"/>
+      <c r="Q18" s="21"/>
+      <c r="R18" s="21"/>
+      <c r="S18" s="21"/>
+      <c r="T18" s="21"/>
+      <c r="U18" s="21"/>
+      <c r="V18" s="21"/>
+      <c r="W18" s="21"/>
+      <c r="X18" s="21"/>
+      <c r="Y18" s="21" t="s">
+        <v>325</v>
+      </c>
+      <c r="Z18" s="21" t="s">
+        <v>327</v>
+      </c>
+      <c r="AA18" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="AB18" s="22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A19" s="20" t="s">
+        <v>303</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>350</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>307</v>
+      </c>
+      <c r="D19" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="E19" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="F19" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21" t="s">
+        <v>353</v>
+      </c>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="21"/>
+      <c r="L19" s="21"/>
+      <c r="M19" s="21"/>
+      <c r="N19" s="21"/>
+      <c r="O19" s="21"/>
+      <c r="P19" s="21"/>
+      <c r="Q19" s="21"/>
+      <c r="R19" s="21"/>
+      <c r="S19" s="21"/>
+      <c r="T19" s="21"/>
+      <c r="U19" s="21"/>
+      <c r="V19" s="21"/>
+      <c r="W19" s="21"/>
+      <c r="X19" s="21"/>
+      <c r="Y19" s="21" t="s">
+        <v>325</v>
+      </c>
+      <c r="Z19" s="21" t="s">
+        <v>327</v>
+      </c>
+      <c r="AA19" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="AB19" s="22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A20" s="20" t="s">
+        <v>303</v>
+      </c>
+      <c r="B20" s="21" t="s">
+        <v>351</v>
+      </c>
+      <c r="C20" s="21" t="s">
+        <v>307</v>
+      </c>
+      <c r="D20" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="E20" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="F20" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21" t="s">
+        <v>353</v>
+      </c>
+      <c r="I20" s="21"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="21"/>
+      <c r="L20" s="21"/>
+      <c r="M20" s="21"/>
+      <c r="N20" s="21"/>
+      <c r="O20" s="21"/>
+      <c r="P20" s="21"/>
+      <c r="Q20" s="21"/>
+      <c r="R20" s="21"/>
+      <c r="S20" s="21"/>
+      <c r="T20" s="21"/>
+      <c r="U20" s="21"/>
+      <c r="V20" s="21"/>
+      <c r="W20" s="21"/>
+      <c r="X20" s="21"/>
+      <c r="Y20" s="21" t="s">
+        <v>325</v>
+      </c>
+      <c r="Z20" s="21" t="s">
+        <v>327</v>
+      </c>
+      <c r="AA20" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="AB20" s="22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="23" t="s">
+        <v>303</v>
+      </c>
+      <c r="B21" s="24" t="s">
+        <v>352</v>
+      </c>
+      <c r="C21" s="24" t="s">
+        <v>307</v>
+      </c>
+      <c r="D21" s="24" t="s">
+        <v>308</v>
+      </c>
+      <c r="E21" s="24" t="s">
+        <v>308</v>
+      </c>
+      <c r="F21" s="24" t="s">
+        <v>308</v>
+      </c>
+      <c r="G21" s="24"/>
+      <c r="H21" s="24" t="s">
+        <v>353</v>
+      </c>
+      <c r="I21" s="24"/>
+      <c r="J21" s="24"/>
+      <c r="K21" s="24"/>
+      <c r="L21" s="24"/>
+      <c r="M21" s="24"/>
+      <c r="N21" s="24"/>
+      <c r="O21" s="24"/>
+      <c r="P21" s="24"/>
+      <c r="Q21" s="24"/>
+      <c r="R21" s="24"/>
+      <c r="S21" s="24"/>
+      <c r="T21" s="24"/>
+      <c r="U21" s="24"/>
+      <c r="V21" s="24"/>
+      <c r="W21" s="24"/>
+      <c r="X21" s="24"/>
+      <c r="Y21" s="24" t="s">
+        <v>325</v>
+      </c>
+      <c r="Z21" s="24" t="s">
+        <v>327</v>
+      </c>
+      <c r="AA21" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="AB21" s="25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A22" s="17" t="s">
+        <v>303</v>
+      </c>
+      <c r="B22" s="18" t="s">
+        <v>354</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>307</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>308</v>
+      </c>
+      <c r="E22" s="18" t="s">
+        <v>308</v>
+      </c>
+      <c r="F22" s="18" t="s">
+        <v>308</v>
+      </c>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18" t="s">
+        <v>340</v>
+      </c>
+      <c r="I22" s="18"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="18"/>
+      <c r="L22" s="18"/>
+      <c r="M22" s="18" t="s">
+        <v>321</v>
+      </c>
+      <c r="N22" s="18"/>
+      <c r="O22" s="18"/>
+      <c r="P22" s="18"/>
+      <c r="Q22" s="18"/>
+      <c r="R22" s="18"/>
+      <c r="S22" s="18"/>
+      <c r="T22" s="18"/>
+      <c r="U22" s="18"/>
+      <c r="V22" s="18"/>
+      <c r="W22" s="18"/>
+      <c r="X22" s="18"/>
+      <c r="Y22" s="18" t="s">
+        <v>325</v>
+      </c>
+      <c r="Z22" s="18" t="s">
+        <v>327</v>
+      </c>
+      <c r="AA22" s="18" t="s">
+        <v>263</v>
+      </c>
+      <c r="AB22" s="19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A23" s="20" t="s">
+        <v>303</v>
+      </c>
+      <c r="B23" s="21" t="s">
+        <v>355</v>
+      </c>
+      <c r="C23" s="21" t="s">
+        <v>307</v>
+      </c>
+      <c r="D23" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="E23" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="F23" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21" t="s">
+        <v>340</v>
+      </c>
+      <c r="I23" s="21"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="21"/>
+      <c r="L23" s="21"/>
+      <c r="M23" s="21" t="s">
+        <v>321</v>
+      </c>
+      <c r="N23" s="21"/>
+      <c r="O23" s="21"/>
+      <c r="P23" s="21"/>
+      <c r="Q23" s="21"/>
+      <c r="R23" s="21"/>
+      <c r="S23" s="21"/>
+      <c r="T23" s="21"/>
+      <c r="U23" s="21"/>
+      <c r="V23" s="21"/>
+      <c r="W23" s="21"/>
+      <c r="X23" s="21"/>
+      <c r="Y23" s="21" t="s">
+        <v>325</v>
+      </c>
+      <c r="Z23" s="21" t="s">
+        <v>327</v>
+      </c>
+      <c r="AA23" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="AB23" s="22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A24" s="20" t="s">
+        <v>303</v>
+      </c>
+      <c r="B24" s="21" t="s">
+        <v>356</v>
+      </c>
+      <c r="C24" s="21" t="s">
+        <v>307</v>
+      </c>
+      <c r="D24" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="E24" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="F24" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="G24" s="21"/>
+      <c r="H24" s="21" t="s">
+        <v>340</v>
+      </c>
+      <c r="I24" s="21"/>
+      <c r="J24" s="21"/>
+      <c r="K24" s="21"/>
+      <c r="L24" s="21"/>
+      <c r="M24" s="21" t="s">
+        <v>321</v>
+      </c>
+      <c r="N24" s="21"/>
+      <c r="O24" s="21"/>
+      <c r="P24" s="21"/>
+      <c r="Q24" s="21"/>
+      <c r="R24" s="21"/>
+      <c r="S24" s="21"/>
+      <c r="T24" s="21"/>
+      <c r="U24" s="21"/>
+      <c r="V24" s="21"/>
+      <c r="W24" s="21"/>
+      <c r="X24" s="21"/>
+      <c r="Y24" s="21" t="s">
+        <v>325</v>
+      </c>
+      <c r="Z24" s="21" t="s">
+        <v>327</v>
+      </c>
+      <c r="AA24" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="AB24" s="22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A25" s="20" t="s">
+        <v>303</v>
+      </c>
+      <c r="B25" s="21" t="s">
+        <v>357</v>
+      </c>
+      <c r="C25" s="21" t="s">
+        <v>307</v>
+      </c>
+      <c r="D25" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="E25" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="F25" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="G25" s="21"/>
+      <c r="H25" s="21" t="s">
+        <v>340</v>
+      </c>
+      <c r="I25" s="21"/>
+      <c r="J25" s="21"/>
+      <c r="K25" s="21"/>
+      <c r="L25" s="21"/>
+      <c r="M25" s="21" t="s">
+        <v>321</v>
+      </c>
+      <c r="N25" s="21"/>
+      <c r="O25" s="21"/>
+      <c r="P25" s="21"/>
+      <c r="Q25" s="21"/>
+      <c r="R25" s="21"/>
+      <c r="S25" s="21"/>
+      <c r="T25" s="21"/>
+      <c r="U25" s="21"/>
+      <c r="V25" s="21"/>
+      <c r="W25" s="21"/>
+      <c r="X25" s="21"/>
+      <c r="Y25" s="21" t="s">
+        <v>325</v>
+      </c>
+      <c r="Z25" s="21" t="s">
+        <v>327</v>
+      </c>
+      <c r="AA25" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="AB25" s="22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A26" s="20" t="s">
+        <v>303</v>
+      </c>
+      <c r="B26" s="21" t="s">
+        <v>358</v>
+      </c>
+      <c r="C26" s="21" t="s">
+        <v>307</v>
+      </c>
+      <c r="D26" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="E26" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="F26" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21" t="s">
+        <v>340</v>
+      </c>
+      <c r="I26" s="21"/>
+      <c r="J26" s="21"/>
+      <c r="K26" s="21"/>
+      <c r="L26" s="21"/>
+      <c r="M26" s="21" t="s">
+        <v>321</v>
+      </c>
+      <c r="N26" s="21"/>
+      <c r="O26" s="21"/>
+      <c r="P26" s="21"/>
+      <c r="Q26" s="21"/>
+      <c r="R26" s="21"/>
+      <c r="S26" s="21"/>
+      <c r="T26" s="21"/>
+      <c r="U26" s="21"/>
+      <c r="V26" s="21"/>
+      <c r="W26" s="21"/>
+      <c r="X26" s="21"/>
+      <c r="Y26" s="21" t="s">
+        <v>325</v>
+      </c>
+      <c r="Z26" s="21" t="s">
+        <v>327</v>
+      </c>
+      <c r="AA26" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="AB26" s="22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A27" s="20" t="s">
+        <v>303</v>
+      </c>
+      <c r="B27" s="21" t="s">
+        <v>359</v>
+      </c>
+      <c r="C27" s="21" t="s">
+        <v>307</v>
+      </c>
+      <c r="D27" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="E27" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="F27" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="G27" s="21"/>
+      <c r="H27" s="21" t="s">
+        <v>340</v>
+      </c>
+      <c r="I27" s="21"/>
+      <c r="J27" s="21"/>
+      <c r="K27" s="21"/>
+      <c r="L27" s="21"/>
+      <c r="M27" s="21" t="s">
+        <v>321</v>
+      </c>
+      <c r="N27" s="21"/>
+      <c r="O27" s="21"/>
+      <c r="P27" s="21"/>
+      <c r="Q27" s="21"/>
+      <c r="R27" s="21"/>
+      <c r="S27" s="21"/>
+      <c r="T27" s="21"/>
+      <c r="U27" s="21"/>
+      <c r="V27" s="21"/>
+      <c r="W27" s="21"/>
+      <c r="X27" s="21"/>
+      <c r="Y27" s="21" t="s">
+        <v>325</v>
+      </c>
+      <c r="Z27" s="21" t="s">
+        <v>327</v>
+      </c>
+      <c r="AA27" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="AB27" s="22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A28" s="20" t="s">
+        <v>303</v>
+      </c>
+      <c r="B28" s="21" t="s">
+        <v>360</v>
+      </c>
+      <c r="C28" s="21" t="s">
+        <v>307</v>
+      </c>
+      <c r="D28" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="E28" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="F28" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="G28" s="21"/>
+      <c r="H28" s="21" t="s">
+        <v>340</v>
+      </c>
+      <c r="I28" s="21"/>
+      <c r="J28" s="21"/>
+      <c r="K28" s="21"/>
+      <c r="L28" s="21"/>
+      <c r="M28" s="21" t="s">
+        <v>321</v>
+      </c>
+      <c r="N28" s="21"/>
+      <c r="O28" s="21"/>
+      <c r="P28" s="21"/>
+      <c r="Q28" s="21"/>
+      <c r="R28" s="21"/>
+      <c r="S28" s="21"/>
+      <c r="T28" s="21"/>
+      <c r="U28" s="21"/>
+      <c r="V28" s="21"/>
+      <c r="W28" s="21"/>
+      <c r="X28" s="21"/>
+      <c r="Y28" s="21" t="s">
+        <v>325</v>
+      </c>
+      <c r="Z28" s="21" t="s">
+        <v>327</v>
+      </c>
+      <c r="AA28" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="AB28" s="22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A29" s="20" t="s">
+        <v>303</v>
+      </c>
+      <c r="B29" s="21" t="s">
+        <v>361</v>
+      </c>
+      <c r="C29" s="21" t="s">
+        <v>307</v>
+      </c>
+      <c r="D29" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="E29" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="F29" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="G29" s="21"/>
+      <c r="H29" s="21" t="s">
+        <v>340</v>
+      </c>
+      <c r="I29" s="21"/>
+      <c r="J29" s="21"/>
+      <c r="K29" s="21"/>
+      <c r="L29" s="21"/>
+      <c r="M29" s="21" t="s">
+        <v>321</v>
+      </c>
+      <c r="N29" s="21"/>
+      <c r="O29" s="21"/>
+      <c r="P29" s="21"/>
+      <c r="Q29" s="21"/>
+      <c r="R29" s="21"/>
+      <c r="S29" s="21"/>
+      <c r="T29" s="21"/>
+      <c r="U29" s="21"/>
+      <c r="V29" s="21"/>
+      <c r="W29" s="21"/>
+      <c r="X29" s="21"/>
+      <c r="Y29" s="21" t="s">
+        <v>325</v>
+      </c>
+      <c r="Z29" s="21" t="s">
+        <v>327</v>
+      </c>
+      <c r="AA29" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="AB29" s="22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A30" s="20" t="s">
+        <v>303</v>
+      </c>
+      <c r="B30" s="21" t="s">
+        <v>362</v>
+      </c>
+      <c r="C30" s="21" t="s">
+        <v>307</v>
+      </c>
+      <c r="D30" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="E30" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="F30" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="G30" s="21"/>
+      <c r="H30" s="21" t="s">
+        <v>340</v>
+      </c>
+      <c r="I30" s="21"/>
+      <c r="J30" s="21"/>
+      <c r="K30" s="21"/>
+      <c r="L30" s="21"/>
+      <c r="M30" s="21" t="s">
+        <v>321</v>
+      </c>
+      <c r="N30" s="21"/>
+      <c r="O30" s="21"/>
+      <c r="P30" s="21"/>
+      <c r="Q30" s="21"/>
+      <c r="R30" s="21"/>
+      <c r="S30" s="21"/>
+      <c r="T30" s="21"/>
+      <c r="U30" s="21"/>
+      <c r="V30" s="21"/>
+      <c r="W30" s="21"/>
+      <c r="X30" s="21"/>
+      <c r="Y30" s="21" t="s">
+        <v>325</v>
+      </c>
+      <c r="Z30" s="21" t="s">
+        <v>327</v>
+      </c>
+      <c r="AA30" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="AB30" s="22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="23" t="s">
+        <v>303</v>
+      </c>
+      <c r="B31" s="24" t="s">
+        <v>363</v>
+      </c>
+      <c r="C31" s="24" t="s">
+        <v>307</v>
+      </c>
+      <c r="D31" s="24" t="s">
+        <v>308</v>
+      </c>
+      <c r="E31" s="24" t="s">
+        <v>308</v>
+      </c>
+      <c r="F31" s="24" t="s">
+        <v>308</v>
+      </c>
+      <c r="G31" s="24"/>
+      <c r="H31" s="24" t="s">
+        <v>340</v>
+      </c>
+      <c r="I31" s="24"/>
+      <c r="J31" s="24"/>
+      <c r="K31" s="24"/>
+      <c r="L31" s="24"/>
+      <c r="M31" s="24" t="s">
+        <v>321</v>
+      </c>
+      <c r="N31" s="24"/>
+      <c r="O31" s="24"/>
+      <c r="P31" s="24"/>
+      <c r="Q31" s="24"/>
+      <c r="R31" s="24"/>
+      <c r="S31" s="24"/>
+      <c r="T31" s="24"/>
+      <c r="U31" s="24"/>
+      <c r="V31" s="24"/>
+      <c r="W31" s="24"/>
+      <c r="X31" s="24"/>
+      <c r="Y31" s="24" t="s">
+        <v>325</v>
+      </c>
+      <c r="Z31" s="24" t="s">
+        <v>327</v>
+      </c>
+      <c r="AA31" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="AB31" s="25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="17" t="s">
+        <v>303</v>
+      </c>
+      <c r="B32" s="18" t="s">
+        <v>364</v>
+      </c>
+      <c r="C32" s="18" t="s">
+        <v>307</v>
+      </c>
+      <c r="D32" s="18" t="s">
+        <v>308</v>
+      </c>
+      <c r="E32" s="18" t="s">
+        <v>308</v>
+      </c>
+      <c r="F32" s="18" t="s">
+        <v>308</v>
+      </c>
+      <c r="G32" s="18"/>
+      <c r="H32" s="18" t="s">
+        <v>341</v>
+      </c>
+      <c r="I32" s="18"/>
+      <c r="J32" s="18"/>
+      <c r="K32" s="18" t="s">
+        <v>329</v>
+      </c>
+      <c r="L32" s="18"/>
+      <c r="M32" s="18"/>
+      <c r="N32" s="18"/>
+      <c r="O32" s="18"/>
+      <c r="P32" s="18"/>
+      <c r="Q32" s="18"/>
+      <c r="R32" s="18"/>
+      <c r="S32" s="18"/>
+      <c r="T32" s="18"/>
+      <c r="U32" s="18"/>
+      <c r="V32" s="18"/>
+      <c r="W32" s="18"/>
+      <c r="X32" s="18"/>
+      <c r="Y32" s="18" t="s">
+        <v>325</v>
+      </c>
+      <c r="Z32" s="18" t="s">
+        <v>327</v>
+      </c>
+      <c r="AA32" s="18" t="s">
+        <v>263</v>
+      </c>
+      <c r="AB32" s="19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A33" s="20" t="s">
+        <v>303</v>
+      </c>
+      <c r="B33" s="21" t="s">
+        <v>365</v>
+      </c>
+      <c r="C33" s="21" t="s">
+        <v>307</v>
+      </c>
+      <c r="D33" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="E33" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="F33" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="G33" s="21"/>
+      <c r="H33" s="21" t="s">
+        <v>341</v>
+      </c>
+      <c r="I33" s="21"/>
+      <c r="J33" s="21"/>
+      <c r="K33" s="21" t="s">
+        <v>329</v>
+      </c>
+      <c r="L33" s="21"/>
+      <c r="M33" s="21"/>
+      <c r="N33" s="21"/>
+      <c r="O33" s="21"/>
+      <c r="P33" s="21"/>
+      <c r="Q33" s="21"/>
+      <c r="R33" s="21"/>
+      <c r="S33" s="21"/>
+      <c r="T33" s="21"/>
+      <c r="U33" s="21"/>
+      <c r="V33" s="21"/>
+      <c r="W33" s="21"/>
+      <c r="X33" s="21"/>
+      <c r="Y33" s="21" t="s">
+        <v>325</v>
+      </c>
+      <c r="Z33" s="21" t="s">
+        <v>327</v>
+      </c>
+      <c r="AA33" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="AB33" s="22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A34" s="20" t="s">
+        <v>303</v>
+      </c>
+      <c r="B34" s="21" t="s">
+        <v>366</v>
+      </c>
+      <c r="C34" s="21" t="s">
+        <v>307</v>
+      </c>
+      <c r="D34" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="E34" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="F34" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="G34" s="21"/>
+      <c r="H34" s="21" t="s">
+        <v>341</v>
+      </c>
+      <c r="I34" s="21"/>
+      <c r="J34" s="21"/>
+      <c r="K34" s="21" t="s">
+        <v>329</v>
+      </c>
+      <c r="L34" s="21"/>
+      <c r="M34" s="21"/>
+      <c r="N34" s="21"/>
+      <c r="O34" s="21"/>
+      <c r="P34" s="21"/>
+      <c r="Q34" s="21"/>
+      <c r="R34" s="21"/>
+      <c r="S34" s="21"/>
+      <c r="T34" s="21"/>
+      <c r="U34" s="21"/>
+      <c r="V34" s="21"/>
+      <c r="W34" s="21"/>
+      <c r="X34" s="21"/>
+      <c r="Y34" s="21" t="s">
+        <v>325</v>
+      </c>
+      <c r="Z34" s="21" t="s">
+        <v>327</v>
+      </c>
+      <c r="AA34" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="AB34" s="22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A35" s="20" t="s">
+        <v>303</v>
+      </c>
+      <c r="B35" s="21" t="s">
+        <v>367</v>
+      </c>
+      <c r="C35" s="21" t="s">
+        <v>307</v>
+      </c>
+      <c r="D35" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="E35" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="F35" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="G35" s="21"/>
+      <c r="H35" s="21" t="s">
+        <v>341</v>
+      </c>
+      <c r="I35" s="21"/>
+      <c r="J35" s="21"/>
+      <c r="K35" s="21" t="s">
+        <v>329</v>
+      </c>
+      <c r="L35" s="21"/>
+      <c r="M35" s="21"/>
+      <c r="N35" s="21"/>
+      <c r="O35" s="21"/>
+      <c r="P35" s="21"/>
+      <c r="Q35" s="21"/>
+      <c r="R35" s="21"/>
+      <c r="S35" s="21"/>
+      <c r="T35" s="21"/>
+      <c r="U35" s="21"/>
+      <c r="V35" s="21"/>
+      <c r="W35" s="21"/>
+      <c r="X35" s="21"/>
+      <c r="Y35" s="21" t="s">
+        <v>325</v>
+      </c>
+      <c r="Z35" s="21" t="s">
+        <v>327</v>
+      </c>
+      <c r="AA35" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="AB35" s="22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A36" s="20" t="s">
+        <v>303</v>
+      </c>
+      <c r="B36" s="21" t="s">
+        <v>368</v>
+      </c>
+      <c r="C36" s="21" t="s">
+        <v>307</v>
+      </c>
+      <c r="D36" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="E36" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="F36" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="G36" s="21"/>
+      <c r="H36" s="21" t="s">
+        <v>341</v>
+      </c>
+      <c r="I36" s="21"/>
+      <c r="J36" s="21"/>
+      <c r="K36" s="21" t="s">
+        <v>329</v>
+      </c>
+      <c r="L36" s="21"/>
+      <c r="M36" s="21"/>
+      <c r="N36" s="21"/>
+      <c r="O36" s="21"/>
+      <c r="P36" s="21"/>
+      <c r="Q36" s="21"/>
+      <c r="R36" s="21"/>
+      <c r="S36" s="21"/>
+      <c r="T36" s="21"/>
+      <c r="U36" s="21"/>
+      <c r="V36" s="21"/>
+      <c r="W36" s="21"/>
+      <c r="X36" s="21"/>
+      <c r="Y36" s="21" t="s">
+        <v>325</v>
+      </c>
+      <c r="Z36" s="21" t="s">
+        <v>327</v>
+      </c>
+      <c r="AA36" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="AB36" s="22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A37" s="20" t="s">
+        <v>303</v>
+      </c>
+      <c r="B37" s="21" t="s">
+        <v>369</v>
+      </c>
+      <c r="C37" s="21" t="s">
+        <v>307</v>
+      </c>
+      <c r="D37" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="E37" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="F37" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="G37" s="21"/>
+      <c r="H37" s="21" t="s">
+        <v>341</v>
+      </c>
+      <c r="I37" s="21"/>
+      <c r="J37" s="21"/>
+      <c r="K37" s="21" t="s">
+        <v>329</v>
+      </c>
+      <c r="L37" s="21"/>
+      <c r="M37" s="21"/>
+      <c r="N37" s="21"/>
+      <c r="O37" s="21"/>
+      <c r="P37" s="21"/>
+      <c r="Q37" s="21"/>
+      <c r="R37" s="21"/>
+      <c r="S37" s="21"/>
+      <c r="T37" s="21"/>
+      <c r="U37" s="21"/>
+      <c r="V37" s="21"/>
+      <c r="W37" s="21"/>
+      <c r="X37" s="21"/>
+      <c r="Y37" s="21" t="s">
+        <v>325</v>
+      </c>
+      <c r="Z37" s="21" t="s">
+        <v>327</v>
+      </c>
+      <c r="AA37" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="AB37" s="22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A38" s="20" t="s">
+        <v>303</v>
+      </c>
+      <c r="B38" s="21" t="s">
+        <v>370</v>
+      </c>
+      <c r="C38" s="21" t="s">
+        <v>307</v>
+      </c>
+      <c r="D38" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="E38" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="F38" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="G38" s="21"/>
+      <c r="H38" s="21" t="s">
+        <v>341</v>
+      </c>
+      <c r="I38" s="21"/>
+      <c r="J38" s="21"/>
+      <c r="K38" s="21" t="s">
+        <v>329</v>
+      </c>
+      <c r="L38" s="21"/>
+      <c r="M38" s="21"/>
+      <c r="N38" s="21"/>
+      <c r="O38" s="21"/>
+      <c r="P38" s="21"/>
+      <c r="Q38" s="21"/>
+      <c r="R38" s="21"/>
+      <c r="S38" s="21"/>
+      <c r="T38" s="21"/>
+      <c r="U38" s="21"/>
+      <c r="V38" s="21"/>
+      <c r="W38" s="21"/>
+      <c r="X38" s="21"/>
+      <c r="Y38" s="21" t="s">
+        <v>325</v>
+      </c>
+      <c r="Z38" s="21" t="s">
+        <v>327</v>
+      </c>
+      <c r="AA38" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="AB38" s="22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A39" s="20" t="s">
+        <v>303</v>
+      </c>
+      <c r="B39" s="21" t="s">
+        <v>371</v>
+      </c>
+      <c r="C39" s="21" t="s">
+        <v>307</v>
+      </c>
+      <c r="D39" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="E39" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="F39" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="G39" s="21"/>
+      <c r="H39" s="21" t="s">
+        <v>341</v>
+      </c>
+      <c r="I39" s="21"/>
+      <c r="J39" s="21"/>
+      <c r="K39" s="21" t="s">
+        <v>329</v>
+      </c>
+      <c r="L39" s="21"/>
+      <c r="M39" s="21"/>
+      <c r="N39" s="21"/>
+      <c r="O39" s="21"/>
+      <c r="P39" s="21"/>
+      <c r="Q39" s="21"/>
+      <c r="R39" s="21"/>
+      <c r="S39" s="21"/>
+      <c r="T39" s="21"/>
+      <c r="U39" s="21"/>
+      <c r="V39" s="21"/>
+      <c r="W39" s="21"/>
+      <c r="X39" s="21"/>
+      <c r="Y39" s="21" t="s">
+        <v>325</v>
+      </c>
+      <c r="Z39" s="21" t="s">
+        <v>327</v>
+      </c>
+      <c r="AA39" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="AB39" s="22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A40" s="20" t="s">
+        <v>303</v>
+      </c>
+      <c r="B40" s="21" t="s">
+        <v>372</v>
+      </c>
+      <c r="C40" s="21" t="s">
+        <v>307</v>
+      </c>
+      <c r="D40" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="E40" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="F40" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="G40" s="21"/>
+      <c r="H40" s="21" t="s">
+        <v>341</v>
+      </c>
+      <c r="I40" s="21"/>
+      <c r="J40" s="21"/>
+      <c r="K40" s="21" t="s">
+        <v>329</v>
+      </c>
+      <c r="L40" s="21"/>
+      <c r="M40" s="21"/>
+      <c r="N40" s="21"/>
+      <c r="O40" s="21"/>
+      <c r="P40" s="21"/>
+      <c r="Q40" s="21"/>
+      <c r="R40" s="21"/>
+      <c r="S40" s="21"/>
+      <c r="T40" s="21"/>
+      <c r="U40" s="21"/>
+      <c r="V40" s="21"/>
+      <c r="W40" s="21"/>
+      <c r="X40" s="21"/>
+      <c r="Y40" s="21" t="s">
+        <v>325</v>
+      </c>
+      <c r="Z40" s="21" t="s">
+        <v>327</v>
+      </c>
+      <c r="AA40" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="AB40" s="22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="23" t="s">
+        <v>303</v>
+      </c>
+      <c r="B41" s="24" t="s">
+        <v>373</v>
+      </c>
+      <c r="C41" s="24" t="s">
+        <v>307</v>
+      </c>
+      <c r="D41" s="24" t="s">
+        <v>308</v>
+      </c>
+      <c r="E41" s="24" t="s">
+        <v>308</v>
+      </c>
+      <c r="F41" s="24" t="s">
+        <v>308</v>
+      </c>
+      <c r="G41" s="24"/>
+      <c r="H41" s="24" t="s">
+        <v>341</v>
+      </c>
+      <c r="I41" s="24"/>
+      <c r="J41" s="24"/>
+      <c r="K41" s="24" t="s">
+        <v>329</v>
+      </c>
+      <c r="L41" s="24"/>
+      <c r="M41" s="24"/>
+      <c r="N41" s="24"/>
+      <c r="O41" s="24"/>
+      <c r="P41" s="24"/>
+      <c r="Q41" s="24"/>
+      <c r="R41" s="24"/>
+      <c r="S41" s="24"/>
+      <c r="T41" s="24"/>
+      <c r="U41" s="24"/>
+      <c r="V41" s="24"/>
+      <c r="W41" s="24"/>
+      <c r="X41" s="24"/>
+      <c r="Y41" s="24" t="s">
+        <v>325</v>
+      </c>
+      <c r="Z41" s="24" t="s">
+        <v>327</v>
+      </c>
+      <c r="AA41" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="AB41" s="25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A42" s="17" t="s">
+        <v>303</v>
+      </c>
+      <c r="B42" s="18" t="s">
+        <v>374</v>
+      </c>
+      <c r="C42" s="18" t="s">
+        <v>307</v>
+      </c>
+      <c r="D42" s="18" t="s">
+        <v>308</v>
+      </c>
+      <c r="E42" s="18" t="s">
+        <v>308</v>
+      </c>
+      <c r="F42" s="18" t="s">
+        <v>308</v>
+      </c>
+      <c r="G42" s="18"/>
+      <c r="H42" s="18" t="s">
+        <v>342</v>
+      </c>
+      <c r="I42" s="18"/>
+      <c r="J42" s="18"/>
+      <c r="K42" s="18"/>
+      <c r="L42" s="18" t="s">
+        <v>330</v>
+      </c>
+      <c r="M42" s="18"/>
+      <c r="N42" s="18"/>
+      <c r="O42" s="18"/>
+      <c r="P42" s="18"/>
+      <c r="Q42" s="18"/>
+      <c r="R42" s="18"/>
+      <c r="S42" s="18"/>
+      <c r="T42" s="18"/>
+      <c r="U42" s="18"/>
+      <c r="V42" s="18"/>
+      <c r="W42" s="18"/>
+      <c r="X42" s="18"/>
+      <c r="Y42" s="18" t="s">
+        <v>325</v>
+      </c>
+      <c r="Z42" s="18" t="s">
+        <v>327</v>
+      </c>
+      <c r="AA42" s="18" t="s">
+        <v>263</v>
+      </c>
+      <c r="AB42" s="19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A43" s="20" t="s">
+        <v>303</v>
+      </c>
+      <c r="B43" s="21" t="s">
+        <v>375</v>
+      </c>
+      <c r="C43" s="21" t="s">
+        <v>307</v>
+      </c>
+      <c r="D43" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="E43" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="F43" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="G43" s="21"/>
+      <c r="H43" s="21" t="s">
+        <v>342</v>
+      </c>
+      <c r="I43" s="21"/>
+      <c r="J43" s="21"/>
+      <c r="K43" s="21"/>
+      <c r="L43" s="21" t="s">
+        <v>330</v>
+      </c>
+      <c r="M43" s="21"/>
+      <c r="N43" s="21"/>
+      <c r="O43" s="21"/>
+      <c r="P43" s="21"/>
+      <c r="Q43" s="21"/>
+      <c r="R43" s="21"/>
+      <c r="S43" s="21"/>
+      <c r="T43" s="21"/>
+      <c r="U43" s="21"/>
+      <c r="V43" s="21"/>
+      <c r="W43" s="21"/>
+      <c r="X43" s="21"/>
+      <c r="Y43" s="21" t="s">
+        <v>325</v>
+      </c>
+      <c r="Z43" s="21" t="s">
+        <v>327</v>
+      </c>
+      <c r="AA43" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="AB43" s="22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A44" s="20" t="s">
+        <v>303</v>
+      </c>
+      <c r="B44" s="21" t="s">
+        <v>376</v>
+      </c>
+      <c r="C44" s="21" t="s">
+        <v>307</v>
+      </c>
+      <c r="D44" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="E44" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="F44" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="G44" s="21"/>
+      <c r="H44" s="21" t="s">
+        <v>342</v>
+      </c>
+      <c r="I44" s="21"/>
+      <c r="J44" s="21"/>
+      <c r="K44" s="21"/>
+      <c r="L44" s="21" t="s">
+        <v>330</v>
+      </c>
+      <c r="M44" s="21"/>
+      <c r="N44" s="21"/>
+      <c r="O44" s="21"/>
+      <c r="P44" s="21"/>
+      <c r="Q44" s="21"/>
+      <c r="R44" s="21"/>
+      <c r="S44" s="21"/>
+      <c r="T44" s="21"/>
+      <c r="U44" s="21"/>
+      <c r="V44" s="21"/>
+      <c r="W44" s="21"/>
+      <c r="X44" s="21"/>
+      <c r="Y44" s="21" t="s">
+        <v>325</v>
+      </c>
+      <c r="Z44" s="21" t="s">
+        <v>327</v>
+      </c>
+      <c r="AA44" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="AB44" s="22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A45" s="20" t="s">
+        <v>303</v>
+      </c>
+      <c r="B45" s="21" t="s">
+        <v>377</v>
+      </c>
+      <c r="C45" s="21" t="s">
+        <v>307</v>
+      </c>
+      <c r="D45" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="E45" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="F45" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="G45" s="21"/>
+      <c r="H45" s="21" t="s">
+        <v>342</v>
+      </c>
+      <c r="I45" s="21"/>
+      <c r="J45" s="21"/>
+      <c r="K45" s="21"/>
+      <c r="L45" s="21" t="s">
+        <v>330</v>
+      </c>
+      <c r="M45" s="21"/>
+      <c r="N45" s="21"/>
+      <c r="O45" s="21"/>
+      <c r="P45" s="21"/>
+      <c r="Q45" s="21"/>
+      <c r="R45" s="21"/>
+      <c r="S45" s="21"/>
+      <c r="T45" s="21"/>
+      <c r="U45" s="21"/>
+      <c r="V45" s="21"/>
+      <c r="W45" s="21"/>
+      <c r="X45" s="21"/>
+      <c r="Y45" s="21" t="s">
+        <v>325</v>
+      </c>
+      <c r="Z45" s="21" t="s">
+        <v>327</v>
+      </c>
+      <c r="AA45" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="AB45" s="22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A46" s="20" t="s">
+        <v>303</v>
+      </c>
+      <c r="B46" s="21" t="s">
+        <v>378</v>
+      </c>
+      <c r="C46" s="21" t="s">
+        <v>307</v>
+      </c>
+      <c r="D46" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="E46" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="F46" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="G46" s="21"/>
+      <c r="H46" s="21" t="s">
+        <v>342</v>
+      </c>
+      <c r="I46" s="21"/>
+      <c r="J46" s="21"/>
+      <c r="K46" s="21"/>
+      <c r="L46" s="21" t="s">
+        <v>330</v>
+      </c>
+      <c r="M46" s="21"/>
+      <c r="N46" s="21"/>
+      <c r="O46" s="21"/>
+      <c r="P46" s="21"/>
+      <c r="Q46" s="21"/>
+      <c r="R46" s="21"/>
+      <c r="S46" s="21"/>
+      <c r="T46" s="21"/>
+      <c r="U46" s="21"/>
+      <c r="V46" s="21"/>
+      <c r="W46" s="21"/>
+      <c r="X46" s="21"/>
+      <c r="Y46" s="21" t="s">
+        <v>325</v>
+      </c>
+      <c r="Z46" s="21" t="s">
+        <v>327</v>
+      </c>
+      <c r="AA46" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="AB46" s="22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A47" s="20" t="s">
+        <v>303</v>
+      </c>
+      <c r="B47" s="21" t="s">
+        <v>379</v>
+      </c>
+      <c r="C47" s="21" t="s">
+        <v>307</v>
+      </c>
+      <c r="D47" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="E47" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="F47" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="G47" s="21"/>
+      <c r="H47" s="21" t="s">
+        <v>342</v>
+      </c>
+      <c r="I47" s="21"/>
+      <c r="J47" s="21"/>
+      <c r="K47" s="21"/>
+      <c r="L47" s="21" t="s">
+        <v>330</v>
+      </c>
+      <c r="M47" s="21"/>
+      <c r="N47" s="21"/>
+      <c r="O47" s="21"/>
+      <c r="P47" s="21"/>
+      <c r="Q47" s="21"/>
+      <c r="R47" s="21"/>
+      <c r="S47" s="21"/>
+      <c r="T47" s="21"/>
+      <c r="U47" s="21"/>
+      <c r="V47" s="21"/>
+      <c r="W47" s="21"/>
+      <c r="X47" s="21"/>
+      <c r="Y47" s="21" t="s">
+        <v>325</v>
+      </c>
+      <c r="Z47" s="21" t="s">
+        <v>327</v>
+      </c>
+      <c r="AA47" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="AB47" s="22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A48" s="20" t="s">
+        <v>303</v>
+      </c>
+      <c r="B48" s="21" t="s">
+        <v>380</v>
+      </c>
+      <c r="C48" s="21" t="s">
+        <v>307</v>
+      </c>
+      <c r="D48" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="E48" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="F48" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="G48" s="21"/>
+      <c r="H48" s="21" t="s">
+        <v>342</v>
+      </c>
+      <c r="I48" s="21"/>
+      <c r="J48" s="21"/>
+      <c r="K48" s="21"/>
+      <c r="L48" s="21" t="s">
+        <v>330</v>
+      </c>
+      <c r="M48" s="21"/>
+      <c r="N48" s="21"/>
+      <c r="O48" s="21"/>
+      <c r="P48" s="21"/>
+      <c r="Q48" s="21"/>
+      <c r="R48" s="21"/>
+      <c r="S48" s="21"/>
+      <c r="T48" s="21"/>
+      <c r="U48" s="21"/>
+      <c r="V48" s="21"/>
+      <c r="W48" s="21"/>
+      <c r="X48" s="21"/>
+      <c r="Y48" s="21" t="s">
+        <v>325</v>
+      </c>
+      <c r="Z48" s="21" t="s">
+        <v>327</v>
+      </c>
+      <c r="AA48" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="AB48" s="22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A49" s="20" t="s">
+        <v>303</v>
+      </c>
+      <c r="B49" s="21" t="s">
+        <v>381</v>
+      </c>
+      <c r="C49" s="21" t="s">
+        <v>307</v>
+      </c>
+      <c r="D49" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="E49" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="F49" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="G49" s="21"/>
+      <c r="H49" s="21" t="s">
+        <v>342</v>
+      </c>
+      <c r="I49" s="21"/>
+      <c r="J49" s="21"/>
+      <c r="K49" s="21"/>
+      <c r="L49" s="21" t="s">
+        <v>330</v>
+      </c>
+      <c r="M49" s="21"/>
+      <c r="N49" s="21"/>
+      <c r="O49" s="21"/>
+      <c r="P49" s="21"/>
+      <c r="Q49" s="21"/>
+      <c r="R49" s="21"/>
+      <c r="S49" s="21"/>
+      <c r="T49" s="21"/>
+      <c r="U49" s="21"/>
+      <c r="V49" s="21"/>
+      <c r="W49" s="21"/>
+      <c r="X49" s="21"/>
+      <c r="Y49" s="21" t="s">
+        <v>325</v>
+      </c>
+      <c r="Z49" s="21" t="s">
+        <v>327</v>
+      </c>
+      <c r="AA49" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="AB49" s="22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A50" s="20" t="s">
+        <v>303</v>
+      </c>
+      <c r="B50" s="21" t="s">
+        <v>382</v>
+      </c>
+      <c r="C50" s="21" t="s">
+        <v>307</v>
+      </c>
+      <c r="D50" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="E50" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="F50" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="G50" s="21"/>
+      <c r="H50" s="21" t="s">
+        <v>342</v>
+      </c>
+      <c r="I50" s="21"/>
+      <c r="J50" s="21"/>
+      <c r="K50" s="21"/>
+      <c r="L50" s="21" t="s">
+        <v>330</v>
+      </c>
+      <c r="M50" s="21"/>
+      <c r="N50" s="21"/>
+      <c r="O50" s="21"/>
+      <c r="P50" s="21"/>
+      <c r="Q50" s="21"/>
+      <c r="R50" s="21"/>
+      <c r="S50" s="21"/>
+      <c r="T50" s="21"/>
+      <c r="U50" s="21"/>
+      <c r="V50" s="21"/>
+      <c r="W50" s="21"/>
+      <c r="X50" s="21"/>
+      <c r="Y50" s="21" t="s">
+        <v>325</v>
+      </c>
+      <c r="Z50" s="21" t="s">
+        <v>327</v>
+      </c>
+      <c r="AA50" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="AB50" s="22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="23" t="s">
+        <v>303</v>
+      </c>
+      <c r="B51" s="24" t="s">
+        <v>383</v>
+      </c>
+      <c r="C51" s="24" t="s">
+        <v>307</v>
+      </c>
+      <c r="D51" s="24" t="s">
+        <v>308</v>
+      </c>
+      <c r="E51" s="24" t="s">
+        <v>308</v>
+      </c>
+      <c r="F51" s="24" t="s">
+        <v>308</v>
+      </c>
+      <c r="G51" s="24"/>
+      <c r="H51" s="24" t="s">
+        <v>342</v>
+      </c>
+      <c r="I51" s="24"/>
+      <c r="J51" s="24"/>
+      <c r="K51" s="24"/>
+      <c r="L51" s="24" t="s">
+        <v>330</v>
+      </c>
+      <c r="M51" s="24"/>
+      <c r="N51" s="24"/>
+      <c r="O51" s="24"/>
+      <c r="P51" s="24"/>
+      <c r="Q51" s="24"/>
+      <c r="R51" s="24"/>
+      <c r="S51" s="24"/>
+      <c r="T51" s="24"/>
+      <c r="U51" s="24"/>
+      <c r="V51" s="24"/>
+      <c r="W51" s="24"/>
+      <c r="X51" s="24"/>
+      <c r="Y51" s="24" t="s">
+        <v>325</v>
+      </c>
+      <c r="Z51" s="24" t="s">
+        <v>327</v>
+      </c>
+      <c r="AA51" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="AB51" s="25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A52" s="17" t="s">
+        <v>303</v>
+      </c>
+      <c r="B52" s="18" t="s">
+        <v>384</v>
+      </c>
+      <c r="C52" s="18" t="s">
+        <v>307</v>
+      </c>
+      <c r="D52" s="18" t="s">
+        <v>308</v>
+      </c>
+      <c r="E52" s="18" t="s">
+        <v>308</v>
+      </c>
+      <c r="F52" s="18" t="s">
+        <v>308</v>
+      </c>
+      <c r="G52" s="18"/>
+      <c r="H52" s="27" t="s">
+        <v>353</v>
+      </c>
+      <c r="I52" s="18"/>
+      <c r="J52" s="18" t="s">
+        <v>404</v>
+      </c>
+      <c r="K52" s="18" t="s">
+        <v>329</v>
+      </c>
+      <c r="L52" s="27" t="s">
+        <v>406</v>
+      </c>
+      <c r="M52" s="18" t="s">
+        <v>321</v>
+      </c>
+      <c r="N52" s="18"/>
+      <c r="O52" s="18" t="s">
+        <v>322</v>
+      </c>
+      <c r="P52" s="18" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q52" s="18">
+        <v>20</v>
+      </c>
+      <c r="R52" s="18" t="s">
+        <v>416</v>
+      </c>
+      <c r="S52" s="18" t="s">
+        <v>320</v>
+      </c>
+      <c r="T52" s="18" t="s">
+        <v>417</v>
+      </c>
+      <c r="U52" s="18" t="s">
+        <v>418</v>
+      </c>
+      <c r="V52" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="W52" s="18">
+        <v>1</v>
+      </c>
+      <c r="X52" s="18"/>
+      <c r="Y52" s="18" t="s">
+        <v>325</v>
+      </c>
+      <c r="Z52" s="18" t="s">
+        <v>327</v>
+      </c>
+      <c r="AA52" s="18" t="s">
+        <v>263</v>
+      </c>
+      <c r="AB52" s="19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A53" s="20" t="s">
+        <v>303</v>
+      </c>
+      <c r="B53" s="21" t="s">
+        <v>385</v>
+      </c>
+      <c r="C53" s="21" t="s">
+        <v>307</v>
+      </c>
+      <c r="D53" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="E53" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="F53" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="G53" s="21"/>
+      <c r="H53" s="26" t="s">
+        <v>353</v>
+      </c>
+      <c r="I53" s="21"/>
+      <c r="J53" s="21" t="s">
+        <v>404</v>
+      </c>
+      <c r="K53" s="21" t="s">
+        <v>329</v>
+      </c>
+      <c r="L53" s="26" t="s">
+        <v>406</v>
+      </c>
+      <c r="M53" s="21" t="s">
+        <v>321</v>
+      </c>
+      <c r="N53" s="21"/>
+      <c r="O53" s="21" t="s">
+        <v>322</v>
+      </c>
+      <c r="P53" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q53" s="21">
+        <v>20</v>
+      </c>
+      <c r="R53" s="21" t="s">
+        <v>416</v>
+      </c>
+      <c r="S53" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="T53" s="21" t="s">
+        <v>417</v>
+      </c>
+      <c r="U53" s="21" t="s">
+        <v>418</v>
+      </c>
+      <c r="V53" s="21" t="s">
+        <v>419</v>
+      </c>
+      <c r="W53" s="21">
+        <v>1</v>
+      </c>
+      <c r="X53" s="21"/>
+      <c r="Y53" s="21" t="s">
+        <v>325</v>
+      </c>
+      <c r="Z53" s="21" t="s">
+        <v>327</v>
+      </c>
+      <c r="AA53" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="AB53" s="22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A54" s="20" t="s">
+        <v>303</v>
+      </c>
+      <c r="B54" s="21" t="s">
+        <v>386</v>
+      </c>
+      <c r="C54" s="21" t="s">
+        <v>307</v>
+      </c>
+      <c r="D54" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="E54" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="F54" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="G54" s="21"/>
+      <c r="H54" s="26" t="s">
+        <v>353</v>
+      </c>
+      <c r="I54" s="21"/>
+      <c r="J54" s="21" t="s">
+        <v>404</v>
+      </c>
+      <c r="K54" s="21" t="s">
+        <v>329</v>
+      </c>
+      <c r="L54" s="26" t="s">
+        <v>406</v>
+      </c>
+      <c r="M54" s="21" t="s">
+        <v>321</v>
+      </c>
+      <c r="N54" s="21"/>
+      <c r="O54" s="21" t="s">
+        <v>322</v>
+      </c>
+      <c r="P54" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q54" s="21">
+        <v>20</v>
+      </c>
+      <c r="R54" s="21" t="s">
+        <v>416</v>
+      </c>
+      <c r="S54" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="T54" s="21" t="s">
+        <v>417</v>
+      </c>
+      <c r="U54" s="21" t="s">
+        <v>418</v>
+      </c>
+      <c r="V54" s="21" t="s">
+        <v>419</v>
+      </c>
+      <c r="W54" s="21">
+        <v>1</v>
+      </c>
+      <c r="X54" s="21"/>
+      <c r="Y54" s="21" t="s">
+        <v>325</v>
+      </c>
+      <c r="Z54" s="21" t="s">
+        <v>327</v>
+      </c>
+      <c r="AA54" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="AB54" s="22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A55" s="20" t="s">
+        <v>303</v>
+      </c>
+      <c r="B55" s="21" t="s">
+        <v>387</v>
+      </c>
+      <c r="C55" s="21" t="s">
+        <v>307</v>
+      </c>
+      <c r="D55" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="E55" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="F55" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="G55" s="21"/>
+      <c r="H55" s="26" t="s">
+        <v>353</v>
+      </c>
+      <c r="I55" s="21"/>
+      <c r="J55" s="21" t="s">
+        <v>404</v>
+      </c>
+      <c r="K55" s="21" t="s">
+        <v>329</v>
+      </c>
+      <c r="L55" s="26" t="s">
+        <v>406</v>
+      </c>
+      <c r="M55" s="21" t="s">
+        <v>321</v>
+      </c>
+      <c r="N55" s="21"/>
+      <c r="O55" s="21" t="s">
+        <v>322</v>
+      </c>
+      <c r="P55" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q55" s="21">
+        <v>20</v>
+      </c>
+      <c r="R55" s="21" t="s">
+        <v>416</v>
+      </c>
+      <c r="S55" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="T55" s="21" t="s">
+        <v>417</v>
+      </c>
+      <c r="U55" s="21" t="s">
+        <v>418</v>
+      </c>
+      <c r="V55" s="21" t="s">
+        <v>419</v>
+      </c>
+      <c r="W55" s="21">
+        <v>1</v>
+      </c>
+      <c r="X55" s="21"/>
+      <c r="Y55" s="21" t="s">
+        <v>325</v>
+      </c>
+      <c r="Z55" s="21" t="s">
+        <v>327</v>
+      </c>
+      <c r="AA55" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="AB55" s="22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A56" s="20" t="s">
+        <v>303</v>
+      </c>
+      <c r="B56" s="21" t="s">
+        <v>388</v>
+      </c>
+      <c r="C56" s="21" t="s">
+        <v>307</v>
+      </c>
+      <c r="D56" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="E56" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="F56" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="G56" s="21"/>
+      <c r="H56" s="26" t="s">
+        <v>353</v>
+      </c>
+      <c r="I56" s="21"/>
+      <c r="J56" s="21" t="s">
+        <v>404</v>
+      </c>
+      <c r="K56" s="21" t="s">
+        <v>329</v>
+      </c>
+      <c r="L56" s="26" t="s">
+        <v>406</v>
+      </c>
+      <c r="M56" s="21" t="s">
+        <v>321</v>
+      </c>
+      <c r="N56" s="21"/>
+      <c r="O56" s="21" t="s">
+        <v>322</v>
+      </c>
+      <c r="P56" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q56" s="21">
+        <v>20</v>
+      </c>
+      <c r="R56" s="21" t="s">
+        <v>416</v>
+      </c>
+      <c r="S56" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="T56" s="21" t="s">
+        <v>417</v>
+      </c>
+      <c r="U56" s="21" t="s">
+        <v>418</v>
+      </c>
+      <c r="V56" s="21" t="s">
+        <v>419</v>
+      </c>
+      <c r="W56" s="21">
+        <v>1</v>
+      </c>
+      <c r="X56" s="21"/>
+      <c r="Y56" s="21" t="s">
+        <v>325</v>
+      </c>
+      <c r="Z56" s="21" t="s">
+        <v>327</v>
+      </c>
+      <c r="AA56" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="AB56" s="22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A57" s="20" t="s">
+        <v>303</v>
+      </c>
+      <c r="B57" s="21" t="s">
+        <v>389</v>
+      </c>
+      <c r="C57" s="21" t="s">
+        <v>307</v>
+      </c>
+      <c r="D57" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="E57" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="F57" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="G57" s="21"/>
+      <c r="H57" s="26" t="s">
+        <v>353</v>
+      </c>
+      <c r="I57" s="21"/>
+      <c r="J57" s="21" t="s">
+        <v>404</v>
+      </c>
+      <c r="K57" s="21" t="s">
+        <v>329</v>
+      </c>
+      <c r="L57" s="26" t="s">
+        <v>406</v>
+      </c>
+      <c r="M57" s="21" t="s">
+        <v>321</v>
+      </c>
+      <c r="N57" s="21"/>
+      <c r="O57" s="21" t="s">
+        <v>322</v>
+      </c>
+      <c r="P57" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q57" s="21">
+        <v>20</v>
+      </c>
+      <c r="R57" s="21" t="s">
+        <v>416</v>
+      </c>
+      <c r="S57" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="T57" s="21" t="s">
+        <v>417</v>
+      </c>
+      <c r="U57" s="21" t="s">
+        <v>418</v>
+      </c>
+      <c r="V57" s="21" t="s">
+        <v>419</v>
+      </c>
+      <c r="W57" s="21">
+        <v>1</v>
+      </c>
+      <c r="X57" s="21"/>
+      <c r="Y57" s="21" t="s">
+        <v>325</v>
+      </c>
+      <c r="Z57" s="21" t="s">
+        <v>327</v>
+      </c>
+      <c r="AA57" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="AB57" s="22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A58" s="20" t="s">
+        <v>303</v>
+      </c>
+      <c r="B58" s="21" t="s">
+        <v>390</v>
+      </c>
+      <c r="C58" s="21" t="s">
+        <v>307</v>
+      </c>
+      <c r="D58" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="E58" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="F58" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="G58" s="21"/>
+      <c r="H58" s="26" t="s">
+        <v>353</v>
+      </c>
+      <c r="I58" s="21"/>
+      <c r="J58" s="21" t="s">
+        <v>404</v>
+      </c>
+      <c r="K58" s="21" t="s">
+        <v>329</v>
+      </c>
+      <c r="L58" s="26" t="s">
+        <v>406</v>
+      </c>
+      <c r="M58" s="21" t="s">
+        <v>321</v>
+      </c>
+      <c r="N58" s="21"/>
+      <c r="O58" s="21" t="s">
+        <v>322</v>
+      </c>
+      <c r="P58" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q58" s="21">
+        <v>20</v>
+      </c>
+      <c r="R58" s="21" t="s">
+        <v>416</v>
+      </c>
+      <c r="S58" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="T58" s="21" t="s">
+        <v>417</v>
+      </c>
+      <c r="U58" s="21" t="s">
+        <v>418</v>
+      </c>
+      <c r="V58" s="21" t="s">
+        <v>419</v>
+      </c>
+      <c r="W58" s="21">
+        <v>1</v>
+      </c>
+      <c r="X58" s="21"/>
+      <c r="Y58" s="21" t="s">
+        <v>325</v>
+      </c>
+      <c r="Z58" s="21" t="s">
+        <v>327</v>
+      </c>
+      <c r="AA58" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="AB58" s="22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A59" s="20" t="s">
+        <v>303</v>
+      </c>
+      <c r="B59" s="21" t="s">
+        <v>391</v>
+      </c>
+      <c r="C59" s="21" t="s">
+        <v>307</v>
+      </c>
+      <c r="D59" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="E59" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="F59" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="G59" s="21"/>
+      <c r="H59" s="26" t="s">
+        <v>353</v>
+      </c>
+      <c r="I59" s="21"/>
+      <c r="J59" s="21" t="s">
+        <v>404</v>
+      </c>
+      <c r="K59" s="21" t="s">
+        <v>329</v>
+      </c>
+      <c r="L59" s="26" t="s">
+        <v>406</v>
+      </c>
+      <c r="M59" s="21" t="s">
+        <v>321</v>
+      </c>
+      <c r="N59" s="21"/>
+      <c r="O59" s="21" t="s">
+        <v>322</v>
+      </c>
+      <c r="P59" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q59" s="21">
+        <v>20</v>
+      </c>
+      <c r="R59" s="21" t="s">
+        <v>416</v>
+      </c>
+      <c r="S59" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="T59" s="21" t="s">
+        <v>417</v>
+      </c>
+      <c r="U59" s="21" t="s">
+        <v>418</v>
+      </c>
+      <c r="V59" s="21" t="s">
+        <v>419</v>
+      </c>
+      <c r="W59" s="21">
+        <v>1</v>
+      </c>
+      <c r="X59" s="21"/>
+      <c r="Y59" s="21" t="s">
+        <v>325</v>
+      </c>
+      <c r="Z59" s="21" t="s">
+        <v>327</v>
+      </c>
+      <c r="AA59" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="AB59" s="22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A60" s="20" t="s">
+        <v>303</v>
+      </c>
+      <c r="B60" s="21" t="s">
+        <v>392</v>
+      </c>
+      <c r="C60" s="21" t="s">
+        <v>307</v>
+      </c>
+      <c r="D60" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="E60" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="F60" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="G60" s="21"/>
+      <c r="H60" s="26" t="s">
+        <v>353</v>
+      </c>
+      <c r="I60" s="21"/>
+      <c r="J60" s="21" t="s">
+        <v>404</v>
+      </c>
+      <c r="K60" s="21" t="s">
+        <v>329</v>
+      </c>
+      <c r="L60" s="26" t="s">
+        <v>406</v>
+      </c>
+      <c r="M60" s="21" t="s">
+        <v>321</v>
+      </c>
+      <c r="N60" s="21"/>
+      <c r="O60" s="21" t="s">
+        <v>322</v>
+      </c>
+      <c r="P60" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q60" s="21">
+        <v>20</v>
+      </c>
+      <c r="R60" s="21" t="s">
+        <v>416</v>
+      </c>
+      <c r="S60" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="T60" s="21" t="s">
+        <v>417</v>
+      </c>
+      <c r="U60" s="21" t="s">
+        <v>418</v>
+      </c>
+      <c r="V60" s="21" t="s">
+        <v>419</v>
+      </c>
+      <c r="W60" s="21">
+        <v>1</v>
+      </c>
+      <c r="X60" s="21"/>
+      <c r="Y60" s="21" t="s">
+        <v>325</v>
+      </c>
+      <c r="Z60" s="21" t="s">
+        <v>327</v>
+      </c>
+      <c r="AA60" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="AB60" s="22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A61" s="20" t="s">
+        <v>303</v>
+      </c>
+      <c r="B61" s="21" t="s">
+        <v>393</v>
+      </c>
+      <c r="C61" s="21" t="s">
+        <v>307</v>
+      </c>
+      <c r="D61" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="E61" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="F61" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="G61" s="21"/>
+      <c r="H61" s="26" t="s">
+        <v>353</v>
+      </c>
+      <c r="I61" s="21"/>
+      <c r="J61" s="21" t="s">
+        <v>404</v>
+      </c>
+      <c r="K61" s="21" t="s">
+        <v>329</v>
+      </c>
+      <c r="L61" s="26" t="s">
+        <v>406</v>
+      </c>
+      <c r="M61" s="21" t="s">
+        <v>321</v>
+      </c>
+      <c r="N61" s="21"/>
+      <c r="O61" s="21" t="s">
+        <v>322</v>
+      </c>
+      <c r="P61" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q61" s="21">
+        <v>20</v>
+      </c>
+      <c r="R61" s="21" t="s">
+        <v>416</v>
+      </c>
+      <c r="S61" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="T61" s="21" t="s">
+        <v>417</v>
+      </c>
+      <c r="U61" s="21" t="s">
+        <v>418</v>
+      </c>
+      <c r="V61" s="21" t="s">
+        <v>419</v>
+      </c>
+      <c r="W61" s="21">
+        <v>1</v>
+      </c>
+      <c r="X61" s="21"/>
+      <c r="Y61" s="21" t="s">
+        <v>325</v>
+      </c>
+      <c r="Z61" s="21" t="s">
+        <v>327</v>
+      </c>
+      <c r="AA61" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="AB61" s="22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A62" s="20" t="s">
+        <v>303</v>
+      </c>
+      <c r="B62" s="21" t="s">
+        <v>394</v>
+      </c>
+      <c r="C62" s="21" t="s">
+        <v>307</v>
+      </c>
+      <c r="D62" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="E62" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="F62" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="G62" s="21"/>
+      <c r="H62" s="26" t="s">
+        <v>353</v>
+      </c>
+      <c r="I62" s="21"/>
+      <c r="J62" s="21" t="s">
+        <v>404</v>
+      </c>
+      <c r="K62" s="21" t="s">
+        <v>329</v>
+      </c>
+      <c r="L62" s="26" t="s">
+        <v>406</v>
+      </c>
+      <c r="M62" s="21" t="s">
+        <v>321</v>
+      </c>
+      <c r="N62" s="21"/>
+      <c r="O62" s="21" t="s">
+        <v>322</v>
+      </c>
+      <c r="P62" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q62" s="21">
+        <v>20</v>
+      </c>
+      <c r="R62" s="21" t="s">
+        <v>416</v>
+      </c>
+      <c r="S62" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="T62" s="21" t="s">
+        <v>417</v>
+      </c>
+      <c r="U62" s="21" t="s">
+        <v>418</v>
+      </c>
+      <c r="V62" s="21" t="s">
+        <v>419</v>
+      </c>
+      <c r="W62" s="21">
+        <v>1</v>
+      </c>
+      <c r="X62" s="21"/>
+      <c r="Y62" s="21" t="s">
+        <v>325</v>
+      </c>
+      <c r="Z62" s="21" t="s">
+        <v>327</v>
+      </c>
+      <c r="AA62" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="AB62" s="22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A63" s="20" t="s">
+        <v>303</v>
+      </c>
+      <c r="B63" s="21" t="s">
+        <v>395</v>
+      </c>
+      <c r="C63" s="21" t="s">
+        <v>307</v>
+      </c>
+      <c r="D63" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="E63" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="F63" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="G63" s="21"/>
+      <c r="H63" s="26" t="s">
+        <v>353</v>
+      </c>
+      <c r="I63" s="21"/>
+      <c r="J63" s="21" t="s">
+        <v>404</v>
+      </c>
+      <c r="K63" s="21" t="s">
+        <v>329</v>
+      </c>
+      <c r="L63" s="26" t="s">
+        <v>406</v>
+      </c>
+      <c r="M63" s="21" t="s">
+        <v>321</v>
+      </c>
+      <c r="N63" s="21"/>
+      <c r="O63" s="21" t="s">
+        <v>322</v>
+      </c>
+      <c r="P63" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q63" s="21">
+        <v>20</v>
+      </c>
+      <c r="R63" s="21" t="s">
+        <v>416</v>
+      </c>
+      <c r="S63" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="T63" s="21" t="s">
+        <v>417</v>
+      </c>
+      <c r="U63" s="21" t="s">
+        <v>418</v>
+      </c>
+      <c r="V63" s="21" t="s">
+        <v>419</v>
+      </c>
+      <c r="W63" s="21">
+        <v>1</v>
+      </c>
+      <c r="X63" s="21"/>
+      <c r="Y63" s="21" t="s">
+        <v>325</v>
+      </c>
+      <c r="Z63" s="21" t="s">
+        <v>327</v>
+      </c>
+      <c r="AA63" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="AB63" s="22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A64" s="20" t="s">
+        <v>303</v>
+      </c>
+      <c r="B64" s="21" t="s">
+        <v>396</v>
+      </c>
+      <c r="C64" s="21" t="s">
+        <v>307</v>
+      </c>
+      <c r="D64" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="E64" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="F64" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="G64" s="21"/>
+      <c r="H64" s="26" t="s">
+        <v>353</v>
+      </c>
+      <c r="I64" s="21"/>
+      <c r="J64" s="21" t="s">
+        <v>404</v>
+      </c>
+      <c r="K64" s="21" t="s">
+        <v>329</v>
+      </c>
+      <c r="L64" s="26" t="s">
+        <v>406</v>
+      </c>
+      <c r="M64" s="21" t="s">
+        <v>321</v>
+      </c>
+      <c r="N64" s="21"/>
+      <c r="O64" s="21" t="s">
+        <v>322</v>
+      </c>
+      <c r="P64" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q64" s="21">
+        <v>20</v>
+      </c>
+      <c r="R64" s="21" t="s">
+        <v>416</v>
+      </c>
+      <c r="S64" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="T64" s="21" t="s">
+        <v>417</v>
+      </c>
+      <c r="U64" s="21" t="s">
+        <v>418</v>
+      </c>
+      <c r="V64" s="21" t="s">
+        <v>419</v>
+      </c>
+      <c r="W64" s="21">
+        <v>1</v>
+      </c>
+      <c r="X64" s="21"/>
+      <c r="Y64" s="21" t="s">
+        <v>325</v>
+      </c>
+      <c r="Z64" s="21" t="s">
+        <v>327</v>
+      </c>
+      <c r="AA64" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="AB64" s="22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A65" s="20" t="s">
+        <v>303</v>
+      </c>
+      <c r="B65" s="21" t="s">
+        <v>397</v>
+      </c>
+      <c r="C65" s="21" t="s">
+        <v>307</v>
+      </c>
+      <c r="D65" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="E65" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="F65" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="G65" s="21"/>
+      <c r="H65" s="26" t="s">
+        <v>353</v>
+      </c>
+      <c r="I65" s="21"/>
+      <c r="J65" s="21" t="s">
+        <v>404</v>
+      </c>
+      <c r="K65" s="21" t="s">
+        <v>329</v>
+      </c>
+      <c r="L65" s="26" t="s">
+        <v>406</v>
+      </c>
+      <c r="M65" s="21" t="s">
+        <v>321</v>
+      </c>
+      <c r="N65" s="21"/>
+      <c r="O65" s="21" t="s">
+        <v>322</v>
+      </c>
+      <c r="P65" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q65" s="21">
+        <v>20</v>
+      </c>
+      <c r="R65" s="21" t="s">
+        <v>416</v>
+      </c>
+      <c r="S65" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="T65" s="21" t="s">
+        <v>417</v>
+      </c>
+      <c r="U65" s="21" t="s">
+        <v>418</v>
+      </c>
+      <c r="V65" s="21" t="s">
+        <v>419</v>
+      </c>
+      <c r="W65" s="21">
+        <v>1</v>
+      </c>
+      <c r="X65" s="21"/>
+      <c r="Y65" s="21" t="s">
+        <v>325</v>
+      </c>
+      <c r="Z65" s="21" t="s">
+        <v>327</v>
+      </c>
+      <c r="AA65" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="AB65" s="22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A66" s="20" t="s">
+        <v>303</v>
+      </c>
+      <c r="B66" s="21" t="s">
+        <v>398</v>
+      </c>
+      <c r="C66" s="21" t="s">
+        <v>307</v>
+      </c>
+      <c r="D66" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="E66" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="F66" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="G66" s="21"/>
+      <c r="H66" s="26" t="s">
+        <v>353</v>
+      </c>
+      <c r="I66" s="21"/>
+      <c r="J66" s="21" t="s">
+        <v>404</v>
+      </c>
+      <c r="K66" s="21" t="s">
+        <v>329</v>
+      </c>
+      <c r="L66" s="26" t="s">
+        <v>406</v>
+      </c>
+      <c r="M66" s="21" t="s">
+        <v>321</v>
+      </c>
+      <c r="N66" s="21"/>
+      <c r="O66" s="21" t="s">
+        <v>322</v>
+      </c>
+      <c r="P66" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q66" s="21">
+        <v>20</v>
+      </c>
+      <c r="R66" s="21" t="s">
+        <v>416</v>
+      </c>
+      <c r="S66" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="T66" s="21" t="s">
+        <v>417</v>
+      </c>
+      <c r="U66" s="21" t="s">
+        <v>418</v>
+      </c>
+      <c r="V66" s="21" t="s">
+        <v>419</v>
+      </c>
+      <c r="W66" s="21">
+        <v>1</v>
+      </c>
+      <c r="X66" s="21"/>
+      <c r="Y66" s="21" t="s">
+        <v>325</v>
+      </c>
+      <c r="Z66" s="21" t="s">
+        <v>327</v>
+      </c>
+      <c r="AA66" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="AB66" s="22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A67" s="20" t="s">
+        <v>303</v>
+      </c>
+      <c r="B67" s="21" t="s">
+        <v>399</v>
+      </c>
+      <c r="C67" s="21" t="s">
+        <v>307</v>
+      </c>
+      <c r="D67" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="E67" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="F67" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="G67" s="21"/>
+      <c r="H67" s="26" t="s">
+        <v>353</v>
+      </c>
+      <c r="I67" s="21"/>
+      <c r="J67" s="21" t="s">
+        <v>404</v>
+      </c>
+      <c r="K67" s="21" t="s">
+        <v>329</v>
+      </c>
+      <c r="L67" s="26" t="s">
+        <v>406</v>
+      </c>
+      <c r="M67" s="21" t="s">
+        <v>321</v>
+      </c>
+      <c r="N67" s="21"/>
+      <c r="O67" s="21" t="s">
+        <v>322</v>
+      </c>
+      <c r="P67" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q67" s="21">
+        <v>20</v>
+      </c>
+      <c r="R67" s="21" t="s">
+        <v>416</v>
+      </c>
+      <c r="S67" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="T67" s="21" t="s">
+        <v>417</v>
+      </c>
+      <c r="U67" s="21" t="s">
+        <v>418</v>
+      </c>
+      <c r="V67" s="21" t="s">
+        <v>419</v>
+      </c>
+      <c r="W67" s="21">
+        <v>1</v>
+      </c>
+      <c r="X67" s="21"/>
+      <c r="Y67" s="21" t="s">
+        <v>325</v>
+      </c>
+      <c r="Z67" s="21" t="s">
+        <v>327</v>
+      </c>
+      <c r="AA67" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="AB67" s="22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A68" s="20" t="s">
+        <v>303</v>
+      </c>
+      <c r="B68" s="21" t="s">
+        <v>400</v>
+      </c>
+      <c r="C68" s="21" t="s">
+        <v>307</v>
+      </c>
+      <c r="D68" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="E68" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="F68" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="G68" s="21"/>
+      <c r="H68" s="26" t="s">
+        <v>353</v>
+      </c>
+      <c r="I68" s="21"/>
+      <c r="J68" s="21" t="s">
+        <v>404</v>
+      </c>
+      <c r="K68" s="21" t="s">
+        <v>329</v>
+      </c>
+      <c r="L68" s="26" t="s">
+        <v>406</v>
+      </c>
+      <c r="M68" s="21" t="s">
+        <v>321</v>
+      </c>
+      <c r="N68" s="21"/>
+      <c r="O68" s="21" t="s">
+        <v>322</v>
+      </c>
+      <c r="P68" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q68" s="21">
+        <v>20</v>
+      </c>
+      <c r="R68" s="21" t="s">
+        <v>416</v>
+      </c>
+      <c r="S68" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="T68" s="21" t="s">
+        <v>417</v>
+      </c>
+      <c r="U68" s="21" t="s">
+        <v>418</v>
+      </c>
+      <c r="V68" s="21" t="s">
+        <v>419</v>
+      </c>
+      <c r="W68" s="21">
+        <v>1</v>
+      </c>
+      <c r="X68" s="21"/>
+      <c r="Y68" s="21" t="s">
+        <v>325</v>
+      </c>
+      <c r="Z68" s="21" t="s">
+        <v>327</v>
+      </c>
+      <c r="AA68" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="AB68" s="22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A69" s="20" t="s">
+        <v>303</v>
+      </c>
+      <c r="B69" s="21" t="s">
+        <v>401</v>
+      </c>
+      <c r="C69" s="21" t="s">
+        <v>307</v>
+      </c>
+      <c r="D69" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="E69" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="F69" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="G69" s="21"/>
+      <c r="H69" s="26" t="s">
+        <v>353</v>
+      </c>
+      <c r="I69" s="21"/>
+      <c r="J69" s="21" t="s">
+        <v>404</v>
+      </c>
+      <c r="K69" s="21" t="s">
+        <v>329</v>
+      </c>
+      <c r="L69" s="26" t="s">
+        <v>406</v>
+      </c>
+      <c r="M69" s="21" t="s">
+        <v>321</v>
+      </c>
+      <c r="N69" s="21"/>
+      <c r="O69" s="21" t="s">
+        <v>322</v>
+      </c>
+      <c r="P69" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q69" s="21">
+        <v>20</v>
+      </c>
+      <c r="R69" s="21" t="s">
+        <v>416</v>
+      </c>
+      <c r="S69" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="T69" s="21" t="s">
+        <v>417</v>
+      </c>
+      <c r="U69" s="21" t="s">
+        <v>418</v>
+      </c>
+      <c r="V69" s="21" t="s">
+        <v>419</v>
+      </c>
+      <c r="W69" s="21">
+        <v>1</v>
+      </c>
+      <c r="X69" s="21"/>
+      <c r="Y69" s="21" t="s">
+        <v>325</v>
+      </c>
+      <c r="Z69" s="21" t="s">
+        <v>327</v>
+      </c>
+      <c r="AA69" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="AB69" s="22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A70" s="20" t="s">
+        <v>303</v>
+      </c>
+      <c r="B70" s="21" t="s">
+        <v>402</v>
+      </c>
+      <c r="C70" s="21" t="s">
+        <v>307</v>
+      </c>
+      <c r="D70" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="E70" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="F70" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="G70" s="21"/>
+      <c r="H70" s="26" t="s">
+        <v>353</v>
+      </c>
+      <c r="I70" s="21"/>
+      <c r="J70" s="21" t="s">
+        <v>404</v>
+      </c>
+      <c r="K70" s="21" t="s">
+        <v>329</v>
+      </c>
+      <c r="L70" s="26" t="s">
+        <v>406</v>
+      </c>
+      <c r="M70" s="21" t="s">
+        <v>321</v>
+      </c>
+      <c r="N70" s="21"/>
+      <c r="O70" s="21" t="s">
+        <v>322</v>
+      </c>
+      <c r="P70" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q70" s="21">
+        <v>20</v>
+      </c>
+      <c r="R70" s="21" t="s">
+        <v>416</v>
+      </c>
+      <c r="S70" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="T70" s="21" t="s">
+        <v>417</v>
+      </c>
+      <c r="U70" s="21" t="s">
+        <v>418</v>
+      </c>
+      <c r="V70" s="21" t="s">
+        <v>419</v>
+      </c>
+      <c r="W70" s="21">
+        <v>1</v>
+      </c>
+      <c r="X70" s="21"/>
+      <c r="Y70" s="21" t="s">
+        <v>325</v>
+      </c>
+      <c r="Z70" s="21" t="s">
+        <v>327</v>
+      </c>
+      <c r="AA70" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="AB70" s="22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="23" t="s">
+        <v>303</v>
+      </c>
+      <c r="B71" s="24" t="s">
+        <v>403</v>
+      </c>
+      <c r="C71" s="24" t="s">
+        <v>307</v>
+      </c>
+      <c r="D71" s="24" t="s">
+        <v>308</v>
+      </c>
+      <c r="E71" s="24" t="s">
+        <v>308</v>
+      </c>
+      <c r="F71" s="24" t="s">
+        <v>308</v>
+      </c>
+      <c r="G71" s="24"/>
+      <c r="H71" s="28" t="s">
+        <v>353</v>
+      </c>
+      <c r="I71" s="24"/>
+      <c r="J71" s="24" t="s">
+        <v>404</v>
+      </c>
+      <c r="K71" s="24" t="s">
+        <v>329</v>
+      </c>
+      <c r="L71" s="28" t="s">
+        <v>406</v>
+      </c>
+      <c r="M71" s="24" t="s">
+        <v>321</v>
+      </c>
+      <c r="N71" s="24"/>
+      <c r="O71" s="24" t="s">
+        <v>322</v>
+      </c>
+      <c r="P71" s="24" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q71" s="24">
+        <v>20</v>
+      </c>
+      <c r="R71" s="24" t="s">
+        <v>416</v>
+      </c>
+      <c r="S71" s="24" t="s">
+        <v>320</v>
+      </c>
+      <c r="T71" s="24" t="s">
+        <v>417</v>
+      </c>
+      <c r="U71" s="24" t="s">
+        <v>418</v>
+      </c>
+      <c r="V71" s="24" t="s">
+        <v>419</v>
+      </c>
+      <c r="W71" s="24">
+        <v>1</v>
+      </c>
+      <c r="X71" s="24"/>
+      <c r="Y71" s="24" t="s">
+        <v>325</v>
+      </c>
+      <c r="Z71" s="24" t="s">
+        <v>327</v>
+      </c>
+      <c r="AA71" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="AB71" s="25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="17" t="s">
+        <v>303</v>
+      </c>
+      <c r="B72" s="18" t="s">
+        <v>420</v>
+      </c>
+      <c r="C72" s="18" t="s">
+        <v>307</v>
+      </c>
+      <c r="D72" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="E72" s="18" t="s">
+        <v>308</v>
+      </c>
+      <c r="F72" s="18" t="s">
+        <v>308</v>
+      </c>
+      <c r="G72" s="18"/>
+      <c r="H72" s="27" t="s">
+        <v>353</v>
+      </c>
+      <c r="I72" s="18"/>
+      <c r="J72" s="18" t="s">
+        <v>404</v>
+      </c>
+      <c r="K72" s="18" t="s">
+        <v>329</v>
+      </c>
+      <c r="L72" s="27" t="s">
+        <v>406</v>
+      </c>
+      <c r="M72" s="18" t="s">
+        <v>321</v>
+      </c>
+      <c r="N72" s="18"/>
+      <c r="O72" s="18" t="s">
+        <v>322</v>
+      </c>
+      <c r="P72" s="18" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q72" s="18">
+        <v>20</v>
+      </c>
+      <c r="R72" s="18" t="s">
+        <v>416</v>
+      </c>
+      <c r="S72" s="18" t="s">
+        <v>320</v>
+      </c>
+      <c r="T72" s="18" t="s">
+        <v>417</v>
+      </c>
+      <c r="U72" s="18" t="s">
+        <v>418</v>
+      </c>
+      <c r="V72" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="W72" s="18">
+        <v>1</v>
+      </c>
+      <c r="X72" s="18"/>
+      <c r="Y72" s="18" t="s">
+        <v>325</v>
+      </c>
+      <c r="Z72" s="18" t="s">
+        <v>327</v>
+      </c>
+      <c r="AA72" s="18" t="s">
+        <v>263</v>
+      </c>
+      <c r="AB72" s="19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="20" t="s">
+        <v>303</v>
+      </c>
+      <c r="B73" s="21" t="s">
+        <v>421</v>
+      </c>
+      <c r="C73" s="21" t="s">
+        <v>307</v>
+      </c>
+      <c r="D73" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="E73" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="F73" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="G73" s="21"/>
+      <c r="H73" s="26" t="s">
+        <v>353</v>
+      </c>
+      <c r="I73" s="21"/>
+      <c r="J73" s="21" t="s">
+        <v>404</v>
+      </c>
+      <c r="K73" s="21" t="s">
+        <v>329</v>
+      </c>
+      <c r="L73" s="26" t="s">
+        <v>406</v>
+      </c>
+      <c r="M73" s="21" t="s">
+        <v>321</v>
+      </c>
+      <c r="N73" s="21"/>
+      <c r="O73" s="21" t="s">
+        <v>322</v>
+      </c>
+      <c r="P73" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q73" s="21">
+        <v>20</v>
+      </c>
+      <c r="R73" s="21" t="s">
+        <v>416</v>
+      </c>
+      <c r="S73" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="T73" s="21" t="s">
+        <v>417</v>
+      </c>
+      <c r="U73" s="21" t="s">
+        <v>418</v>
+      </c>
+      <c r="V73" s="21" t="s">
+        <v>419</v>
+      </c>
+      <c r="W73" s="21">
+        <v>1</v>
+      </c>
+      <c r="X73" s="21"/>
+      <c r="Y73" s="21" t="s">
+        <v>325</v>
+      </c>
+      <c r="Z73" s="21" t="s">
+        <v>327</v>
+      </c>
+      <c r="AA73" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="AB73" s="22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="20" t="s">
+        <v>303</v>
+      </c>
+      <c r="B74" s="21" t="s">
+        <v>422</v>
+      </c>
+      <c r="C74" s="21" t="s">
+        <v>307</v>
+      </c>
+      <c r="D74" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="E74" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="F74" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="G74" s="21"/>
+      <c r="H74" s="26" t="s">
+        <v>353</v>
+      </c>
+      <c r="I74" s="21"/>
+      <c r="J74" s="21" t="s">
+        <v>404</v>
+      </c>
+      <c r="K74" s="21" t="s">
+        <v>329</v>
+      </c>
+      <c r="L74" s="26" t="s">
+        <v>406</v>
+      </c>
+      <c r="M74" s="21" t="s">
+        <v>321</v>
+      </c>
+      <c r="N74" s="21"/>
+      <c r="O74" s="21" t="s">
+        <v>322</v>
+      </c>
+      <c r="P74" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q74" s="21">
+        <v>20</v>
+      </c>
+      <c r="R74" s="21" t="s">
+        <v>416</v>
+      </c>
+      <c r="S74" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="T74" s="21" t="s">
+        <v>417</v>
+      </c>
+      <c r="U74" s="21" t="s">
+        <v>418</v>
+      </c>
+      <c r="V74" s="21" t="s">
+        <v>419</v>
+      </c>
+      <c r="W74" s="21">
+        <v>1</v>
+      </c>
+      <c r="X74" s="21"/>
+      <c r="Y74" s="21" t="s">
+        <v>325</v>
+      </c>
+      <c r="Z74" s="21" t="s">
+        <v>327</v>
+      </c>
+      <c r="AA74" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="AB74" s="22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="20" t="s">
+        <v>303</v>
+      </c>
+      <c r="B75" s="21" t="s">
+        <v>423</v>
+      </c>
+      <c r="C75" s="21" t="s">
+        <v>307</v>
+      </c>
+      <c r="D75" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="E75" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="F75" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="G75" s="21"/>
+      <c r="H75" s="26" t="s">
+        <v>353</v>
+      </c>
+      <c r="I75" s="21"/>
+      <c r="J75" s="21" t="s">
+        <v>404</v>
+      </c>
+      <c r="K75" s="21" t="s">
+        <v>329</v>
+      </c>
+      <c r="L75" s="26" t="s">
+        <v>406</v>
+      </c>
+      <c r="M75" s="21" t="s">
+        <v>321</v>
+      </c>
+      <c r="N75" s="21"/>
+      <c r="O75" s="21" t="s">
+        <v>322</v>
+      </c>
+      <c r="P75" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q75" s="21">
+        <v>20</v>
+      </c>
+      <c r="R75" s="21" t="s">
+        <v>416</v>
+      </c>
+      <c r="S75" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="T75" s="21" t="s">
+        <v>417</v>
+      </c>
+      <c r="U75" s="21" t="s">
+        <v>418</v>
+      </c>
+      <c r="V75" s="21" t="s">
+        <v>419</v>
+      </c>
+      <c r="W75" s="21">
+        <v>1</v>
+      </c>
+      <c r="X75" s="21"/>
+      <c r="Y75" s="21" t="s">
+        <v>325</v>
+      </c>
+      <c r="Z75" s="21" t="s">
+        <v>327</v>
+      </c>
+      <c r="AA75" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="AB75" s="22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="20" t="s">
+        <v>303</v>
+      </c>
+      <c r="B76" s="21" t="s">
+        <v>424</v>
+      </c>
+      <c r="C76" s="21" t="s">
+        <v>307</v>
+      </c>
+      <c r="D76" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="E76" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="F76" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="G76" s="21"/>
+      <c r="H76" s="26" t="s">
+        <v>353</v>
+      </c>
+      <c r="I76" s="21"/>
+      <c r="J76" s="21" t="s">
+        <v>404</v>
+      </c>
+      <c r="K76" s="21" t="s">
+        <v>329</v>
+      </c>
+      <c r="L76" s="26" t="s">
+        <v>406</v>
+      </c>
+      <c r="M76" s="21" t="s">
+        <v>321</v>
+      </c>
+      <c r="N76" s="21"/>
+      <c r="O76" s="21" t="s">
+        <v>322</v>
+      </c>
+      <c r="P76" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q76" s="21">
+        <v>20</v>
+      </c>
+      <c r="R76" s="21" t="s">
+        <v>416</v>
+      </c>
+      <c r="S76" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="T76" s="21" t="s">
+        <v>417</v>
+      </c>
+      <c r="U76" s="21" t="s">
+        <v>418</v>
+      </c>
+      <c r="V76" s="21" t="s">
+        <v>419</v>
+      </c>
+      <c r="W76" s="21">
+        <v>1</v>
+      </c>
+      <c r="X76" s="21"/>
+      <c r="Y76" s="21" t="s">
+        <v>325</v>
+      </c>
+      <c r="Z76" s="21" t="s">
+        <v>327</v>
+      </c>
+      <c r="AA76" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="AB76" s="22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="20" t="s">
+        <v>303</v>
+      </c>
+      <c r="B77" s="21" t="s">
+        <v>425</v>
+      </c>
+      <c r="C77" s="21" t="s">
+        <v>307</v>
+      </c>
+      <c r="D77" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="E77" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="F77" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="G77" s="21"/>
+      <c r="H77" s="26" t="s">
+        <v>353</v>
+      </c>
+      <c r="I77" s="21"/>
+      <c r="J77" s="21" t="s">
+        <v>404</v>
+      </c>
+      <c r="K77" s="21" t="s">
+        <v>329</v>
+      </c>
+      <c r="L77" s="26" t="s">
+        <v>406</v>
+      </c>
+      <c r="M77" s="21" t="s">
+        <v>321</v>
+      </c>
+      <c r="N77" s="21"/>
+      <c r="O77" s="21" t="s">
+        <v>322</v>
+      </c>
+      <c r="P77" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q77" s="21">
+        <v>20</v>
+      </c>
+      <c r="R77" s="21" t="s">
+        <v>416</v>
+      </c>
+      <c r="S77" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="T77" s="21" t="s">
+        <v>417</v>
+      </c>
+      <c r="U77" s="21" t="s">
+        <v>418</v>
+      </c>
+      <c r="V77" s="21" t="s">
+        <v>419</v>
+      </c>
+      <c r="W77" s="21">
+        <v>1</v>
+      </c>
+      <c r="X77" s="21"/>
+      <c r="Y77" s="21" t="s">
+        <v>325</v>
+      </c>
+      <c r="Z77" s="21" t="s">
+        <v>327</v>
+      </c>
+      <c r="AA77" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="AB77" s="22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="20" t="s">
+        <v>303</v>
+      </c>
+      <c r="B78" s="21" t="s">
+        <v>426</v>
+      </c>
+      <c r="C78" s="21" t="s">
+        <v>307</v>
+      </c>
+      <c r="D78" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="E78" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="F78" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="G78" s="21"/>
+      <c r="H78" s="26" t="s">
+        <v>353</v>
+      </c>
+      <c r="I78" s="21"/>
+      <c r="J78" s="21" t="s">
+        <v>404</v>
+      </c>
+      <c r="K78" s="21" t="s">
+        <v>329</v>
+      </c>
+      <c r="L78" s="26" t="s">
+        <v>406</v>
+      </c>
+      <c r="M78" s="21" t="s">
+        <v>321</v>
+      </c>
+      <c r="N78" s="21"/>
+      <c r="O78" s="21" t="s">
+        <v>322</v>
+      </c>
+      <c r="P78" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q78" s="21">
+        <v>20</v>
+      </c>
+      <c r="R78" s="21" t="s">
+        <v>416</v>
+      </c>
+      <c r="S78" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="T78" s="21" t="s">
+        <v>417</v>
+      </c>
+      <c r="U78" s="21" t="s">
+        <v>418</v>
+      </c>
+      <c r="V78" s="21" t="s">
+        <v>419</v>
+      </c>
+      <c r="W78" s="21">
+        <v>1</v>
+      </c>
+      <c r="X78" s="21"/>
+      <c r="Y78" s="21" t="s">
+        <v>325</v>
+      </c>
+      <c r="Z78" s="21" t="s">
+        <v>327</v>
+      </c>
+      <c r="AA78" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="AB78" s="22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="20" t="s">
+        <v>303</v>
+      </c>
+      <c r="B79" s="21" t="s">
+        <v>427</v>
+      </c>
+      <c r="C79" s="21" t="s">
+        <v>307</v>
+      </c>
+      <c r="D79" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="E79" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="F79" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="G79" s="21"/>
+      <c r="H79" s="26" t="s">
+        <v>353</v>
+      </c>
+      <c r="I79" s="21"/>
+      <c r="J79" s="21" t="s">
+        <v>404</v>
+      </c>
+      <c r="K79" s="21" t="s">
+        <v>329</v>
+      </c>
+      <c r="L79" s="26" t="s">
+        <v>406</v>
+      </c>
+      <c r="M79" s="21" t="s">
+        <v>321</v>
+      </c>
+      <c r="N79" s="21"/>
+      <c r="O79" s="21" t="s">
+        <v>322</v>
+      </c>
+      <c r="P79" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q79" s="21">
+        <v>20</v>
+      </c>
+      <c r="R79" s="21" t="s">
+        <v>416</v>
+      </c>
+      <c r="S79" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="T79" s="21" t="s">
+        <v>417</v>
+      </c>
+      <c r="U79" s="21" t="s">
+        <v>418</v>
+      </c>
+      <c r="V79" s="21" t="s">
+        <v>419</v>
+      </c>
+      <c r="W79" s="21">
+        <v>1</v>
+      </c>
+      <c r="X79" s="21"/>
+      <c r="Y79" s="21" t="s">
+        <v>325</v>
+      </c>
+      <c r="Z79" s="21" t="s">
+        <v>327</v>
+      </c>
+      <c r="AA79" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="AB79" s="22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="20" t="s">
+        <v>303</v>
+      </c>
+      <c r="B80" s="21" t="s">
+        <v>428</v>
+      </c>
+      <c r="C80" s="21" t="s">
+        <v>307</v>
+      </c>
+      <c r="D80" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="E80" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="F80" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="G80" s="21"/>
+      <c r="H80" s="26" t="s">
+        <v>353</v>
+      </c>
+      <c r="I80" s="21"/>
+      <c r="J80" s="21" t="s">
+        <v>404</v>
+      </c>
+      <c r="K80" s="21" t="s">
+        <v>329</v>
+      </c>
+      <c r="L80" s="26" t="s">
+        <v>406</v>
+      </c>
+      <c r="M80" s="21" t="s">
+        <v>321</v>
+      </c>
+      <c r="N80" s="21"/>
+      <c r="O80" s="21" t="s">
+        <v>322</v>
+      </c>
+      <c r="P80" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q80" s="21">
+        <v>20</v>
+      </c>
+      <c r="R80" s="21" t="s">
+        <v>416</v>
+      </c>
+      <c r="S80" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="T80" s="21" t="s">
+        <v>417</v>
+      </c>
+      <c r="U80" s="21" t="s">
+        <v>418</v>
+      </c>
+      <c r="V80" s="21" t="s">
+        <v>419</v>
+      </c>
+      <c r="W80" s="21">
+        <v>1</v>
+      </c>
+      <c r="X80" s="21"/>
+      <c r="Y80" s="21" t="s">
+        <v>325</v>
+      </c>
+      <c r="Z80" s="21" t="s">
+        <v>327</v>
+      </c>
+      <c r="AA80" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="AB80" s="22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="20" t="s">
+        <v>303</v>
+      </c>
+      <c r="B81" s="21" t="s">
+        <v>429</v>
+      </c>
+      <c r="C81" s="21" t="s">
+        <v>307</v>
+      </c>
+      <c r="D81" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="E81" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="F81" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="G81" s="21"/>
+      <c r="H81" s="26" t="s">
+        <v>353</v>
+      </c>
+      <c r="I81" s="21"/>
+      <c r="J81" s="21" t="s">
+        <v>404</v>
+      </c>
+      <c r="K81" s="21" t="s">
+        <v>329</v>
+      </c>
+      <c r="L81" s="26" t="s">
+        <v>406</v>
+      </c>
+      <c r="M81" s="21" t="s">
+        <v>321</v>
+      </c>
+      <c r="N81" s="21"/>
+      <c r="O81" s="21" t="s">
+        <v>322</v>
+      </c>
+      <c r="P81" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q81" s="21">
+        <v>20</v>
+      </c>
+      <c r="R81" s="21" t="s">
+        <v>416</v>
+      </c>
+      <c r="S81" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="T81" s="21" t="s">
+        <v>417</v>
+      </c>
+      <c r="U81" s="21" t="s">
+        <v>418</v>
+      </c>
+      <c r="V81" s="21" t="s">
+        <v>419</v>
+      </c>
+      <c r="W81" s="21">
+        <v>1</v>
+      </c>
+      <c r="X81" s="21"/>
+      <c r="Y81" s="21" t="s">
+        <v>325</v>
+      </c>
+      <c r="Z81" s="21" t="s">
+        <v>327</v>
+      </c>
+      <c r="AA81" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="AB81" s="22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="20" t="s">
+        <v>303</v>
+      </c>
+      <c r="B82" s="21" t="s">
+        <v>430</v>
+      </c>
+      <c r="C82" s="21" t="s">
+        <v>307</v>
+      </c>
+      <c r="D82" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="E82" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="F82" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="G82" s="21"/>
+      <c r="H82" s="26" t="s">
+        <v>353</v>
+      </c>
+      <c r="I82" s="21"/>
+      <c r="J82" s="21" t="s">
+        <v>404</v>
+      </c>
+      <c r="K82" s="21" t="s">
+        <v>329</v>
+      </c>
+      <c r="L82" s="26" t="s">
+        <v>406</v>
+      </c>
+      <c r="M82" s="21" t="s">
+        <v>321</v>
+      </c>
+      <c r="N82" s="21"/>
+      <c r="O82" s="21" t="s">
+        <v>322</v>
+      </c>
+      <c r="P82" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q82" s="21">
+        <v>20</v>
+      </c>
+      <c r="R82" s="21" t="s">
+        <v>416</v>
+      </c>
+      <c r="S82" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="T82" s="21" t="s">
+        <v>417</v>
+      </c>
+      <c r="U82" s="21" t="s">
+        <v>418</v>
+      </c>
+      <c r="V82" s="21" t="s">
+        <v>419</v>
+      </c>
+      <c r="W82" s="21">
+        <v>1</v>
+      </c>
+      <c r="X82" s="21"/>
+      <c r="Y82" s="21" t="s">
+        <v>325</v>
+      </c>
+      <c r="Z82" s="21" t="s">
+        <v>327</v>
+      </c>
+      <c r="AA82" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="AB82" s="22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="20" t="s">
+        <v>303</v>
+      </c>
+      <c r="B83" s="21" t="s">
+        <v>431</v>
+      </c>
+      <c r="C83" s="21" t="s">
+        <v>307</v>
+      </c>
+      <c r="D83" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="E83" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="F83" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="G83" s="21"/>
+      <c r="H83" s="26" t="s">
+        <v>353</v>
+      </c>
+      <c r="I83" s="21"/>
+      <c r="J83" s="21" t="s">
+        <v>404</v>
+      </c>
+      <c r="K83" s="21" t="s">
+        <v>329</v>
+      </c>
+      <c r="L83" s="26" t="s">
+        <v>406</v>
+      </c>
+      <c r="M83" s="21" t="s">
+        <v>321</v>
+      </c>
+      <c r="N83" s="21"/>
+      <c r="O83" s="21" t="s">
+        <v>322</v>
+      </c>
+      <c r="P83" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q83" s="21">
+        <v>20</v>
+      </c>
+      <c r="R83" s="21" t="s">
+        <v>416</v>
+      </c>
+      <c r="S83" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="T83" s="21" t="s">
+        <v>417</v>
+      </c>
+      <c r="U83" s="21" t="s">
+        <v>418</v>
+      </c>
+      <c r="V83" s="21" t="s">
+        <v>419</v>
+      </c>
+      <c r="W83" s="21">
+        <v>1</v>
+      </c>
+      <c r="X83" s="21"/>
+      <c r="Y83" s="21" t="s">
+        <v>325</v>
+      </c>
+      <c r="Z83" s="21" t="s">
+        <v>327</v>
+      </c>
+      <c r="AA83" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="AB83" s="22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="20" t="s">
+        <v>303</v>
+      </c>
+      <c r="B84" s="21" t="s">
+        <v>432</v>
+      </c>
+      <c r="C84" s="21" t="s">
+        <v>307</v>
+      </c>
+      <c r="D84" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="E84" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="F84" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="G84" s="21"/>
+      <c r="H84" s="26" t="s">
+        <v>353</v>
+      </c>
+      <c r="I84" s="21"/>
+      <c r="J84" s="21" t="s">
+        <v>404</v>
+      </c>
+      <c r="K84" s="21" t="s">
+        <v>329</v>
+      </c>
+      <c r="L84" s="26" t="s">
+        <v>406</v>
+      </c>
+      <c r="M84" s="21" t="s">
+        <v>321</v>
+      </c>
+      <c r="N84" s="21"/>
+      <c r="O84" s="21" t="s">
+        <v>322</v>
+      </c>
+      <c r="P84" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q84" s="21">
+        <v>20</v>
+      </c>
+      <c r="R84" s="21" t="s">
+        <v>416</v>
+      </c>
+      <c r="S84" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="T84" s="21" t="s">
+        <v>417</v>
+      </c>
+      <c r="U84" s="21" t="s">
+        <v>418</v>
+      </c>
+      <c r="V84" s="21" t="s">
+        <v>419</v>
+      </c>
+      <c r="W84" s="21">
+        <v>1</v>
+      </c>
+      <c r="X84" s="21"/>
+      <c r="Y84" s="21" t="s">
+        <v>325</v>
+      </c>
+      <c r="Z84" s="21" t="s">
+        <v>327</v>
+      </c>
+      <c r="AA84" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="AB84" s="22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="20" t="s">
+        <v>303</v>
+      </c>
+      <c r="B85" s="21" t="s">
+        <v>433</v>
+      </c>
+      <c r="C85" s="21" t="s">
+        <v>307</v>
+      </c>
+      <c r="D85" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="E85" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="F85" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="G85" s="21"/>
+      <c r="H85" s="26" t="s">
+        <v>353</v>
+      </c>
+      <c r="I85" s="21"/>
+      <c r="J85" s="21" t="s">
+        <v>404</v>
+      </c>
+      <c r="K85" s="21" t="s">
+        <v>329</v>
+      </c>
+      <c r="L85" s="26" t="s">
+        <v>406</v>
+      </c>
+      <c r="M85" s="21" t="s">
+        <v>321</v>
+      </c>
+      <c r="N85" s="21"/>
+      <c r="O85" s="21" t="s">
+        <v>322</v>
+      </c>
+      <c r="P85" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q85" s="21">
+        <v>20</v>
+      </c>
+      <c r="R85" s="21" t="s">
+        <v>416</v>
+      </c>
+      <c r="S85" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="T85" s="21" t="s">
+        <v>417</v>
+      </c>
+      <c r="U85" s="21" t="s">
+        <v>418</v>
+      </c>
+      <c r="V85" s="21" t="s">
+        <v>419</v>
+      </c>
+      <c r="W85" s="21">
+        <v>1</v>
+      </c>
+      <c r="X85" s="21"/>
+      <c r="Y85" s="21" t="s">
+        <v>325</v>
+      </c>
+      <c r="Z85" s="21" t="s">
+        <v>327</v>
+      </c>
+      <c r="AA85" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="AB85" s="22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="20" t="s">
+        <v>303</v>
+      </c>
+      <c r="B86" s="21" t="s">
+        <v>434</v>
+      </c>
+      <c r="C86" s="21" t="s">
+        <v>307</v>
+      </c>
+      <c r="D86" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="E86" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="F86" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="G86" s="21"/>
+      <c r="H86" s="26" t="s">
+        <v>353</v>
+      </c>
+      <c r="I86" s="21"/>
+      <c r="J86" s="21" t="s">
+        <v>404</v>
+      </c>
+      <c r="K86" s="21" t="s">
+        <v>329</v>
+      </c>
+      <c r="L86" s="26" t="s">
+        <v>406</v>
+      </c>
+      <c r="M86" s="21" t="s">
+        <v>321</v>
+      </c>
+      <c r="N86" s="21"/>
+      <c r="O86" s="21" t="s">
+        <v>322</v>
+      </c>
+      <c r="P86" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q86" s="21">
+        <v>20</v>
+      </c>
+      <c r="R86" s="21" t="s">
+        <v>416</v>
+      </c>
+      <c r="S86" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="T86" s="21" t="s">
+        <v>417</v>
+      </c>
+      <c r="U86" s="21" t="s">
+        <v>418</v>
+      </c>
+      <c r="V86" s="21" t="s">
+        <v>419</v>
+      </c>
+      <c r="W86" s="21">
+        <v>1</v>
+      </c>
+      <c r="X86" s="21"/>
+      <c r="Y86" s="21" t="s">
+        <v>325</v>
+      </c>
+      <c r="Z86" s="21" t="s">
+        <v>327</v>
+      </c>
+      <c r="AA86" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="AB86" s="22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="20" t="s">
+        <v>303</v>
+      </c>
+      <c r="B87" s="21" t="s">
+        <v>435</v>
+      </c>
+      <c r="C87" s="21" t="s">
+        <v>307</v>
+      </c>
+      <c r="D87" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="E87" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="F87" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="G87" s="21"/>
+      <c r="H87" s="26" t="s">
+        <v>353</v>
+      </c>
+      <c r="I87" s="21"/>
+      <c r="J87" s="21" t="s">
+        <v>404</v>
+      </c>
+      <c r="K87" s="21" t="s">
+        <v>329</v>
+      </c>
+      <c r="L87" s="26" t="s">
+        <v>406</v>
+      </c>
+      <c r="M87" s="21" t="s">
+        <v>321</v>
+      </c>
+      <c r="N87" s="21"/>
+      <c r="O87" s="21" t="s">
+        <v>322</v>
+      </c>
+      <c r="P87" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q87" s="21">
+        <v>20</v>
+      </c>
+      <c r="R87" s="21" t="s">
+        <v>416</v>
+      </c>
+      <c r="S87" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="T87" s="21" t="s">
+        <v>417</v>
+      </c>
+      <c r="U87" s="21" t="s">
+        <v>418</v>
+      </c>
+      <c r="V87" s="21" t="s">
+        <v>419</v>
+      </c>
+      <c r="W87" s="21">
+        <v>1</v>
+      </c>
+      <c r="X87" s="21"/>
+      <c r="Y87" s="21" t="s">
+        <v>325</v>
+      </c>
+      <c r="Z87" s="21" t="s">
+        <v>327</v>
+      </c>
+      <c r="AA87" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="AB87" s="22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="20" t="s">
+        <v>303</v>
+      </c>
+      <c r="B88" s="21" t="s">
+        <v>436</v>
+      </c>
+      <c r="C88" s="21" t="s">
+        <v>307</v>
+      </c>
+      <c r="D88" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="E88" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="F88" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="G88" s="21"/>
+      <c r="H88" s="26" t="s">
+        <v>353</v>
+      </c>
+      <c r="I88" s="21"/>
+      <c r="J88" s="21" t="s">
+        <v>404</v>
+      </c>
+      <c r="K88" s="21" t="s">
+        <v>329</v>
+      </c>
+      <c r="L88" s="26" t="s">
+        <v>406</v>
+      </c>
+      <c r="M88" s="21" t="s">
+        <v>321</v>
+      </c>
+      <c r="N88" s="21"/>
+      <c r="O88" s="21" t="s">
+        <v>322</v>
+      </c>
+      <c r="P88" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q88" s="21">
+        <v>20</v>
+      </c>
+      <c r="R88" s="21" t="s">
+        <v>416</v>
+      </c>
+      <c r="S88" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="T88" s="21" t="s">
+        <v>417</v>
+      </c>
+      <c r="U88" s="21" t="s">
+        <v>418</v>
+      </c>
+      <c r="V88" s="21" t="s">
+        <v>419</v>
+      </c>
+      <c r="W88" s="21">
+        <v>1</v>
+      </c>
+      <c r="X88" s="21"/>
+      <c r="Y88" s="21" t="s">
+        <v>325</v>
+      </c>
+      <c r="Z88" s="21" t="s">
+        <v>327</v>
+      </c>
+      <c r="AA88" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="AB88" s="22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="20" t="s">
+        <v>303</v>
+      </c>
+      <c r="B89" s="21" t="s">
+        <v>437</v>
+      </c>
+      <c r="C89" s="21" t="s">
+        <v>307</v>
+      </c>
+      <c r="D89" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="E89" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="F89" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="G89" s="21"/>
+      <c r="H89" s="26" t="s">
+        <v>353</v>
+      </c>
+      <c r="I89" s="21"/>
+      <c r="J89" s="21" t="s">
+        <v>404</v>
+      </c>
+      <c r="K89" s="21" t="s">
+        <v>329</v>
+      </c>
+      <c r="L89" s="26" t="s">
+        <v>406</v>
+      </c>
+      <c r="M89" s="21" t="s">
+        <v>321</v>
+      </c>
+      <c r="N89" s="21"/>
+      <c r="O89" s="21" t="s">
+        <v>322</v>
+      </c>
+      <c r="P89" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q89" s="21">
+        <v>20</v>
+      </c>
+      <c r="R89" s="21" t="s">
+        <v>416</v>
+      </c>
+      <c r="S89" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="T89" s="21" t="s">
+        <v>417</v>
+      </c>
+      <c r="U89" s="21" t="s">
+        <v>418</v>
+      </c>
+      <c r="V89" s="21" t="s">
+        <v>419</v>
+      </c>
+      <c r="W89" s="21">
+        <v>1</v>
+      </c>
+      <c r="X89" s="21"/>
+      <c r="Y89" s="21" t="s">
+        <v>325</v>
+      </c>
+      <c r="Z89" s="21" t="s">
+        <v>327</v>
+      </c>
+      <c r="AA89" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="AB89" s="22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="20" t="s">
+        <v>303</v>
+      </c>
+      <c r="B90" s="21" t="s">
+        <v>438</v>
+      </c>
+      <c r="C90" s="21" t="s">
+        <v>307</v>
+      </c>
+      <c r="D90" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="E90" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="F90" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="G90" s="21"/>
+      <c r="H90" s="26" t="s">
+        <v>353</v>
+      </c>
+      <c r="I90" s="21"/>
+      <c r="J90" s="21" t="s">
+        <v>404</v>
+      </c>
+      <c r="K90" s="21" t="s">
+        <v>329</v>
+      </c>
+      <c r="L90" s="26" t="s">
+        <v>406</v>
+      </c>
+      <c r="M90" s="21" t="s">
+        <v>321</v>
+      </c>
+      <c r="N90" s="21"/>
+      <c r="O90" s="21" t="s">
+        <v>322</v>
+      </c>
+      <c r="P90" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q90" s="21">
+        <v>20</v>
+      </c>
+      <c r="R90" s="21" t="s">
+        <v>416</v>
+      </c>
+      <c r="S90" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="T90" s="21" t="s">
+        <v>417</v>
+      </c>
+      <c r="U90" s="21" t="s">
+        <v>418</v>
+      </c>
+      <c r="V90" s="21" t="s">
+        <v>419</v>
+      </c>
+      <c r="W90" s="21">
+        <v>1</v>
+      </c>
+      <c r="X90" s="21"/>
+      <c r="Y90" s="21" t="s">
+        <v>325</v>
+      </c>
+      <c r="Z90" s="21" t="s">
+        <v>327</v>
+      </c>
+      <c r="AA90" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="AB90" s="22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="91" spans="1:28" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="23" t="s">
+        <v>303</v>
+      </c>
+      <c r="B91" s="24" t="s">
+        <v>439</v>
+      </c>
+      <c r="C91" s="24" t="s">
+        <v>307</v>
+      </c>
+      <c r="D91" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="E91" s="24" t="s">
+        <v>308</v>
+      </c>
+      <c r="F91" s="24" t="s">
+        <v>308</v>
+      </c>
+      <c r="G91" s="24"/>
+      <c r="H91" s="28" t="s">
+        <v>353</v>
+      </c>
+      <c r="I91" s="24"/>
+      <c r="J91" s="24" t="s">
+        <v>404</v>
+      </c>
+      <c r="K91" s="24" t="s">
+        <v>329</v>
+      </c>
+      <c r="L91" s="28" t="s">
+        <v>406</v>
+      </c>
+      <c r="M91" s="24" t="s">
+        <v>321</v>
+      </c>
+      <c r="N91" s="24"/>
+      <c r="O91" s="24" t="s">
+        <v>322</v>
+      </c>
+      <c r="P91" s="24" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q91" s="24">
+        <v>20</v>
+      </c>
+      <c r="R91" s="24" t="s">
+        <v>416</v>
+      </c>
+      <c r="S91" s="24" t="s">
+        <v>320</v>
+      </c>
+      <c r="T91" s="24" t="s">
+        <v>417</v>
+      </c>
+      <c r="U91" s="24" t="s">
+        <v>418</v>
+      </c>
+      <c r="V91" s="24" t="s">
+        <v>419</v>
+      </c>
+      <c r="W91" s="24">
+        <v>1</v>
+      </c>
+      <c r="X91" s="24"/>
+      <c r="Y91" s="24" t="s">
+        <v>325</v>
+      </c>
+      <c r="Z91" s="24" t="s">
+        <v>327</v>
+      </c>
+      <c r="AA91" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="AB91" s="25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A92" s="17" t="s">
+        <v>303</v>
+      </c>
+      <c r="B92" s="18" t="s">
+        <v>440</v>
+      </c>
+      <c r="C92" s="18" t="s">
+        <v>460</v>
+      </c>
+      <c r="D92" s="27" t="s">
+        <v>308</v>
+      </c>
+      <c r="E92" s="18" t="s">
+        <v>308</v>
+      </c>
+      <c r="F92" s="27" t="s">
+        <v>308</v>
+      </c>
+      <c r="G92" s="18"/>
+      <c r="H92" s="27" t="s">
+        <v>353</v>
+      </c>
+      <c r="I92" s="18"/>
+      <c r="J92" s="27" t="s">
+        <v>405</v>
+      </c>
+      <c r="K92" s="27" t="s">
+        <v>329</v>
+      </c>
+      <c r="L92" s="27" t="s">
+        <v>406</v>
+      </c>
+      <c r="M92" s="27" t="s">
+        <v>321</v>
+      </c>
+      <c r="N92" s="18"/>
+      <c r="O92" s="18" t="s">
+        <v>322</v>
+      </c>
+      <c r="P92" s="18" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q92" s="18">
+        <v>20</v>
+      </c>
+      <c r="R92" s="18" t="s">
+        <v>416</v>
+      </c>
+      <c r="S92" s="18" t="s">
+        <v>320</v>
+      </c>
+      <c r="T92" s="18" t="s">
+        <v>417</v>
+      </c>
+      <c r="U92" s="18" t="s">
+        <v>418</v>
+      </c>
+      <c r="V92" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="W92" s="18">
+        <v>1</v>
+      </c>
+      <c r="X92" s="27" t="s">
+        <v>462</v>
+      </c>
+      <c r="Y92" s="18" t="s">
+        <v>325</v>
+      </c>
+      <c r="Z92" s="18" t="s">
+        <v>327</v>
+      </c>
+      <c r="AA92" s="18" t="s">
+        <v>263</v>
+      </c>
+      <c r="AB92" s="19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A93" s="20" t="s">
+        <v>303</v>
+      </c>
+      <c r="B93" s="21" t="s">
+        <v>441</v>
+      </c>
+      <c r="C93" s="21" t="s">
+        <v>460</v>
+      </c>
+      <c r="D93" s="26" t="s">
+        <v>308</v>
+      </c>
+      <c r="E93" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="F93" s="26" t="s">
+        <v>308</v>
+      </c>
+      <c r="G93" s="21"/>
+      <c r="H93" s="26" t="s">
+        <v>353</v>
+      </c>
+      <c r="I93" s="21"/>
+      <c r="J93" s="26" t="s">
+        <v>405</v>
+      </c>
+      <c r="K93" s="26" t="s">
+        <v>329</v>
+      </c>
+      <c r="L93" s="26" t="s">
+        <v>406</v>
+      </c>
+      <c r="M93" s="26" t="s">
+        <v>321</v>
+      </c>
+      <c r="N93" s="21"/>
+      <c r="O93" s="21" t="s">
+        <v>322</v>
+      </c>
+      <c r="P93" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q93" s="21">
+        <v>20</v>
+      </c>
+      <c r="R93" s="21" t="s">
+        <v>416</v>
+      </c>
+      <c r="S93" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="T93" s="21" t="s">
+        <v>417</v>
+      </c>
+      <c r="U93" s="21" t="s">
+        <v>418</v>
+      </c>
+      <c r="V93" s="21" t="s">
+        <v>419</v>
+      </c>
+      <c r="W93" s="21">
+        <v>1</v>
+      </c>
+      <c r="X93" s="26" t="s">
+        <v>462</v>
+      </c>
+      <c r="Y93" s="21" t="s">
+        <v>325</v>
+      </c>
+      <c r="Z93" s="21" t="s">
+        <v>327</v>
+      </c>
+      <c r="AA93" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="AB93" s="22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A94" s="20" t="s">
+        <v>303</v>
+      </c>
+      <c r="B94" s="21" t="s">
+        <v>442</v>
+      </c>
+      <c r="C94" s="21" t="s">
+        <v>460</v>
+      </c>
+      <c r="D94" s="26" t="s">
+        <v>308</v>
+      </c>
+      <c r="E94" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="F94" s="26" t="s">
+        <v>308</v>
+      </c>
+      <c r="G94" s="21"/>
+      <c r="H94" s="26" t="s">
+        <v>353</v>
+      </c>
+      <c r="I94" s="21"/>
+      <c r="J94" s="26" t="s">
+        <v>405</v>
+      </c>
+      <c r="K94" s="26" t="s">
+        <v>329</v>
+      </c>
+      <c r="L94" s="26" t="s">
+        <v>406</v>
+      </c>
+      <c r="M94" s="26" t="s">
+        <v>321</v>
+      </c>
+      <c r="N94" s="21"/>
+      <c r="O94" s="21" t="s">
+        <v>322</v>
+      </c>
+      <c r="P94" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q94" s="21">
+        <v>20</v>
+      </c>
+      <c r="R94" s="21" t="s">
+        <v>416</v>
+      </c>
+      <c r="S94" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="T94" s="21" t="s">
+        <v>417</v>
+      </c>
+      <c r="U94" s="21" t="s">
+        <v>418</v>
+      </c>
+      <c r="V94" s="21" t="s">
+        <v>419</v>
+      </c>
+      <c r="W94" s="21">
+        <v>1</v>
+      </c>
+      <c r="X94" s="26" t="s">
+        <v>462</v>
+      </c>
+      <c r="Y94" s="21" t="s">
+        <v>325</v>
+      </c>
+      <c r="Z94" s="21" t="s">
+        <v>327</v>
+      </c>
+      <c r="AA94" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="AB94" s="22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A95" s="20" t="s">
+        <v>303</v>
+      </c>
+      <c r="B95" s="21" t="s">
+        <v>443</v>
+      </c>
+      <c r="C95" s="21" t="s">
+        <v>460</v>
+      </c>
+      <c r="D95" s="26" t="s">
+        <v>308</v>
+      </c>
+      <c r="E95" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="F95" s="26" t="s">
+        <v>308</v>
+      </c>
+      <c r="G95" s="21"/>
+      <c r="H95" s="26" t="s">
+        <v>353</v>
+      </c>
+      <c r="I95" s="21"/>
+      <c r="J95" s="26" t="s">
+        <v>405</v>
+      </c>
+      <c r="K95" s="26" t="s">
+        <v>329</v>
+      </c>
+      <c r="L95" s="26" t="s">
+        <v>406</v>
+      </c>
+      <c r="M95" s="26" t="s">
+        <v>321</v>
+      </c>
+      <c r="N95" s="21"/>
+      <c r="O95" s="21" t="s">
+        <v>322</v>
+      </c>
+      <c r="P95" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q95" s="21">
+        <v>20</v>
+      </c>
+      <c r="R95" s="21" t="s">
+        <v>416</v>
+      </c>
+      <c r="S95" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="T95" s="21" t="s">
+        <v>417</v>
+      </c>
+      <c r="U95" s="21" t="s">
+        <v>418</v>
+      </c>
+      <c r="V95" s="21" t="s">
+        <v>419</v>
+      </c>
+      <c r="W95" s="21">
+        <v>1</v>
+      </c>
+      <c r="X95" s="26" t="s">
+        <v>462</v>
+      </c>
+      <c r="Y95" s="21" t="s">
+        <v>325</v>
+      </c>
+      <c r="Z95" s="21" t="s">
+        <v>327</v>
+      </c>
+      <c r="AA95" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="AB95" s="22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A96" s="20" t="s">
+        <v>303</v>
+      </c>
+      <c r="B96" s="21" t="s">
+        <v>444</v>
+      </c>
+      <c r="C96" s="21" t="s">
+        <v>460</v>
+      </c>
+      <c r="D96" s="26" t="s">
+        <v>308</v>
+      </c>
+      <c r="E96" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="F96" s="26" t="s">
+        <v>308</v>
+      </c>
+      <c r="G96" s="21"/>
+      <c r="H96" s="26" t="s">
+        <v>353</v>
+      </c>
+      <c r="I96" s="21"/>
+      <c r="J96" s="26" t="s">
+        <v>405</v>
+      </c>
+      <c r="K96" s="26" t="s">
+        <v>329</v>
+      </c>
+      <c r="L96" s="26" t="s">
+        <v>406</v>
+      </c>
+      <c r="M96" s="26" t="s">
+        <v>321</v>
+      </c>
+      <c r="N96" s="21"/>
+      <c r="O96" s="21" t="s">
+        <v>322</v>
+      </c>
+      <c r="P96" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q96" s="21">
+        <v>20</v>
+      </c>
+      <c r="R96" s="21" t="s">
+        <v>416</v>
+      </c>
+      <c r="S96" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="T96" s="21" t="s">
+        <v>417</v>
+      </c>
+      <c r="U96" s="21" t="s">
+        <v>418</v>
+      </c>
+      <c r="V96" s="21" t="s">
+        <v>419</v>
+      </c>
+      <c r="W96" s="21">
+        <v>1</v>
+      </c>
+      <c r="X96" s="26" t="s">
+        <v>462</v>
+      </c>
+      <c r="Y96" s="21" t="s">
+        <v>325</v>
+      </c>
+      <c r="Z96" s="21" t="s">
+        <v>327</v>
+      </c>
+      <c r="AA96" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="AB96" s="22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="97" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A97" s="20" t="s">
+        <v>303</v>
+      </c>
+      <c r="B97" s="21" t="s">
+        <v>445</v>
+      </c>
+      <c r="C97" s="21" t="s">
+        <v>460</v>
+      </c>
+      <c r="D97" s="26" t="s">
+        <v>308</v>
+      </c>
+      <c r="E97" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="F97" s="26" t="s">
+        <v>308</v>
+      </c>
+      <c r="G97" s="21"/>
+      <c r="H97" s="26" t="s">
+        <v>353</v>
+      </c>
+      <c r="I97" s="21"/>
+      <c r="J97" s="26" t="s">
+        <v>405</v>
+      </c>
+      <c r="K97" s="26" t="s">
+        <v>329</v>
+      </c>
+      <c r="L97" s="26" t="s">
+        <v>406</v>
+      </c>
+      <c r="M97" s="26" t="s">
+        <v>321</v>
+      </c>
+      <c r="N97" s="21"/>
+      <c r="O97" s="21" t="s">
+        <v>322</v>
+      </c>
+      <c r="P97" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q97" s="21">
+        <v>20</v>
+      </c>
+      <c r="R97" s="21" t="s">
+        <v>416</v>
+      </c>
+      <c r="S97" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="T97" s="21" t="s">
+        <v>417</v>
+      </c>
+      <c r="U97" s="21" t="s">
+        <v>418</v>
+      </c>
+      <c r="V97" s="21" t="s">
+        <v>419</v>
+      </c>
+      <c r="W97" s="21">
+        <v>1</v>
+      </c>
+      <c r="X97" s="26" t="s">
+        <v>462</v>
+      </c>
+      <c r="Y97" s="21" t="s">
+        <v>325</v>
+      </c>
+      <c r="Z97" s="21" t="s">
+        <v>327</v>
+      </c>
+      <c r="AA97" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="AB97" s="22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="98" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A98" s="20" t="s">
+        <v>303</v>
+      </c>
+      <c r="B98" s="21" t="s">
+        <v>446</v>
+      </c>
+      <c r="C98" s="21" t="s">
+        <v>460</v>
+      </c>
+      <c r="D98" s="26" t="s">
+        <v>308</v>
+      </c>
+      <c r="E98" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="F98" s="26" t="s">
+        <v>308</v>
+      </c>
+      <c r="G98" s="21"/>
+      <c r="H98" s="26" t="s">
+        <v>353</v>
+      </c>
+      <c r="I98" s="21"/>
+      <c r="J98" s="26" t="s">
+        <v>405</v>
+      </c>
+      <c r="K98" s="26" t="s">
+        <v>329</v>
+      </c>
+      <c r="L98" s="26" t="s">
+        <v>406</v>
+      </c>
+      <c r="M98" s="26" t="s">
+        <v>321</v>
+      </c>
+      <c r="N98" s="21"/>
+      <c r="O98" s="21" t="s">
+        <v>322</v>
+      </c>
+      <c r="P98" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q98" s="21">
+        <v>20</v>
+      </c>
+      <c r="R98" s="21" t="s">
+        <v>416</v>
+      </c>
+      <c r="S98" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="T98" s="21" t="s">
+        <v>417</v>
+      </c>
+      <c r="U98" s="21" t="s">
+        <v>418</v>
+      </c>
+      <c r="V98" s="21" t="s">
+        <v>419</v>
+      </c>
+      <c r="W98" s="21">
+        <v>1</v>
+      </c>
+      <c r="X98" s="26" t="s">
+        <v>462</v>
+      </c>
+      <c r="Y98" s="21" t="s">
+        <v>325</v>
+      </c>
+      <c r="Z98" s="21" t="s">
+        <v>327</v>
+      </c>
+      <c r="AA98" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="AB98" s="22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="99" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A99" s="20" t="s">
+        <v>303</v>
+      </c>
+      <c r="B99" s="21" t="s">
+        <v>447</v>
+      </c>
+      <c r="C99" s="21" t="s">
+        <v>460</v>
+      </c>
+      <c r="D99" s="26" t="s">
+        <v>308</v>
+      </c>
+      <c r="E99" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="F99" s="26" t="s">
+        <v>308</v>
+      </c>
+      <c r="G99" s="21"/>
+      <c r="H99" s="26" t="s">
+        <v>353</v>
+      </c>
+      <c r="I99" s="21"/>
+      <c r="J99" s="26" t="s">
+        <v>405</v>
+      </c>
+      <c r="K99" s="26" t="s">
+        <v>329</v>
+      </c>
+      <c r="L99" s="26" t="s">
+        <v>406</v>
+      </c>
+      <c r="M99" s="26" t="s">
+        <v>321</v>
+      </c>
+      <c r="N99" s="21"/>
+      <c r="O99" s="21" t="s">
+        <v>322</v>
+      </c>
+      <c r="P99" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q99" s="21">
+        <v>20</v>
+      </c>
+      <c r="R99" s="21" t="s">
+        <v>416</v>
+      </c>
+      <c r="S99" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="T99" s="21" t="s">
+        <v>417</v>
+      </c>
+      <c r="U99" s="21" t="s">
+        <v>418</v>
+      </c>
+      <c r="V99" s="21" t="s">
+        <v>419</v>
+      </c>
+      <c r="W99" s="21">
+        <v>1</v>
+      </c>
+      <c r="X99" s="26" t="s">
+        <v>462</v>
+      </c>
+      <c r="Y99" s="21" t="s">
+        <v>325</v>
+      </c>
+      <c r="Z99" s="21" t="s">
+        <v>327</v>
+      </c>
+      <c r="AA99" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="AB99" s="22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="100" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A100" s="20" t="s">
+        <v>303</v>
+      </c>
+      <c r="B100" s="21" t="s">
+        <v>448</v>
+      </c>
+      <c r="C100" s="21" t="s">
+        <v>460</v>
+      </c>
+      <c r="D100" s="26" t="s">
+        <v>308</v>
+      </c>
+      <c r="E100" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="F100" s="26" t="s">
+        <v>308</v>
+      </c>
+      <c r="G100" s="21"/>
+      <c r="H100" s="26" t="s">
+        <v>353</v>
+      </c>
+      <c r="I100" s="21"/>
+      <c r="J100" s="26" t="s">
+        <v>405</v>
+      </c>
+      <c r="K100" s="26" t="s">
+        <v>329</v>
+      </c>
+      <c r="L100" s="26" t="s">
+        <v>406</v>
+      </c>
+      <c r="M100" s="26" t="s">
+        <v>321</v>
+      </c>
+      <c r="N100" s="21"/>
+      <c r="O100" s="21" t="s">
+        <v>322</v>
+      </c>
+      <c r="P100" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q100" s="21">
+        <v>20</v>
+      </c>
+      <c r="R100" s="21" t="s">
+        <v>416</v>
+      </c>
+      <c r="S100" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="T100" s="21" t="s">
+        <v>417</v>
+      </c>
+      <c r="U100" s="21" t="s">
+        <v>418</v>
+      </c>
+      <c r="V100" s="21" t="s">
+        <v>419</v>
+      </c>
+      <c r="W100" s="21">
+        <v>1</v>
+      </c>
+      <c r="X100" s="26" t="s">
+        <v>462</v>
+      </c>
+      <c r="Y100" s="21" t="s">
+        <v>325</v>
+      </c>
+      <c r="Z100" s="21" t="s">
+        <v>327</v>
+      </c>
+      <c r="AA100" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="AB100" s="22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A101" s="20" t="s">
+        <v>303</v>
+      </c>
+      <c r="B101" s="21" t="s">
+        <v>449</v>
+      </c>
+      <c r="C101" s="21" t="s">
+        <v>460</v>
+      </c>
+      <c r="D101" s="26" t="s">
+        <v>308</v>
+      </c>
+      <c r="E101" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="F101" s="26" t="s">
+        <v>308</v>
+      </c>
+      <c r="G101" s="21"/>
+      <c r="H101" s="26" t="s">
+        <v>353</v>
+      </c>
+      <c r="I101" s="21"/>
+      <c r="J101" s="26" t="s">
+        <v>405</v>
+      </c>
+      <c r="K101" s="26" t="s">
+        <v>329</v>
+      </c>
+      <c r="L101" s="26" t="s">
+        <v>406</v>
+      </c>
+      <c r="M101" s="26" t="s">
+        <v>321</v>
+      </c>
+      <c r="N101" s="21"/>
+      <c r="O101" s="21" t="s">
+        <v>322</v>
+      </c>
+      <c r="P101" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q101" s="21">
+        <v>20</v>
+      </c>
+      <c r="R101" s="21" t="s">
+        <v>416</v>
+      </c>
+      <c r="S101" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="T101" s="21" t="s">
+        <v>417</v>
+      </c>
+      <c r="U101" s="21" t="s">
+        <v>418</v>
+      </c>
+      <c r="V101" s="21" t="s">
+        <v>419</v>
+      </c>
+      <c r="W101" s="21">
+        <v>1</v>
+      </c>
+      <c r="X101" s="26" t="s">
+        <v>462</v>
+      </c>
+      <c r="Y101" s="21" t="s">
+        <v>325</v>
+      </c>
+      <c r="Z101" s="21" t="s">
+        <v>327</v>
+      </c>
+      <c r="AA101" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="AB101" s="22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A102" s="20" t="s">
+        <v>303</v>
+      </c>
+      <c r="B102" s="21" t="s">
+        <v>450</v>
+      </c>
+      <c r="C102" s="21" t="s">
+        <v>460</v>
+      </c>
+      <c r="D102" s="26" t="s">
+        <v>308</v>
+      </c>
+      <c r="E102" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="F102" s="26" t="s">
+        <v>308</v>
+      </c>
+      <c r="G102" s="21"/>
+      <c r="H102" s="26" t="s">
+        <v>353</v>
+      </c>
+      <c r="I102" s="21"/>
+      <c r="J102" s="26" t="s">
+        <v>405</v>
+      </c>
+      <c r="K102" s="26" t="s">
+        <v>329</v>
+      </c>
+      <c r="L102" s="26" t="s">
+        <v>406</v>
+      </c>
+      <c r="M102" s="26" t="s">
+        <v>321</v>
+      </c>
+      <c r="N102" s="21"/>
+      <c r="O102" s="21" t="s">
+        <v>322</v>
+      </c>
+      <c r="P102" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q102" s="21">
+        <v>20</v>
+      </c>
+      <c r="R102" s="21" t="s">
+        <v>416</v>
+      </c>
+      <c r="S102" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="T102" s="21" t="s">
+        <v>417</v>
+      </c>
+      <c r="U102" s="21" t="s">
+        <v>418</v>
+      </c>
+      <c r="V102" s="21" t="s">
+        <v>419</v>
+      </c>
+      <c r="W102" s="21">
+        <v>1</v>
+      </c>
+      <c r="X102" s="26" t="s">
+        <v>462</v>
+      </c>
+      <c r="Y102" s="21" t="s">
+        <v>325</v>
+      </c>
+      <c r="Z102" s="21" t="s">
+        <v>327</v>
+      </c>
+      <c r="AA102" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="AB102" s="22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="103" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A103" s="20" t="s">
+        <v>303</v>
+      </c>
+      <c r="B103" s="21" t="s">
+        <v>451</v>
+      </c>
+      <c r="C103" s="21" t="s">
+        <v>460</v>
+      </c>
+      <c r="D103" s="26" t="s">
+        <v>308</v>
+      </c>
+      <c r="E103" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="F103" s="26" t="s">
+        <v>308</v>
+      </c>
+      <c r="G103" s="21"/>
+      <c r="H103" s="26" t="s">
+        <v>353</v>
+      </c>
+      <c r="I103" s="21"/>
+      <c r="J103" s="26" t="s">
+        <v>405</v>
+      </c>
+      <c r="K103" s="26" t="s">
+        <v>329</v>
+      </c>
+      <c r="L103" s="26" t="s">
+        <v>406</v>
+      </c>
+      <c r="M103" s="26" t="s">
+        <v>321</v>
+      </c>
+      <c r="N103" s="21"/>
+      <c r="O103" s="21" t="s">
+        <v>322</v>
+      </c>
+      <c r="P103" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q103" s="21">
+        <v>20</v>
+      </c>
+      <c r="R103" s="21" t="s">
+        <v>416</v>
+      </c>
+      <c r="S103" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="T103" s="21" t="s">
+        <v>417</v>
+      </c>
+      <c r="U103" s="21" t="s">
+        <v>418</v>
+      </c>
+      <c r="V103" s="21" t="s">
+        <v>419</v>
+      </c>
+      <c r="W103" s="21">
+        <v>1</v>
+      </c>
+      <c r="X103" s="26" t="s">
+        <v>462</v>
+      </c>
+      <c r="Y103" s="21" t="s">
+        <v>325</v>
+      </c>
+      <c r="Z103" s="21" t="s">
+        <v>327</v>
+      </c>
+      <c r="AA103" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="AB103" s="22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="104" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A104" s="20" t="s">
+        <v>303</v>
+      </c>
+      <c r="B104" s="21" t="s">
+        <v>452</v>
+      </c>
+      <c r="C104" s="21" t="s">
+        <v>460</v>
+      </c>
+      <c r="D104" s="26" t="s">
+        <v>308</v>
+      </c>
+      <c r="E104" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="F104" s="26" t="s">
+        <v>308</v>
+      </c>
+      <c r="G104" s="21"/>
+      <c r="H104" s="26" t="s">
+        <v>353</v>
+      </c>
+      <c r="I104" s="21"/>
+      <c r="J104" s="26" t="s">
+        <v>405</v>
+      </c>
+      <c r="K104" s="26" t="s">
+        <v>329</v>
+      </c>
+      <c r="L104" s="26" t="s">
+        <v>406</v>
+      </c>
+      <c r="M104" s="26" t="s">
+        <v>321</v>
+      </c>
+      <c r="N104" s="21"/>
+      <c r="O104" s="21" t="s">
+        <v>322</v>
+      </c>
+      <c r="P104" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q104" s="21">
+        <v>20</v>
+      </c>
+      <c r="R104" s="21" t="s">
+        <v>416</v>
+      </c>
+      <c r="S104" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="T104" s="21" t="s">
+        <v>417</v>
+      </c>
+      <c r="U104" s="21" t="s">
+        <v>418</v>
+      </c>
+      <c r="V104" s="21" t="s">
+        <v>419</v>
+      </c>
+      <c r="W104" s="21">
+        <v>1</v>
+      </c>
+      <c r="X104" s="26" t="s">
+        <v>462</v>
+      </c>
+      <c r="Y104" s="21" t="s">
+        <v>325</v>
+      </c>
+      <c r="Z104" s="21" t="s">
+        <v>327</v>
+      </c>
+      <c r="AA104" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="AB104" s="22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="105" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A105" s="20" t="s">
+        <v>303</v>
+      </c>
+      <c r="B105" s="21" t="s">
+        <v>453</v>
+      </c>
+      <c r="C105" s="21" t="s">
+        <v>460</v>
+      </c>
+      <c r="D105" s="26" t="s">
+        <v>308</v>
+      </c>
+      <c r="E105" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="F105" s="26" t="s">
+        <v>308</v>
+      </c>
+      <c r="G105" s="21"/>
+      <c r="H105" s="26" t="s">
+        <v>353</v>
+      </c>
+      <c r="I105" s="21"/>
+      <c r="J105" s="26" t="s">
+        <v>405</v>
+      </c>
+      <c r="K105" s="26" t="s">
+        <v>329</v>
+      </c>
+      <c r="L105" s="26" t="s">
+        <v>406</v>
+      </c>
+      <c r="M105" s="26" t="s">
+        <v>321</v>
+      </c>
+      <c r="N105" s="21"/>
+      <c r="O105" s="21" t="s">
+        <v>322</v>
+      </c>
+      <c r="P105" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q105" s="21">
+        <v>20</v>
+      </c>
+      <c r="R105" s="21" t="s">
+        <v>416</v>
+      </c>
+      <c r="S105" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="T105" s="21" t="s">
+        <v>417</v>
+      </c>
+      <c r="U105" s="21" t="s">
+        <v>418</v>
+      </c>
+      <c r="V105" s="21" t="s">
+        <v>419</v>
+      </c>
+      <c r="W105" s="21">
+        <v>1</v>
+      </c>
+      <c r="X105" s="26" t="s">
+        <v>462</v>
+      </c>
+      <c r="Y105" s="21" t="s">
+        <v>325</v>
+      </c>
+      <c r="Z105" s="21" t="s">
+        <v>327</v>
+      </c>
+      <c r="AA105" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="AB105" s="22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="106" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A106" s="20" t="s">
+        <v>303</v>
+      </c>
+      <c r="B106" s="21" t="s">
+        <v>454</v>
+      </c>
+      <c r="C106" s="21" t="s">
+        <v>460</v>
+      </c>
+      <c r="D106" s="26" t="s">
+        <v>308</v>
+      </c>
+      <c r="E106" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="F106" s="26" t="s">
+        <v>308</v>
+      </c>
+      <c r="G106" s="21"/>
+      <c r="H106" s="26" t="s">
+        <v>353</v>
+      </c>
+      <c r="I106" s="21"/>
+      <c r="J106" s="26" t="s">
+        <v>405</v>
+      </c>
+      <c r="K106" s="26" t="s">
+        <v>329</v>
+      </c>
+      <c r="L106" s="26" t="s">
+        <v>406</v>
+      </c>
+      <c r="M106" s="26" t="s">
+        <v>321</v>
+      </c>
+      <c r="N106" s="21"/>
+      <c r="O106" s="21" t="s">
+        <v>322</v>
+      </c>
+      <c r="P106" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q106" s="21">
+        <v>20</v>
+      </c>
+      <c r="R106" s="21" t="s">
+        <v>416</v>
+      </c>
+      <c r="S106" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="T106" s="21" t="s">
+        <v>417</v>
+      </c>
+      <c r="U106" s="21" t="s">
+        <v>418</v>
+      </c>
+      <c r="V106" s="21" t="s">
+        <v>419</v>
+      </c>
+      <c r="W106" s="21">
+        <v>1</v>
+      </c>
+      <c r="X106" s="26" t="s">
+        <v>462</v>
+      </c>
+      <c r="Y106" s="21" t="s">
+        <v>325</v>
+      </c>
+      <c r="Z106" s="21" t="s">
+        <v>327</v>
+      </c>
+      <c r="AA106" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="AB106" s="22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="107" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A107" s="20" t="s">
+        <v>303</v>
+      </c>
+      <c r="B107" s="21" t="s">
+        <v>455</v>
+      </c>
+      <c r="C107" s="21" t="s">
+        <v>460</v>
+      </c>
+      <c r="D107" s="26" t="s">
+        <v>308</v>
+      </c>
+      <c r="E107" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="F107" s="26" t="s">
+        <v>308</v>
+      </c>
+      <c r="G107" s="21"/>
+      <c r="H107" s="26" t="s">
+        <v>353</v>
+      </c>
+      <c r="I107" s="21"/>
+      <c r="J107" s="26" t="s">
+        <v>405</v>
+      </c>
+      <c r="K107" s="26" t="s">
+        <v>329</v>
+      </c>
+      <c r="L107" s="26" t="s">
+        <v>406</v>
+      </c>
+      <c r="M107" s="26" t="s">
+        <v>321</v>
+      </c>
+      <c r="N107" s="21"/>
+      <c r="O107" s="21" t="s">
+        <v>322</v>
+      </c>
+      <c r="P107" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q107" s="21">
+        <v>20</v>
+      </c>
+      <c r="R107" s="21" t="s">
+        <v>416</v>
+      </c>
+      <c r="S107" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="T107" s="21" t="s">
+        <v>417</v>
+      </c>
+      <c r="U107" s="21" t="s">
+        <v>418</v>
+      </c>
+      <c r="V107" s="21" t="s">
+        <v>419</v>
+      </c>
+      <c r="W107" s="21">
+        <v>1</v>
+      </c>
+      <c r="X107" s="26" t="s">
+        <v>462</v>
+      </c>
+      <c r="Y107" s="21" t="s">
+        <v>325</v>
+      </c>
+      <c r="Z107" s="21" t="s">
+        <v>327</v>
+      </c>
+      <c r="AA107" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="AB107" s="22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="108" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A108" s="20" t="s">
+        <v>303</v>
+      </c>
+      <c r="B108" s="21" t="s">
+        <v>456</v>
+      </c>
+      <c r="C108" s="21" t="s">
+        <v>460</v>
+      </c>
+      <c r="D108" s="26" t="s">
+        <v>308</v>
+      </c>
+      <c r="E108" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="F108" s="26" t="s">
+        <v>308</v>
+      </c>
+      <c r="G108" s="21"/>
+      <c r="H108" s="26" t="s">
+        <v>353</v>
+      </c>
+      <c r="I108" s="21"/>
+      <c r="J108" s="26" t="s">
+        <v>405</v>
+      </c>
+      <c r="K108" s="26" t="s">
+        <v>329</v>
+      </c>
+      <c r="L108" s="26" t="s">
+        <v>406</v>
+      </c>
+      <c r="M108" s="26" t="s">
+        <v>321</v>
+      </c>
+      <c r="N108" s="21"/>
+      <c r="O108" s="21" t="s">
+        <v>322</v>
+      </c>
+      <c r="P108" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q108" s="21">
+        <v>20</v>
+      </c>
+      <c r="R108" s="21" t="s">
+        <v>416</v>
+      </c>
+      <c r="S108" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="T108" s="21" t="s">
+        <v>417</v>
+      </c>
+      <c r="U108" s="21" t="s">
+        <v>418</v>
+      </c>
+      <c r="V108" s="21" t="s">
+        <v>419</v>
+      </c>
+      <c r="W108" s="21">
+        <v>1</v>
+      </c>
+      <c r="X108" s="26" t="s">
+        <v>462</v>
+      </c>
+      <c r="Y108" s="21" t="s">
+        <v>325</v>
+      </c>
+      <c r="Z108" s="21" t="s">
+        <v>327</v>
+      </c>
+      <c r="AA108" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="AB108" s="22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="109" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A109" s="20" t="s">
+        <v>303</v>
+      </c>
+      <c r="B109" s="21" t="s">
+        <v>457</v>
+      </c>
+      <c r="C109" s="21" t="s">
+        <v>460</v>
+      </c>
+      <c r="D109" s="26" t="s">
+        <v>308</v>
+      </c>
+      <c r="E109" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="F109" s="26" t="s">
+        <v>308</v>
+      </c>
+      <c r="G109" s="21"/>
+      <c r="H109" s="26" t="s">
+        <v>353</v>
+      </c>
+      <c r="I109" s="21"/>
+      <c r="J109" s="26" t="s">
+        <v>405</v>
+      </c>
+      <c r="K109" s="26" t="s">
+        <v>329</v>
+      </c>
+      <c r="L109" s="26" t="s">
+        <v>406</v>
+      </c>
+      <c r="M109" s="26" t="s">
+        <v>321</v>
+      </c>
+      <c r="N109" s="21"/>
+      <c r="O109" s="21" t="s">
+        <v>322</v>
+      </c>
+      <c r="P109" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q109" s="21">
+        <v>20</v>
+      </c>
+      <c r="R109" s="21" t="s">
+        <v>416</v>
+      </c>
+      <c r="S109" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="T109" s="21" t="s">
+        <v>417</v>
+      </c>
+      <c r="U109" s="21" t="s">
+        <v>418</v>
+      </c>
+      <c r="V109" s="21" t="s">
+        <v>419</v>
+      </c>
+      <c r="W109" s="21">
+        <v>1</v>
+      </c>
+      <c r="X109" s="26" t="s">
+        <v>462</v>
+      </c>
+      <c r="Y109" s="21" t="s">
+        <v>325</v>
+      </c>
+      <c r="Z109" s="21" t="s">
+        <v>327</v>
+      </c>
+      <c r="AA109" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="AB109" s="22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="110" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A110" s="20" t="s">
+        <v>303</v>
+      </c>
+      <c r="B110" s="21" t="s">
+        <v>458</v>
+      </c>
+      <c r="C110" s="21" t="s">
+        <v>460</v>
+      </c>
+      <c r="D110" s="26" t="s">
+        <v>308</v>
+      </c>
+      <c r="E110" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="F110" s="26" t="s">
+        <v>308</v>
+      </c>
+      <c r="G110" s="21"/>
+      <c r="H110" s="26" t="s">
+        <v>353</v>
+      </c>
+      <c r="I110" s="21"/>
+      <c r="J110" s="26" t="s">
+        <v>405</v>
+      </c>
+      <c r="K110" s="26" t="s">
+        <v>329</v>
+      </c>
+      <c r="L110" s="26" t="s">
+        <v>406</v>
+      </c>
+      <c r="M110" s="26" t="s">
+        <v>321</v>
+      </c>
+      <c r="N110" s="21"/>
+      <c r="O110" s="21" t="s">
+        <v>322</v>
+      </c>
+      <c r="P110" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q110" s="21">
+        <v>20</v>
+      </c>
+      <c r="R110" s="21" t="s">
+        <v>416</v>
+      </c>
+      <c r="S110" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="T110" s="21" t="s">
+        <v>417</v>
+      </c>
+      <c r="U110" s="21" t="s">
+        <v>418</v>
+      </c>
+      <c r="V110" s="21" t="s">
+        <v>419</v>
+      </c>
+      <c r="W110" s="21">
+        <v>1</v>
+      </c>
+      <c r="X110" s="26" t="s">
+        <v>462</v>
+      </c>
+      <c r="Y110" s="21" t="s">
+        <v>325</v>
+      </c>
+      <c r="Z110" s="21" t="s">
+        <v>327</v>
+      </c>
+      <c r="AA110" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="AB110" s="22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="111" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="23" t="s">
+        <v>303</v>
+      </c>
+      <c r="B111" s="24" t="s">
+        <v>459</v>
+      </c>
+      <c r="C111" s="24" t="s">
+        <v>460</v>
+      </c>
+      <c r="D111" s="28" t="s">
+        <v>308</v>
+      </c>
+      <c r="E111" s="24" t="s">
+        <v>308</v>
+      </c>
+      <c r="F111" s="28" t="s">
+        <v>308</v>
+      </c>
+      <c r="G111" s="24"/>
+      <c r="H111" s="28" t="s">
+        <v>353</v>
+      </c>
+      <c r="I111" s="24"/>
+      <c r="J111" s="28" t="s">
+        <v>405</v>
+      </c>
+      <c r="K111" s="28" t="s">
+        <v>329</v>
+      </c>
+      <c r="L111" s="28" t="s">
+        <v>406</v>
+      </c>
+      <c r="M111" s="28" t="s">
+        <v>321</v>
+      </c>
+      <c r="N111" s="24"/>
+      <c r="O111" s="24" t="s">
+        <v>322</v>
+      </c>
+      <c r="P111" s="24" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q111" s="24">
+        <v>20</v>
+      </c>
+      <c r="R111" s="24" t="s">
+        <v>416</v>
+      </c>
+      <c r="S111" s="24" t="s">
+        <v>320</v>
+      </c>
+      <c r="T111" s="24" t="s">
+        <v>417</v>
+      </c>
+      <c r="U111" s="24" t="s">
+        <v>418</v>
+      </c>
+      <c r="V111" s="24" t="s">
+        <v>419</v>
+      </c>
+      <c r="W111" s="24">
+        <v>1</v>
+      </c>
+      <c r="X111" s="28" t="s">
+        <v>462</v>
+      </c>
+      <c r="Y111" s="24" t="s">
+        <v>325</v>
+      </c>
+      <c r="Z111" s="24" t="s">
+        <v>327</v>
+      </c>
+      <c r="AA111" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="AB111" s="25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="112" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="17" t="s">
+        <v>303</v>
+      </c>
+      <c r="B112" s="18" t="s">
+        <v>463</v>
+      </c>
+      <c r="C112" s="18" t="s">
+        <v>460</v>
+      </c>
+      <c r="D112" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="E112" s="18" t="s">
+        <v>308</v>
+      </c>
+      <c r="F112" s="27" t="s">
+        <v>308</v>
+      </c>
+      <c r="G112" s="18"/>
+      <c r="H112" s="27" t="s">
+        <v>353</v>
+      </c>
+      <c r="I112" s="18"/>
+      <c r="J112" s="27" t="s">
+        <v>405</v>
+      </c>
+      <c r="K112" s="27" t="s">
+        <v>329</v>
+      </c>
+      <c r="L112" s="27" t="s">
+        <v>406</v>
+      </c>
+      <c r="M112" s="27" t="s">
+        <v>321</v>
+      </c>
+      <c r="N112" s="18"/>
+      <c r="O112" s="18" t="s">
+        <v>322</v>
+      </c>
+      <c r="P112" s="18" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q112" s="18">
+        <v>20</v>
+      </c>
+      <c r="R112" s="18" t="s">
+        <v>416</v>
+      </c>
+      <c r="S112" s="18" t="s">
+        <v>320</v>
+      </c>
+      <c r="T112" s="18" t="s">
+        <v>417</v>
+      </c>
+      <c r="U112" s="18" t="s">
+        <v>418</v>
+      </c>
+      <c r="V112" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="W112" s="18">
+        <v>1</v>
+      </c>
+      <c r="X112" s="27" t="s">
+        <v>462</v>
+      </c>
+      <c r="Y112" s="18" t="s">
+        <v>325</v>
+      </c>
+      <c r="Z112" s="18" t="s">
+        <v>327</v>
+      </c>
+      <c r="AA112" s="18" t="s">
+        <v>263</v>
+      </c>
+      <c r="AB112" s="19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="113" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="20" t="s">
+        <v>303</v>
+      </c>
+      <c r="B113" s="21" t="s">
+        <v>464</v>
+      </c>
+      <c r="C113" s="21" t="s">
+        <v>460</v>
+      </c>
+      <c r="D113" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="E113" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="F113" s="26" t="s">
+        <v>308</v>
+      </c>
+      <c r="G113" s="21"/>
+      <c r="H113" s="26" t="s">
+        <v>353</v>
+      </c>
+      <c r="I113" s="21"/>
+      <c r="J113" s="26" t="s">
+        <v>405</v>
+      </c>
+      <c r="K113" s="26" t="s">
+        <v>329</v>
+      </c>
+      <c r="L113" s="26" t="s">
+        <v>406</v>
+      </c>
+      <c r="M113" s="26" t="s">
+        <v>321</v>
+      </c>
+      <c r="N113" s="21"/>
+      <c r="O113" s="21" t="s">
+        <v>322</v>
+      </c>
+      <c r="P113" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q113" s="21">
+        <v>20</v>
+      </c>
+      <c r="R113" s="21" t="s">
+        <v>416</v>
+      </c>
+      <c r="S113" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="T113" s="21" t="s">
+        <v>417</v>
+      </c>
+      <c r="U113" s="21" t="s">
+        <v>418</v>
+      </c>
+      <c r="V113" s="21" t="s">
+        <v>419</v>
+      </c>
+      <c r="W113" s="21">
+        <v>1</v>
+      </c>
+      <c r="X113" s="26" t="s">
+        <v>462</v>
+      </c>
+      <c r="Y113" s="21" t="s">
+        <v>325</v>
+      </c>
+      <c r="Z113" s="21" t="s">
+        <v>327</v>
+      </c>
+      <c r="AA113" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="AB113" s="22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="114" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="20" t="s">
+        <v>303</v>
+      </c>
+      <c r="B114" s="21" t="s">
+        <v>465</v>
+      </c>
+      <c r="C114" s="21" t="s">
+        <v>460</v>
+      </c>
+      <c r="D114" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="E114" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="F114" s="26" t="s">
+        <v>308</v>
+      </c>
+      <c r="G114" s="21"/>
+      <c r="H114" s="26" t="s">
+        <v>353</v>
+      </c>
+      <c r="I114" s="21"/>
+      <c r="J114" s="26" t="s">
+        <v>405</v>
+      </c>
+      <c r="K114" s="26" t="s">
+        <v>329</v>
+      </c>
+      <c r="L114" s="26" t="s">
+        <v>406</v>
+      </c>
+      <c r="M114" s="26" t="s">
+        <v>321</v>
+      </c>
+      <c r="N114" s="21"/>
+      <c r="O114" s="21" t="s">
+        <v>322</v>
+      </c>
+      <c r="P114" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q114" s="21">
+        <v>20</v>
+      </c>
+      <c r="R114" s="21" t="s">
+        <v>416</v>
+      </c>
+      <c r="S114" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="T114" s="21" t="s">
+        <v>417</v>
+      </c>
+      <c r="U114" s="21" t="s">
+        <v>418</v>
+      </c>
+      <c r="V114" s="21" t="s">
+        <v>419</v>
+      </c>
+      <c r="W114" s="21">
+        <v>1</v>
+      </c>
+      <c r="X114" s="26" t="s">
+        <v>462</v>
+      </c>
+      <c r="Y114" s="21" t="s">
+        <v>325</v>
+      </c>
+      <c r="Z114" s="21" t="s">
+        <v>327</v>
+      </c>
+      <c r="AA114" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="AB114" s="22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="115" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="20" t="s">
+        <v>303</v>
+      </c>
+      <c r="B115" s="21" t="s">
+        <v>466</v>
+      </c>
+      <c r="C115" s="21" t="s">
+        <v>460</v>
+      </c>
+      <c r="D115" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="E115" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="F115" s="26" t="s">
+        <v>308</v>
+      </c>
+      <c r="G115" s="21"/>
+      <c r="H115" s="26" t="s">
+        <v>353</v>
+      </c>
+      <c r="I115" s="21"/>
+      <c r="J115" s="26" t="s">
+        <v>405</v>
+      </c>
+      <c r="K115" s="26" t="s">
+        <v>329</v>
+      </c>
+      <c r="L115" s="26" t="s">
+        <v>406</v>
+      </c>
+      <c r="M115" s="26" t="s">
+        <v>321</v>
+      </c>
+      <c r="N115" s="21"/>
+      <c r="O115" s="21" t="s">
+        <v>322</v>
+      </c>
+      <c r="P115" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q115" s="21">
+        <v>20</v>
+      </c>
+      <c r="R115" s="21" t="s">
+        <v>416</v>
+      </c>
+      <c r="S115" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="T115" s="21" t="s">
+        <v>417</v>
+      </c>
+      <c r="U115" s="21" t="s">
+        <v>418</v>
+      </c>
+      <c r="V115" s="21" t="s">
+        <v>419</v>
+      </c>
+      <c r="W115" s="21">
+        <v>1</v>
+      </c>
+      <c r="X115" s="26" t="s">
+        <v>462</v>
+      </c>
+      <c r="Y115" s="21" t="s">
+        <v>325</v>
+      </c>
+      <c r="Z115" s="21" t="s">
+        <v>327</v>
+      </c>
+      <c r="AA115" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="AB115" s="22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="116" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="20" t="s">
+        <v>303</v>
+      </c>
+      <c r="B116" s="21" t="s">
+        <v>467</v>
+      </c>
+      <c r="C116" s="21" t="s">
+        <v>460</v>
+      </c>
+      <c r="D116" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="E116" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="F116" s="26" t="s">
+        <v>308</v>
+      </c>
+      <c r="G116" s="21"/>
+      <c r="H116" s="26" t="s">
+        <v>353</v>
+      </c>
+      <c r="I116" s="21"/>
+      <c r="J116" s="26" t="s">
+        <v>405</v>
+      </c>
+      <c r="K116" s="26" t="s">
+        <v>329</v>
+      </c>
+      <c r="L116" s="26" t="s">
+        <v>406</v>
+      </c>
+      <c r="M116" s="26" t="s">
+        <v>321</v>
+      </c>
+      <c r="N116" s="21"/>
+      <c r="O116" s="21" t="s">
+        <v>322</v>
+      </c>
+      <c r="P116" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q116" s="21">
+        <v>20</v>
+      </c>
+      <c r="R116" s="21" t="s">
+        <v>416</v>
+      </c>
+      <c r="S116" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="T116" s="21" t="s">
+        <v>417</v>
+      </c>
+      <c r="U116" s="21" t="s">
+        <v>418</v>
+      </c>
+      <c r="V116" s="21" t="s">
+        <v>419</v>
+      </c>
+      <c r="W116" s="21">
+        <v>1</v>
+      </c>
+      <c r="X116" s="26" t="s">
+        <v>462</v>
+      </c>
+      <c r="Y116" s="21" t="s">
+        <v>325</v>
+      </c>
+      <c r="Z116" s="21" t="s">
+        <v>327</v>
+      </c>
+      <c r="AA116" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="AB116" s="22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="117" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="20" t="s">
+        <v>303</v>
+      </c>
+      <c r="B117" s="21" t="s">
+        <v>468</v>
+      </c>
+      <c r="C117" s="21" t="s">
+        <v>460</v>
+      </c>
+      <c r="D117" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="E117" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="F117" s="26" t="s">
+        <v>308</v>
+      </c>
+      <c r="G117" s="21"/>
+      <c r="H117" s="26" t="s">
+        <v>353</v>
+      </c>
+      <c r="I117" s="21"/>
+      <c r="J117" s="26" t="s">
+        <v>405</v>
+      </c>
+      <c r="K117" s="26" t="s">
+        <v>329</v>
+      </c>
+      <c r="L117" s="26" t="s">
+        <v>406</v>
+      </c>
+      <c r="M117" s="26" t="s">
+        <v>321</v>
+      </c>
+      <c r="N117" s="21"/>
+      <c r="O117" s="21" t="s">
+        <v>322</v>
+      </c>
+      <c r="P117" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q117" s="21">
+        <v>20</v>
+      </c>
+      <c r="R117" s="21" t="s">
+        <v>416</v>
+      </c>
+      <c r="S117" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="T117" s="21" t="s">
+        <v>417</v>
+      </c>
+      <c r="U117" s="21" t="s">
+        <v>418</v>
+      </c>
+      <c r="V117" s="21" t="s">
+        <v>419</v>
+      </c>
+      <c r="W117" s="21">
+        <v>1</v>
+      </c>
+      <c r="X117" s="26" t="s">
+        <v>462</v>
+      </c>
+      <c r="Y117" s="21" t="s">
+        <v>325</v>
+      </c>
+      <c r="Z117" s="21" t="s">
+        <v>327</v>
+      </c>
+      <c r="AA117" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="AB117" s="22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="118" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="20" t="s">
+        <v>303</v>
+      </c>
+      <c r="B118" s="21" t="s">
+        <v>469</v>
+      </c>
+      <c r="C118" s="21" t="s">
+        <v>460</v>
+      </c>
+      <c r="D118" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="E118" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="F118" s="26" t="s">
+        <v>308</v>
+      </c>
+      <c r="G118" s="21"/>
+      <c r="H118" s="26" t="s">
+        <v>353</v>
+      </c>
+      <c r="I118" s="21"/>
+      <c r="J118" s="26" t="s">
+        <v>405</v>
+      </c>
+      <c r="K118" s="26" t="s">
+        <v>329</v>
+      </c>
+      <c r="L118" s="26" t="s">
+        <v>406</v>
+      </c>
+      <c r="M118" s="26" t="s">
+        <v>321</v>
+      </c>
+      <c r="N118" s="21"/>
+      <c r="O118" s="21" t="s">
+        <v>322</v>
+      </c>
+      <c r="P118" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q118" s="21">
+        <v>20</v>
+      </c>
+      <c r="R118" s="21" t="s">
+        <v>416</v>
+      </c>
+      <c r="S118" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="T118" s="21" t="s">
+        <v>417</v>
+      </c>
+      <c r="U118" s="21" t="s">
+        <v>418</v>
+      </c>
+      <c r="V118" s="21" t="s">
+        <v>419</v>
+      </c>
+      <c r="W118" s="21">
+        <v>1</v>
+      </c>
+      <c r="X118" s="26" t="s">
+        <v>462</v>
+      </c>
+      <c r="Y118" s="21" t="s">
+        <v>325</v>
+      </c>
+      <c r="Z118" s="21" t="s">
+        <v>327</v>
+      </c>
+      <c r="AA118" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="AB118" s="22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="119" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="20" t="s">
+        <v>303</v>
+      </c>
+      <c r="B119" s="21" t="s">
+        <v>470</v>
+      </c>
+      <c r="C119" s="21" t="s">
+        <v>460</v>
+      </c>
+      <c r="D119" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="E119" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="F119" s="26" t="s">
+        <v>308</v>
+      </c>
+      <c r="G119" s="21"/>
+      <c r="H119" s="26" t="s">
+        <v>353</v>
+      </c>
+      <c r="I119" s="21"/>
+      <c r="J119" s="26" t="s">
+        <v>405</v>
+      </c>
+      <c r="K119" s="26" t="s">
+        <v>329</v>
+      </c>
+      <c r="L119" s="26" t="s">
+        <v>406</v>
+      </c>
+      <c r="M119" s="26" t="s">
+        <v>321</v>
+      </c>
+      <c r="N119" s="21"/>
+      <c r="O119" s="21" t="s">
+        <v>322</v>
+      </c>
+      <c r="P119" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q119" s="21">
+        <v>20</v>
+      </c>
+      <c r="R119" s="21" t="s">
+        <v>416</v>
+      </c>
+      <c r="S119" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="T119" s="21" t="s">
+        <v>417</v>
+      </c>
+      <c r="U119" s="21" t="s">
+        <v>418</v>
+      </c>
+      <c r="V119" s="21" t="s">
+        <v>419</v>
+      </c>
+      <c r="W119" s="21">
+        <v>1</v>
+      </c>
+      <c r="X119" s="26" t="s">
+        <v>462</v>
+      </c>
+      <c r="Y119" s="21" t="s">
+        <v>325</v>
+      </c>
+      <c r="Z119" s="21" t="s">
+        <v>327</v>
+      </c>
+      <c r="AA119" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="AB119" s="22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="120" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="20" t="s">
+        <v>303</v>
+      </c>
+      <c r="B120" s="21" t="s">
+        <v>471</v>
+      </c>
+      <c r="C120" s="21" t="s">
+        <v>460</v>
+      </c>
+      <c r="D120" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="E120" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="F120" s="26" t="s">
+        <v>308</v>
+      </c>
+      <c r="G120" s="21"/>
+      <c r="H120" s="26" t="s">
+        <v>353</v>
+      </c>
+      <c r="I120" s="21"/>
+      <c r="J120" s="26" t="s">
+        <v>405</v>
+      </c>
+      <c r="K120" s="26" t="s">
+        <v>329</v>
+      </c>
+      <c r="L120" s="26" t="s">
+        <v>406</v>
+      </c>
+      <c r="M120" s="26" t="s">
+        <v>321</v>
+      </c>
+      <c r="N120" s="21"/>
+      <c r="O120" s="21" t="s">
+        <v>322</v>
+      </c>
+      <c r="P120" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q120" s="21">
+        <v>20</v>
+      </c>
+      <c r="R120" s="21" t="s">
+        <v>416</v>
+      </c>
+      <c r="S120" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="T120" s="21" t="s">
+        <v>417</v>
+      </c>
+      <c r="U120" s="21" t="s">
+        <v>418</v>
+      </c>
+      <c r="V120" s="21" t="s">
+        <v>419</v>
+      </c>
+      <c r="W120" s="21">
+        <v>1</v>
+      </c>
+      <c r="X120" s="26" t="s">
+        <v>462</v>
+      </c>
+      <c r="Y120" s="21" t="s">
+        <v>325</v>
+      </c>
+      <c r="Z120" s="21" t="s">
+        <v>327</v>
+      </c>
+      <c r="AA120" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="AB120" s="22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="121" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="20" t="s">
+        <v>303</v>
+      </c>
+      <c r="B121" s="21" t="s">
+        <v>472</v>
+      </c>
+      <c r="C121" s="21" t="s">
+        <v>460</v>
+      </c>
+      <c r="D121" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="E121" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="F121" s="26" t="s">
+        <v>308</v>
+      </c>
+      <c r="G121" s="21"/>
+      <c r="H121" s="26" t="s">
+        <v>353</v>
+      </c>
+      <c r="I121" s="21"/>
+      <c r="J121" s="26" t="s">
+        <v>405</v>
+      </c>
+      <c r="K121" s="26" t="s">
+        <v>329</v>
+      </c>
+      <c r="L121" s="26" t="s">
+        <v>406</v>
+      </c>
+      <c r="M121" s="26" t="s">
+        <v>321</v>
+      </c>
+      <c r="N121" s="21"/>
+      <c r="O121" s="21" t="s">
+        <v>322</v>
+      </c>
+      <c r="P121" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q121" s="21">
+        <v>20</v>
+      </c>
+      <c r="R121" s="21" t="s">
+        <v>416</v>
+      </c>
+      <c r="S121" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="T121" s="21" t="s">
+        <v>417</v>
+      </c>
+      <c r="U121" s="21" t="s">
+        <v>418</v>
+      </c>
+      <c r="V121" s="21" t="s">
+        <v>419</v>
+      </c>
+      <c r="W121" s="21">
+        <v>1</v>
+      </c>
+      <c r="X121" s="26" t="s">
+        <v>462</v>
+      </c>
+      <c r="Y121" s="21" t="s">
+        <v>325</v>
+      </c>
+      <c r="Z121" s="21" t="s">
+        <v>327</v>
+      </c>
+      <c r="AA121" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="AB121" s="22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="122" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="20" t="s">
+        <v>303</v>
+      </c>
+      <c r="B122" s="21" t="s">
+        <v>473</v>
+      </c>
+      <c r="C122" s="21" t="s">
+        <v>460</v>
+      </c>
+      <c r="D122" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="E122" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="F122" s="26" t="s">
+        <v>308</v>
+      </c>
+      <c r="G122" s="21"/>
+      <c r="H122" s="26" t="s">
+        <v>353</v>
+      </c>
+      <c r="I122" s="21"/>
+      <c r="J122" s="26" t="s">
+        <v>405</v>
+      </c>
+      <c r="K122" s="26" t="s">
+        <v>329</v>
+      </c>
+      <c r="L122" s="26" t="s">
+        <v>406</v>
+      </c>
+      <c r="M122" s="26" t="s">
+        <v>321</v>
+      </c>
+      <c r="N122" s="21"/>
+      <c r="O122" s="21" t="s">
+        <v>322</v>
+      </c>
+      <c r="P122" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q122" s="21">
+        <v>20</v>
+      </c>
+      <c r="R122" s="21" t="s">
+        <v>416</v>
+      </c>
+      <c r="S122" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="T122" s="21" t="s">
+        <v>417</v>
+      </c>
+      <c r="U122" s="21" t="s">
+        <v>418</v>
+      </c>
+      <c r="V122" s="21" t="s">
+        <v>419</v>
+      </c>
+      <c r="W122" s="21">
+        <v>1</v>
+      </c>
+      <c r="X122" s="26" t="s">
+        <v>462</v>
+      </c>
+      <c r="Y122" s="21" t="s">
+        <v>325</v>
+      </c>
+      <c r="Z122" s="21" t="s">
+        <v>327</v>
+      </c>
+      <c r="AA122" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="AB122" s="22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="123" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="20" t="s">
+        <v>303</v>
+      </c>
+      <c r="B123" s="21" t="s">
+        <v>474</v>
+      </c>
+      <c r="C123" s="21" t="s">
+        <v>460</v>
+      </c>
+      <c r="D123" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="E123" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="F123" s="26" t="s">
+        <v>308</v>
+      </c>
+      <c r="G123" s="21"/>
+      <c r="H123" s="26" t="s">
+        <v>353</v>
+      </c>
+      <c r="I123" s="21"/>
+      <c r="J123" s="26" t="s">
+        <v>405</v>
+      </c>
+      <c r="K123" s="26" t="s">
+        <v>329</v>
+      </c>
+      <c r="L123" s="26" t="s">
+        <v>406</v>
+      </c>
+      <c r="M123" s="26" t="s">
+        <v>321</v>
+      </c>
+      <c r="N123" s="21"/>
+      <c r="O123" s="21" t="s">
+        <v>322</v>
+      </c>
+      <c r="P123" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q123" s="21">
+        <v>20</v>
+      </c>
+      <c r="R123" s="21" t="s">
+        <v>416</v>
+      </c>
+      <c r="S123" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="T123" s="21" t="s">
+        <v>417</v>
+      </c>
+      <c r="U123" s="21" t="s">
+        <v>418</v>
+      </c>
+      <c r="V123" s="21" t="s">
+        <v>419</v>
+      </c>
+      <c r="W123" s="21">
+        <v>1</v>
+      </c>
+      <c r="X123" s="26" t="s">
+        <v>462</v>
+      </c>
+      <c r="Y123" s="21" t="s">
+        <v>325</v>
+      </c>
+      <c r="Z123" s="21" t="s">
+        <v>327</v>
+      </c>
+      <c r="AA123" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="AB123" s="22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="124" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="20" t="s">
+        <v>303</v>
+      </c>
+      <c r="B124" s="21" t="s">
+        <v>475</v>
+      </c>
+      <c r="C124" s="21" t="s">
+        <v>460</v>
+      </c>
+      <c r="D124" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="E124" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="F124" s="26" t="s">
+        <v>308</v>
+      </c>
+      <c r="G124" s="21"/>
+      <c r="H124" s="26" t="s">
+        <v>353</v>
+      </c>
+      <c r="I124" s="21"/>
+      <c r="J124" s="26" t="s">
+        <v>405</v>
+      </c>
+      <c r="K124" s="26" t="s">
+        <v>329</v>
+      </c>
+      <c r="L124" s="26" t="s">
+        <v>406</v>
+      </c>
+      <c r="M124" s="26" t="s">
+        <v>321</v>
+      </c>
+      <c r="N124" s="21"/>
+      <c r="O124" s="21" t="s">
+        <v>322</v>
+      </c>
+      <c r="P124" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q124" s="21">
+        <v>20</v>
+      </c>
+      <c r="R124" s="21" t="s">
+        <v>416</v>
+      </c>
+      <c r="S124" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="T124" s="21" t="s">
+        <v>417</v>
+      </c>
+      <c r="U124" s="21" t="s">
+        <v>418</v>
+      </c>
+      <c r="V124" s="21" t="s">
+        <v>419</v>
+      </c>
+      <c r="W124" s="21">
+        <v>1</v>
+      </c>
+      <c r="X124" s="26" t="s">
+        <v>462</v>
+      </c>
+      <c r="Y124" s="21" t="s">
+        <v>325</v>
+      </c>
+      <c r="Z124" s="21" t="s">
+        <v>327</v>
+      </c>
+      <c r="AA124" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="AB124" s="22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="125" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="20" t="s">
+        <v>303</v>
+      </c>
+      <c r="B125" s="21" t="s">
+        <v>476</v>
+      </c>
+      <c r="C125" s="21" t="s">
+        <v>460</v>
+      </c>
+      <c r="D125" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="E125" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="F125" s="26" t="s">
+        <v>308</v>
+      </c>
+      <c r="G125" s="21"/>
+      <c r="H125" s="26" t="s">
+        <v>353</v>
+      </c>
+      <c r="I125" s="21"/>
+      <c r="J125" s="26" t="s">
+        <v>405</v>
+      </c>
+      <c r="K125" s="26" t="s">
+        <v>329</v>
+      </c>
+      <c r="L125" s="26" t="s">
+        <v>406</v>
+      </c>
+      <c r="M125" s="26" t="s">
+        <v>321</v>
+      </c>
+      <c r="N125" s="21"/>
+      <c r="O125" s="21" t="s">
+        <v>322</v>
+      </c>
+      <c r="P125" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q125" s="21">
+        <v>20</v>
+      </c>
+      <c r="R125" s="21" t="s">
+        <v>416</v>
+      </c>
+      <c r="S125" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="T125" s="21" t="s">
+        <v>417</v>
+      </c>
+      <c r="U125" s="21" t="s">
+        <v>418</v>
+      </c>
+      <c r="V125" s="21" t="s">
+        <v>419</v>
+      </c>
+      <c r="W125" s="21">
+        <v>1</v>
+      </c>
+      <c r="X125" s="26" t="s">
+        <v>462</v>
+      </c>
+      <c r="Y125" s="21" t="s">
+        <v>325</v>
+      </c>
+      <c r="Z125" s="21" t="s">
+        <v>327</v>
+      </c>
+      <c r="AA125" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="AB125" s="22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="126" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="20" t="s">
+        <v>303</v>
+      </c>
+      <c r="B126" s="21" t="s">
+        <v>477</v>
+      </c>
+      <c r="C126" s="21" t="s">
+        <v>460</v>
+      </c>
+      <c r="D126" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="E126" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="F126" s="26" t="s">
+        <v>308</v>
+      </c>
+      <c r="G126" s="21"/>
+      <c r="H126" s="26" t="s">
+        <v>353</v>
+      </c>
+      <c r="I126" s="21"/>
+      <c r="J126" s="26" t="s">
+        <v>405</v>
+      </c>
+      <c r="K126" s="26" t="s">
+        <v>329</v>
+      </c>
+      <c r="L126" s="26" t="s">
+        <v>406</v>
+      </c>
+      <c r="M126" s="26" t="s">
+        <v>321</v>
+      </c>
+      <c r="N126" s="21"/>
+      <c r="O126" s="21" t="s">
+        <v>322</v>
+      </c>
+      <c r="P126" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q126" s="21">
+        <v>20</v>
+      </c>
+      <c r="R126" s="21" t="s">
+        <v>416</v>
+      </c>
+      <c r="S126" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="T126" s="21" t="s">
+        <v>417</v>
+      </c>
+      <c r="U126" s="21" t="s">
+        <v>418</v>
+      </c>
+      <c r="V126" s="21" t="s">
+        <v>419</v>
+      </c>
+      <c r="W126" s="21">
+        <v>1</v>
+      </c>
+      <c r="X126" s="26" t="s">
+        <v>462</v>
+      </c>
+      <c r="Y126" s="21" t="s">
+        <v>325</v>
+      </c>
+      <c r="Z126" s="21" t="s">
+        <v>327</v>
+      </c>
+      <c r="AA126" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="AB126" s="22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="127" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="20" t="s">
+        <v>303</v>
+      </c>
+      <c r="B127" s="21" t="s">
+        <v>478</v>
+      </c>
+      <c r="C127" s="21" t="s">
+        <v>460</v>
+      </c>
+      <c r="D127" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="E127" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="F127" s="26" t="s">
+        <v>308</v>
+      </c>
+      <c r="G127" s="21"/>
+      <c r="H127" s="26" t="s">
+        <v>353</v>
+      </c>
+      <c r="I127" s="21"/>
+      <c r="J127" s="26" t="s">
+        <v>405</v>
+      </c>
+      <c r="K127" s="26" t="s">
+        <v>329</v>
+      </c>
+      <c r="L127" s="26" t="s">
+        <v>406</v>
+      </c>
+      <c r="M127" s="26" t="s">
+        <v>321</v>
+      </c>
+      <c r="N127" s="21"/>
+      <c r="O127" s="21" t="s">
+        <v>322</v>
+      </c>
+      <c r="P127" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q127" s="21">
+        <v>20</v>
+      </c>
+      <c r="R127" s="21" t="s">
+        <v>416</v>
+      </c>
+      <c r="S127" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="T127" s="21" t="s">
+        <v>417</v>
+      </c>
+      <c r="U127" s="21" t="s">
+        <v>418</v>
+      </c>
+      <c r="V127" s="21" t="s">
+        <v>419</v>
+      </c>
+      <c r="W127" s="21">
+        <v>1</v>
+      </c>
+      <c r="X127" s="26" t="s">
+        <v>462</v>
+      </c>
+      <c r="Y127" s="21" t="s">
+        <v>325</v>
+      </c>
+      <c r="Z127" s="21" t="s">
+        <v>327</v>
+      </c>
+      <c r="AA127" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="AB127" s="22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="128" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="20" t="s">
+        <v>303</v>
+      </c>
+      <c r="B128" s="21" t="s">
+        <v>479</v>
+      </c>
+      <c r="C128" s="21" t="s">
+        <v>460</v>
+      </c>
+      <c r="D128" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="E128" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="F128" s="26" t="s">
+        <v>308</v>
+      </c>
+      <c r="G128" s="21"/>
+      <c r="H128" s="26" t="s">
+        <v>353</v>
+      </c>
+      <c r="I128" s="21"/>
+      <c r="J128" s="26" t="s">
+        <v>405</v>
+      </c>
+      <c r="K128" s="26" t="s">
+        <v>329</v>
+      </c>
+      <c r="L128" s="26" t="s">
+        <v>406</v>
+      </c>
+      <c r="M128" s="26" t="s">
+        <v>321</v>
+      </c>
+      <c r="N128" s="21"/>
+      <c r="O128" s="21" t="s">
+        <v>322</v>
+      </c>
+      <c r="P128" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q128" s="21">
+        <v>20</v>
+      </c>
+      <c r="R128" s="21" t="s">
+        <v>416</v>
+      </c>
+      <c r="S128" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="T128" s="21" t="s">
+        <v>417</v>
+      </c>
+      <c r="U128" s="21" t="s">
+        <v>418</v>
+      </c>
+      <c r="V128" s="21" t="s">
+        <v>419</v>
+      </c>
+      <c r="W128" s="21">
+        <v>1</v>
+      </c>
+      <c r="X128" s="26" t="s">
+        <v>462</v>
+      </c>
+      <c r="Y128" s="21" t="s">
+        <v>325</v>
+      </c>
+      <c r="Z128" s="21" t="s">
+        <v>327</v>
+      </c>
+      <c r="AA128" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="AB128" s="22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="129" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="20" t="s">
+        <v>303</v>
+      </c>
+      <c r="B129" s="21" t="s">
+        <v>480</v>
+      </c>
+      <c r="C129" s="21" t="s">
+        <v>460</v>
+      </c>
+      <c r="D129" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="E129" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="F129" s="26" t="s">
+        <v>308</v>
+      </c>
+      <c r="G129" s="21"/>
+      <c r="H129" s="26" t="s">
+        <v>353</v>
+      </c>
+      <c r="I129" s="21"/>
+      <c r="J129" s="26" t="s">
+        <v>405</v>
+      </c>
+      <c r="K129" s="26" t="s">
+        <v>329</v>
+      </c>
+      <c r="L129" s="26" t="s">
+        <v>406</v>
+      </c>
+      <c r="M129" s="26" t="s">
+        <v>321</v>
+      </c>
+      <c r="N129" s="21"/>
+      <c r="O129" s="21" t="s">
+        <v>322</v>
+      </c>
+      <c r="P129" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q129" s="21">
+        <v>20</v>
+      </c>
+      <c r="R129" s="21" t="s">
+        <v>416</v>
+      </c>
+      <c r="S129" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="T129" s="21" t="s">
+        <v>417</v>
+      </c>
+      <c r="U129" s="21" t="s">
+        <v>418</v>
+      </c>
+      <c r="V129" s="21" t="s">
+        <v>419</v>
+      </c>
+      <c r="W129" s="21">
+        <v>1</v>
+      </c>
+      <c r="X129" s="26" t="s">
+        <v>462</v>
+      </c>
+      <c r="Y129" s="21" t="s">
+        <v>325</v>
+      </c>
+      <c r="Z129" s="21" t="s">
+        <v>327</v>
+      </c>
+      <c r="AA129" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="AB129" s="22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="130" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="20" t="s">
+        <v>303</v>
+      </c>
+      <c r="B130" s="21" t="s">
+        <v>481</v>
+      </c>
+      <c r="C130" s="21" t="s">
+        <v>460</v>
+      </c>
+      <c r="D130" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="E130" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="F130" s="26" t="s">
+        <v>308</v>
+      </c>
+      <c r="G130" s="21"/>
+      <c r="H130" s="26" t="s">
+        <v>353</v>
+      </c>
+      <c r="I130" s="21"/>
+      <c r="J130" s="26" t="s">
+        <v>405</v>
+      </c>
+      <c r="K130" s="26" t="s">
+        <v>329</v>
+      </c>
+      <c r="L130" s="26" t="s">
+        <v>406</v>
+      </c>
+      <c r="M130" s="26" t="s">
+        <v>321</v>
+      </c>
+      <c r="N130" s="21"/>
+      <c r="O130" s="21" t="s">
+        <v>322</v>
+      </c>
+      <c r="P130" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q130" s="21">
+        <v>20</v>
+      </c>
+      <c r="R130" s="21" t="s">
+        <v>416</v>
+      </c>
+      <c r="S130" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="T130" s="21" t="s">
+        <v>417</v>
+      </c>
+      <c r="U130" s="21" t="s">
+        <v>418</v>
+      </c>
+      <c r="V130" s="21" t="s">
+        <v>419</v>
+      </c>
+      <c r="W130" s="21">
+        <v>1</v>
+      </c>
+      <c r="X130" s="26" t="s">
+        <v>462</v>
+      </c>
+      <c r="Y130" s="21" t="s">
+        <v>325</v>
+      </c>
+      <c r="Z130" s="21" t="s">
+        <v>327</v>
+      </c>
+      <c r="AA130" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="AB130" s="22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="131" spans="1:28" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A131" s="23" t="s">
+        <v>303</v>
+      </c>
+      <c r="B131" s="24" t="s">
+        <v>482</v>
+      </c>
+      <c r="C131" s="24" t="s">
+        <v>460</v>
+      </c>
+      <c r="D131" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="E131" s="24" t="s">
+        <v>308</v>
+      </c>
+      <c r="F131" s="28" t="s">
+        <v>308</v>
+      </c>
+      <c r="G131" s="24"/>
+      <c r="H131" s="28" t="s">
+        <v>353</v>
+      </c>
+      <c r="I131" s="24"/>
+      <c r="J131" s="28" t="s">
+        <v>405</v>
+      </c>
+      <c r="K131" s="28" t="s">
+        <v>329</v>
+      </c>
+      <c r="L131" s="28" t="s">
+        <v>406</v>
+      </c>
+      <c r="M131" s="28" t="s">
+        <v>321</v>
+      </c>
+      <c r="N131" s="24"/>
+      <c r="O131" s="24" t="s">
+        <v>322</v>
+      </c>
+      <c r="P131" s="24" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q131" s="24">
+        <v>20</v>
+      </c>
+      <c r="R131" s="24" t="s">
+        <v>416</v>
+      </c>
+      <c r="S131" s="24" t="s">
+        <v>320</v>
+      </c>
+      <c r="T131" s="24" t="s">
+        <v>417</v>
+      </c>
+      <c r="U131" s="24" t="s">
+        <v>418</v>
+      </c>
+      <c r="V131" s="24" t="s">
+        <v>419</v>
+      </c>
+      <c r="W131" s="24">
+        <v>1</v>
+      </c>
+      <c r="X131" s="28" t="s">
+        <v>462</v>
+      </c>
+      <c r="Y131" s="24" t="s">
+        <v>325</v>
+      </c>
+      <c r="Z131" s="24" t="s">
+        <v>327</v>
+      </c>
+      <c r="AA131" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="AB131" s="25">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
